--- a/Assets/Excel/Map/Chapter_1/Chapter_1.xlsx
+++ b/Assets/Excel/Map/Chapter_1/Chapter_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\UnityFile\Project_Run-Game\Project_Run-Game-Production\Assets\Excel\Map\Chapter_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874AA2B8-7189-4D73-8B16-1780219D8CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AFC689-A7BD-494C-BFB0-8738DBB6C0CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12630" yWindow="2055" windowWidth="16905" windowHeight="10875" xr2:uid="{7789A3F8-44EE-4C38-A573-079D1C4BC80F}"/>
+    <workbookView xWindow="17760" yWindow="2565" windowWidth="16905" windowHeight="10875" xr2:uid="{7789A3F8-44EE-4C38-A573-079D1C4BC80F}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage_1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="12">
   <si>
     <t>CoinType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +88,10 @@
   </si>
   <si>
     <t>======</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coin_3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -501,31 +505,31 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="1" t="str">
         <f>SUM(C:C) &amp; " 개"</f>
-        <v>20 개</v>
+        <v>116 개</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
@@ -533,13 +537,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
@@ -567,7 +571,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>6</v>
@@ -592,10 +596,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>6</v>
@@ -603,13 +607,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>6</v>
@@ -617,13 +621,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>6</v>
@@ -669,7 +673,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -876,7 +880,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1083,7 +1087,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1290,7 +1294,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1497,7 +1501,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1704,7 +1708,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1911,7 +1915,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2118,7 +2122,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2325,7 +2329,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/Excel/Map/Chapter_1/Chapter_1.xlsx
+++ b/Assets/Excel/Map/Chapter_1/Chapter_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\UnityFile\Project_Run-Game\Project_Run-Game-Production\Assets\Excel\Map\Chapter_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AFC689-A7BD-494C-BFB0-8738DBB6C0CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45142B92-98EF-4BE5-9E90-65342145415D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17760" yWindow="2565" windowWidth="16905" windowHeight="10875" xr2:uid="{7789A3F8-44EE-4C38-A573-079D1C4BC80F}"/>
+    <workbookView xWindow="5025" yWindow="1530" windowWidth="21600" windowHeight="12945" xr2:uid="{7789A3F8-44EE-4C38-A573-079D1C4BC80F}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage_1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="15">
   <si>
     <t>CoinType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +92,17 @@
   </si>
   <si>
     <t>coin_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>Platform_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Platform</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C9955E-D329-426C-AA74-3448E8ED168B}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -474,13 +485,15 @@
     <col min="2" max="2" width="10.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="14.75" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -494,16 +507,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -516,12 +532,16 @@
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="str">
         <f>SUM(C:C) &amp; " 개"</f>
         <v>116 개</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -534,8 +554,12 @@
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -548,8 +572,12 @@
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -562,8 +590,12 @@
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -576,8 +608,12 @@
       <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -590,8 +626,12 @@
       <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -604,8 +644,12 @@
       <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -618,8 +662,12 @@
       <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -632,8 +680,12 @@
       <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -646,20 +698,38 @@
       <c r="D11" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D13" s="2"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -670,10 +740,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17DF9ED8-C620-459B-99EC-19F04818E321}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -682,13 +752,15 @@
     <col min="2" max="2" width="10.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="14.75" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -702,16 +774,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -724,12 +799,16 @@
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="str">
         <f>SUM(C:C) &amp; " 개"</f>
         <v>22 개</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -742,8 +821,12 @@
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -756,8 +839,12 @@
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -770,8 +857,12 @@
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -784,8 +875,12 @@
       <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -798,8 +893,12 @@
       <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -812,8 +911,12 @@
       <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -826,8 +929,12 @@
       <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -840,8 +947,12 @@
       <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -854,20 +965,38 @@
       <c r="D11" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D13" s="2"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -877,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D40F19-04CB-4AA4-9741-41F6888F37B1}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -889,13 +1018,15 @@
     <col min="2" max="2" width="10.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="14.75" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -909,16 +1040,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -931,12 +1065,16 @@
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="str">
         <f>SUM(C:C) &amp; " 개"</f>
         <v>22 개</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -949,8 +1087,12 @@
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -963,8 +1105,12 @@
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -977,8 +1123,12 @@
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -991,8 +1141,12 @@
       <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1005,8 +1159,12 @@
       <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1019,8 +1177,12 @@
       <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1033,8 +1195,12 @@
       <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -1047,8 +1213,12 @@
       <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -1061,20 +1231,38 @@
       <c r="D11" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D13" s="2"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1084,10 +1272,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F20716C-A8AD-4DAE-A7E4-7DDCB053F8D7}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1096,13 +1284,15 @@
     <col min="2" max="2" width="10.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="14.75" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1116,16 +1306,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1138,12 +1331,16 @@
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="str">
         <f>SUM(C:C) &amp; " 개"</f>
         <v>22 개</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1156,8 +1353,12 @@
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1170,8 +1371,12 @@
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1184,8 +1389,12 @@
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1198,8 +1407,12 @@
       <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1212,8 +1425,12 @@
       <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1226,8 +1443,12 @@
       <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1240,8 +1461,12 @@
       <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -1254,8 +1479,12 @@
       <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -1268,20 +1497,38 @@
       <c r="D11" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D13" s="2"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1291,10 +1538,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5D3D1D-CFA4-4C1D-A4DE-BD925E94E257}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1303,13 +1550,15 @@
     <col min="2" max="2" width="10.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="14.75" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1323,16 +1572,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1345,12 +1597,16 @@
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="str">
         <f>SUM(C:C) &amp; " 개"</f>
         <v>22 개</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1363,8 +1619,12 @@
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1377,8 +1637,12 @@
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1391,8 +1655,12 @@
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1405,8 +1673,12 @@
       <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1419,8 +1691,12 @@
       <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1433,8 +1709,12 @@
       <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1447,8 +1727,12 @@
       <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -1461,8 +1745,12 @@
       <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -1475,20 +1763,38 @@
       <c r="D11" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D13" s="2"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1498,10 +1804,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC34187-A8AF-4586-8EE1-6E5E1B344A6A}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1510,13 +1816,15 @@
     <col min="2" max="2" width="10.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="14.75" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1530,16 +1838,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1552,12 +1863,16 @@
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="str">
         <f>SUM(C:C) &amp; " 개"</f>
         <v>22 개</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1570,8 +1885,12 @@
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1584,8 +1903,12 @@
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1598,8 +1921,12 @@
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1612,8 +1939,12 @@
       <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1626,8 +1957,12 @@
       <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1640,8 +1975,12 @@
       <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1654,8 +1993,12 @@
       <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -1668,8 +2011,12 @@
       <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -1682,20 +2029,38 @@
       <c r="D11" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D13" s="2"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1705,10 +2070,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F562BDF9-DC5B-4ACC-99BF-7EDFEC2239A7}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1717,13 +2082,15 @@
     <col min="2" max="2" width="10.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="14.75" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1737,16 +2104,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1759,12 +2129,16 @@
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="str">
         <f>SUM(C:C) &amp; " 개"</f>
         <v>22 개</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1777,8 +2151,12 @@
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1791,8 +2169,12 @@
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1805,8 +2187,12 @@
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1819,8 +2205,12 @@
       <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1833,8 +2223,12 @@
       <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1847,8 +2241,12 @@
       <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1861,8 +2259,12 @@
       <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -1875,8 +2277,12 @@
       <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -1889,20 +2295,38 @@
       <c r="D11" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D13" s="2"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1912,10 +2336,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B2A810-27AF-485E-8346-9E6DD3C4FEDD}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1924,13 +2348,15 @@
     <col min="2" max="2" width="10.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="14.75" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1944,16 +2370,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1966,12 +2395,16 @@
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="str">
         <f>SUM(C:C) &amp; " 개"</f>
         <v>22 개</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1984,8 +2417,12 @@
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1998,8 +2435,12 @@
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2012,8 +2453,12 @@
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2026,8 +2471,12 @@
       <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2040,8 +2489,12 @@
       <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2054,8 +2507,12 @@
       <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -2068,8 +2525,12 @@
       <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -2082,8 +2543,12 @@
       <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -2096,20 +2561,38 @@
       <c r="D11" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D13" s="2"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2119,10 +2602,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93557007-48CC-4915-B676-2018C849F25D}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2131,13 +2614,15 @@
     <col min="2" max="2" width="10.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="14.75" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2151,16 +2636,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2173,12 +2661,16 @@
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="str">
         <f>SUM(C:C) &amp; " 개"</f>
         <v>22 개</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2191,8 +2683,12 @@
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2205,8 +2701,12 @@
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2219,8 +2719,12 @@
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2233,8 +2737,12 @@
       <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2247,8 +2755,12 @@
       <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2261,8 +2773,12 @@
       <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -2275,8 +2791,12 @@
       <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -2289,8 +2809,12 @@
       <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -2303,20 +2827,38 @@
       <c r="D11" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D13" s="2"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2326,10 +2868,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6947ED53-20B0-45E4-B382-9F51ECE0AD2B}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2338,13 +2880,15 @@
     <col min="2" max="2" width="10.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="14.75" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2358,16 +2902,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2380,12 +2927,16 @@
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="str">
         <f>SUM(C:C) &amp; " 개"</f>
         <v>22 개</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2398,8 +2949,12 @@
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2412,8 +2967,12 @@
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2426,8 +2985,12 @@
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2440,8 +3003,12 @@
       <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2454,8 +3021,12 @@
       <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2468,8 +3039,12 @@
       <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -2482,8 +3057,12 @@
       <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -2496,8 +3075,12 @@
       <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -2510,20 +3093,38 @@
       <c r="D11" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D13" s="2"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Excel/Map/Chapter_1/Chapter_1.xlsx
+++ b/Assets/Excel/Map/Chapter_1/Chapter_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\UnityFile\Project_Run-Game\Project_Run-Game-Production\Assets\Excel\Map\Chapter_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45142B92-98EF-4BE5-9E90-65342145415D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250504CC-1794-4712-B2BF-17DA3CC46D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5025" yWindow="1530" windowWidth="21600" windowHeight="12945" xr2:uid="{7789A3F8-44EE-4C38-A573-079D1C4BC80F}"/>
+    <workbookView xWindow="1200" yWindow="165" windowWidth="25245" windowHeight="14190" xr2:uid="{7789A3F8-44EE-4C38-A573-079D1C4BC80F}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage_1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="16">
   <si>
     <t>CoinType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,14 +95,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Platform</t>
-  </si>
-  <si>
     <t>Platform_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Platform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obstacle_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlatformPos</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C9955E-D329-426C-AA74-3448E8ED168B}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -486,14 +491,14 @@
     <col min="3" max="3" width="13.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.75" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.75" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -507,19 +512,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -527,21 +535,23 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="str">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="str">
         <f>SUM(C:C) &amp; " 개"</f>
-        <v>116 개</v>
-      </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>106 개</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -557,9 +567,8 @@
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -575,9 +584,8 @@
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -588,14 +596,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -611,9 +618,8 @@
       <c r="E6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -627,11 +633,10 @@
         <v>6</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -647,9 +652,8 @@
       <c r="E8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -665,9 +669,8 @@
       <c r="E9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -683,9 +686,8 @@
       <c r="E10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -699,37 +701,22 @@
         <v>6</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D13" s="2"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -740,10 +727,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17DF9ED8-C620-459B-99EC-19F04818E321}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -753,14 +740,14 @@
     <col min="3" max="3" width="13.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.75" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.75" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -774,41 +761,46 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="str">
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="str">
         <f>SUM(C:C) &amp; " 개"</f>
         <v>22 개</v>
       </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -824,9 +816,8 @@
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -842,9 +833,8 @@
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -860,9 +850,8 @@
       <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -878,9 +867,8 @@
       <c r="E6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -896,9 +884,8 @@
       <c r="E7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -914,9 +901,8 @@
       <c r="E8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -932,9 +918,8 @@
       <c r="E9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -950,9 +935,8 @@
       <c r="E10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -968,35 +952,20 @@
       <c r="E11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D13" s="2"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1006,10 +975,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D40F19-04CB-4AA4-9741-41F6888F37B1}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1019,14 +988,14 @@
     <col min="3" max="3" width="13.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.75" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.75" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1040,19 +1009,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1066,15 +1038,17 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="str">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="str">
         <f>SUM(C:C) &amp; " 개"</f>
         <v>22 개</v>
       </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1090,9 +1064,8 @@
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1108,9 +1081,8 @@
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1126,9 +1098,8 @@
       <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1144,9 +1115,8 @@
       <c r="E6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1162,9 +1132,8 @@
       <c r="E7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1180,9 +1149,8 @@
       <c r="E8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1198,9 +1166,8 @@
       <c r="E9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -1216,9 +1183,8 @@
       <c r="E10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -1234,35 +1200,20 @@
       <c r="E11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D13" s="2"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1272,10 +1223,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F20716C-A8AD-4DAE-A7E4-7DDCB053F8D7}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1285,14 +1236,14 @@
     <col min="3" max="3" width="13.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.75" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.75" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1306,41 +1257,46 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="str">
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="str">
         <f>SUM(C:C) &amp; " 개"</f>
         <v>22 개</v>
       </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1356,9 +1312,8 @@
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1374,9 +1329,8 @@
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1392,9 +1346,8 @@
       <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1410,9 +1363,8 @@
       <c r="E6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1428,9 +1380,8 @@
       <c r="E7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1446,9 +1397,8 @@
       <c r="E8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1464,9 +1414,8 @@
       <c r="E9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -1482,9 +1431,8 @@
       <c r="E10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -1500,35 +1448,20 @@
       <c r="E11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D13" s="2"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1538,10 +1471,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5D3D1D-CFA4-4C1D-A4DE-BD925E94E257}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1551,14 +1484,14 @@
     <col min="3" max="3" width="13.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.75" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.75" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1572,41 +1505,46 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="str">
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="str">
         <f>SUM(C:C) &amp; " 개"</f>
         <v>22 개</v>
       </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1622,9 +1560,8 @@
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1640,9 +1577,8 @@
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1658,9 +1594,8 @@
       <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1676,9 +1611,8 @@
       <c r="E6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1694,9 +1628,8 @@
       <c r="E7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1712,9 +1645,8 @@
       <c r="E8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1730,9 +1662,8 @@
       <c r="E9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -1748,9 +1679,8 @@
       <c r="E10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -1766,35 +1696,20 @@
       <c r="E11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D13" s="2"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1804,10 +1719,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC34187-A8AF-4586-8EE1-6E5E1B344A6A}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1817,14 +1732,14 @@
     <col min="3" max="3" width="13.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.75" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.75" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1838,41 +1753,46 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="str">
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="str">
         <f>SUM(C:C) &amp; " 개"</f>
         <v>22 개</v>
       </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1888,9 +1808,8 @@
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1906,9 +1825,8 @@
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1924,9 +1842,8 @@
       <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1942,9 +1859,8 @@
       <c r="E6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1960,9 +1876,8 @@
       <c r="E7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1978,9 +1893,8 @@
       <c r="E8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1996,9 +1910,8 @@
       <c r="E9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -2014,9 +1927,8 @@
       <c r="E10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -2032,35 +1944,20 @@
       <c r="E11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D13" s="2"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2070,10 +1967,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F562BDF9-DC5B-4ACC-99BF-7EDFEC2239A7}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2083,14 +1980,14 @@
     <col min="3" max="3" width="13.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.75" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.75" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2104,41 +2001,46 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="str">
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="str">
         <f>SUM(C:C) &amp; " 개"</f>
         <v>22 개</v>
       </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2154,9 +2056,8 @@
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2172,9 +2073,8 @@
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2190,9 +2090,8 @@
       <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2208,9 +2107,8 @@
       <c r="E6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2226,9 +2124,8 @@
       <c r="E7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2244,9 +2141,8 @@
       <c r="E8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -2262,9 +2158,8 @@
       <c r="E9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -2280,9 +2175,8 @@
       <c r="E10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -2298,35 +2192,20 @@
       <c r="E11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D13" s="2"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2336,10 +2215,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B2A810-27AF-485E-8346-9E6DD3C4FEDD}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2349,14 +2228,14 @@
     <col min="3" max="3" width="13.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.75" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.75" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2370,41 +2249,46 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="str">
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="str">
         <f>SUM(C:C) &amp; " 개"</f>
         <v>22 개</v>
       </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2420,9 +2304,8 @@
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2438,9 +2321,8 @@
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2456,9 +2338,8 @@
       <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2474,9 +2355,8 @@
       <c r="E6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2492,9 +2372,8 @@
       <c r="E7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2510,9 +2389,8 @@
       <c r="E8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -2528,9 +2406,8 @@
       <c r="E9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -2546,9 +2423,8 @@
       <c r="E10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -2564,35 +2440,20 @@
       <c r="E11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D13" s="2"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2602,10 +2463,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93557007-48CC-4915-B676-2018C849F25D}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2615,14 +2476,14 @@
     <col min="3" max="3" width="13.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.75" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.75" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2636,41 +2497,46 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="str">
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="str">
         <f>SUM(C:C) &amp; " 개"</f>
         <v>22 개</v>
       </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2686,9 +2552,8 @@
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2704,9 +2569,8 @@
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2722,9 +2586,8 @@
       <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2740,9 +2603,8 @@
       <c r="E6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2758,9 +2620,8 @@
       <c r="E7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2776,9 +2637,8 @@
       <c r="E8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -2794,9 +2654,8 @@
       <c r="E9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -2812,9 +2671,8 @@
       <c r="E10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -2830,35 +2688,20 @@
       <c r="E11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D13" s="2"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2868,10 +2711,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6947ED53-20B0-45E4-B382-9F51ECE0AD2B}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2881,14 +2724,14 @@
     <col min="3" max="3" width="13.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.75" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.75" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2902,41 +2745,46 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="str">
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="str">
         <f>SUM(C:C) &amp; " 개"</f>
         <v>22 개</v>
       </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2952,9 +2800,8 @@
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2970,9 +2817,8 @@
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2988,9 +2834,8 @@
       <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -3006,9 +2851,8 @@
       <c r="E6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -3024,9 +2868,8 @@
       <c r="E7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -3042,9 +2885,8 @@
       <c r="E8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -3060,9 +2902,8 @@
       <c r="E9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -3078,9 +2919,8 @@
       <c r="E10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -3096,35 +2936,20 @@
       <c r="E11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D13" s="2"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Excel/Map/Chapter_1/Chapter_1.xlsx
+++ b/Assets/Excel/Map/Chapter_1/Chapter_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\UnityFile\Project_Run-Game\Project_Run-Game-Production\Assets\Excel\Map\Chapter_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250504CC-1794-4712-B2BF-17DA3CC46D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F243A1-0B2D-4429-A3FC-0B153E0EBB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="165" windowWidth="25245" windowHeight="14190" xr2:uid="{7789A3F8-44EE-4C38-A573-079D1C4BC80F}"/>
+    <workbookView xWindow="330" yWindow="1335" windowWidth="28800" windowHeight="11295" xr2:uid="{7789A3F8-44EE-4C38-A573-079D1C4BC80F}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage_1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="17">
   <si>
     <t>CoinType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +108,10 @@
   </si>
   <si>
     <t>PlatformPos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -481,7 +485,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -529,7 +533,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>

--- a/Assets/Excel/Map/Chapter_1/Chapter_1.xlsx
+++ b/Assets/Excel/Map/Chapter_1/Chapter_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\UnityFile\Project_Run-Game\Project_Run-Game-Production\Assets\Excel\Map\Chapter_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Project_Run-Game-Production\Assets\Excel\Map\Chapter_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F243A1-0B2D-4429-A3FC-0B153E0EBB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685FA967-06EC-46A3-A96D-3140C1100FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="1335" windowWidth="28800" windowHeight="11295" xr2:uid="{7789A3F8-44EE-4C38-A573-079D1C4BC80F}"/>
+    <workbookView xWindow="13440" yWindow="600" windowWidth="13965" windowHeight="13260" xr2:uid="{7789A3F8-44EE-4C38-A573-079D1C4BC80F}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage_1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="27">
   <si>
     <t>CoinType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,10 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>coin_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Platform_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,6 +108,48 @@
   </si>
   <si>
     <t>HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obstacle_1</t>
+  </si>
+  <si>
+    <t>====</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obstacle_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obstacle_3</t>
+  </si>
+  <si>
+    <t>Obstacle_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coin_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obstacle_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obstacle_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obstacle_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C9955E-D329-426C-AA74-3448E8ED168B}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A175" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G181" sqref="G181:G182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -516,10 +554,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>9</v>
@@ -533,7 +571,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -545,28 +583,25 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H2" s="1" t="str">
         <f>SUM(C:C) &amp; " 개"</f>
-        <v>106 개</v>
+        <v>685 개</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>6</v>
@@ -574,13 +609,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
@@ -594,13 +629,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>6</v>
@@ -611,10 +646,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>6</v>
@@ -628,13 +663,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>6</v>
@@ -648,7 +683,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>6</v>
@@ -659,16 +694,16 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>6</v>
@@ -676,13 +711,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>6</v>
@@ -696,36 +731,3168 @@
         <v>4</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D13" s="2"/>
+      <c r="D14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>10</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>4</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="1">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2">
+        <v>8</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2</v>
+      </c>
+      <c r="C32" s="1">
+        <v>5</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1">
+        <v>5</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="1">
+        <v>3</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1">
+        <v>10</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1">
+        <v>4</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1">
+        <v>7</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1">
+        <v>4</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="1">
+        <v>3</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1">
+        <v>6</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="1">
+        <v>2</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1">
+        <v>10</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1">
+        <v>2</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="1">
+        <v>2</v>
+      </c>
+      <c r="C48" s="1">
+        <v>10</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1">
+        <v>2</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1">
+        <v>6</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0</v>
+      </c>
+      <c r="C51" s="1">
+        <v>6</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="1">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1">
+        <v>10</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0</v>
+      </c>
+      <c r="C53" s="1">
+        <v>5</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0</v>
+      </c>
+      <c r="C55" s="1">
+        <v>2</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="1">
+        <v>1</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="1">
+        <v>0</v>
+      </c>
+      <c r="C57" s="1">
+        <v>2</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" s="1">
+        <v>1</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0</v>
+      </c>
+      <c r="C59" s="1">
+        <v>2</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="1">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1">
+        <v>7</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="1">
+        <v>2</v>
+      </c>
+      <c r="C61" s="1">
+        <v>2</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="1">
+        <v>1</v>
+      </c>
+      <c r="C62" s="1">
+        <v>10</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="1">
+        <v>2</v>
+      </c>
+      <c r="C63" s="1">
+        <v>2</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="1">
+        <v>3</v>
+      </c>
+      <c r="C64" s="1">
+        <v>2</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="1">
+        <v>1</v>
+      </c>
+      <c r="C65" s="1">
+        <v>10</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="1">
+        <v>3</v>
+      </c>
+      <c r="C66" s="1">
+        <v>2</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="1">
+        <v>1</v>
+      </c>
+      <c r="C67" s="1">
+        <v>5</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" s="1">
+        <v>2</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" s="1">
+        <v>1</v>
+      </c>
+      <c r="C69" s="1">
+        <v>5</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" s="1">
+        <v>2</v>
+      </c>
+      <c r="C70" s="1">
+        <v>2</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" s="1">
+        <v>1</v>
+      </c>
+      <c r="C71" s="1">
+        <v>4</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" s="1">
+        <v>3</v>
+      </c>
+      <c r="C72" s="1">
+        <v>2</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" s="1">
+        <v>1</v>
+      </c>
+      <c r="C73" s="1">
+        <v>8</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" s="1">
+        <v>0</v>
+      </c>
+      <c r="C74" s="1">
+        <v>15</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" s="1">
+        <v>1</v>
+      </c>
+      <c r="C75" s="1">
+        <v>5</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" s="1">
+        <v>2</v>
+      </c>
+      <c r="C76" s="1">
+        <v>4</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" s="1">
+        <v>3</v>
+      </c>
+      <c r="C77" s="1">
+        <v>7</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" s="1">
+        <v>4</v>
+      </c>
+      <c r="C78" s="1">
+        <v>10</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B79" s="1">
+        <v>4</v>
+      </c>
+      <c r="C79" s="1">
+        <v>1</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" s="1">
+        <v>1</v>
+      </c>
+      <c r="C80" s="1">
+        <v>7</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" s="1">
+        <v>2</v>
+      </c>
+      <c r="C81" s="1">
+        <v>2</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" s="1">
+        <v>1</v>
+      </c>
+      <c r="C82" s="1">
+        <v>4</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" s="1">
+        <v>3</v>
+      </c>
+      <c r="C83" s="1">
+        <v>2</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" s="1">
+        <v>1</v>
+      </c>
+      <c r="C84" s="1">
+        <v>3</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85" s="1">
+        <v>2</v>
+      </c>
+      <c r="C85" s="1">
+        <v>1</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" s="1">
+        <v>1</v>
+      </c>
+      <c r="C86" s="1">
+        <v>2</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87" s="1">
+        <v>2</v>
+      </c>
+      <c r="C87" s="1">
+        <v>1</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88" s="1">
+        <v>1</v>
+      </c>
+      <c r="C88" s="1">
+        <v>5</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" s="1">
+        <v>3</v>
+      </c>
+      <c r="C89" s="1">
+        <v>2</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B90" s="1">
+        <v>1</v>
+      </c>
+      <c r="C90" s="1">
+        <v>2</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91" s="1">
+        <v>0</v>
+      </c>
+      <c r="C91" s="1">
+        <v>4</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92" s="1">
+        <v>1</v>
+      </c>
+      <c r="C92" s="1">
+        <v>5</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B93" s="1">
+        <v>1</v>
+      </c>
+      <c r="C93" s="1">
+        <v>2</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94" s="1">
+        <v>2</v>
+      </c>
+      <c r="C94" s="1">
+        <v>10</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B95" s="1">
+        <v>3</v>
+      </c>
+      <c r="C95" s="1">
+        <v>7</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96" s="1">
+        <v>3</v>
+      </c>
+      <c r="C96" s="1">
+        <v>2</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97" s="1">
+        <v>1</v>
+      </c>
+      <c r="C97" s="1">
+        <v>3</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" s="1">
+        <v>2</v>
+      </c>
+      <c r="C98" s="1">
+        <v>2</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99" s="1">
+        <v>1</v>
+      </c>
+      <c r="C99" s="1">
+        <v>10</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100" s="1">
+        <v>0</v>
+      </c>
+      <c r="C100" s="1">
+        <v>2</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101" s="1">
+        <v>1</v>
+      </c>
+      <c r="C101" s="1">
+        <v>6</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102" s="1">
+        <v>2</v>
+      </c>
+      <c r="C102" s="1">
+        <v>1</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B103" s="1">
+        <v>1</v>
+      </c>
+      <c r="C103" s="1">
+        <v>4</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B104" s="1">
+        <v>3</v>
+      </c>
+      <c r="C104" s="1">
+        <v>2</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B105" s="1">
+        <v>1</v>
+      </c>
+      <c r="C105" s="1">
+        <v>3</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B106" s="1">
+        <v>2</v>
+      </c>
+      <c r="C106" s="1">
+        <v>1</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B107" s="1">
+        <v>1</v>
+      </c>
+      <c r="C107" s="1">
+        <v>4</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B108" s="1">
+        <v>3</v>
+      </c>
+      <c r="C108" s="1">
+        <v>2</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B109" s="1">
+        <v>1</v>
+      </c>
+      <c r="C109" s="1">
+        <v>5</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B110" s="1">
+        <v>0</v>
+      </c>
+      <c r="C110" s="1">
+        <v>6</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B111" s="1">
+        <v>0</v>
+      </c>
+      <c r="C111" s="1">
+        <v>1</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B112" s="1">
+        <v>1</v>
+      </c>
+      <c r="C112" s="1">
+        <v>3</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B113" s="1">
+        <v>1</v>
+      </c>
+      <c r="C113" s="1">
+        <v>4</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B114" s="1">
+        <v>2</v>
+      </c>
+      <c r="C114" s="1">
+        <v>2</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B115" s="1">
+        <v>1</v>
+      </c>
+      <c r="C115" s="1">
+        <v>3</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B116" s="1">
+        <v>3</v>
+      </c>
+      <c r="C116" s="1">
+        <v>2</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B117" s="1">
+        <v>1</v>
+      </c>
+      <c r="C117" s="1">
+        <v>7</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B118" s="1">
+        <v>0</v>
+      </c>
+      <c r="C118" s="1">
+        <v>5</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B119" s="1">
+        <v>1</v>
+      </c>
+      <c r="C119" s="1">
+        <v>5</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B120" s="1">
+        <v>2</v>
+      </c>
+      <c r="C120" s="1">
+        <v>1</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B121" s="1">
+        <v>3</v>
+      </c>
+      <c r="C121" s="1">
+        <v>2</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B122" s="1">
+        <v>2</v>
+      </c>
+      <c r="C122" s="1">
+        <v>1</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B123" s="1">
+        <v>1</v>
+      </c>
+      <c r="C123" s="1">
+        <v>5</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B124" s="1">
+        <v>2</v>
+      </c>
+      <c r="C124" s="1">
+        <v>2</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B125" s="1">
+        <v>1</v>
+      </c>
+      <c r="C125" s="1">
+        <v>4</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B126" s="1">
+        <v>3</v>
+      </c>
+      <c r="C126" s="1">
+        <v>2</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B127" s="1">
+        <v>1</v>
+      </c>
+      <c r="C127" s="1">
+        <v>2</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B128" s="1">
+        <v>0</v>
+      </c>
+      <c r="C128" s="1">
+        <v>3</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B129" s="1">
+        <v>1</v>
+      </c>
+      <c r="C129" s="1">
+        <v>5</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B130" s="1">
+        <v>2</v>
+      </c>
+      <c r="C130" s="1">
+        <v>2</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B131" s="1">
+        <v>3</v>
+      </c>
+      <c r="C131" s="1">
+        <v>1</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B132" s="1">
+        <v>2</v>
+      </c>
+      <c r="C132" s="1">
+        <v>2</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B133" s="1">
+        <v>1</v>
+      </c>
+      <c r="C133" s="1">
+        <v>4</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B134" s="1">
+        <v>2</v>
+      </c>
+      <c r="C134" s="1">
+        <v>2</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B135" s="1">
+        <v>1</v>
+      </c>
+      <c r="C135" s="1">
+        <v>3</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B136" s="1">
+        <v>2</v>
+      </c>
+      <c r="C136" s="1">
+        <v>10</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B137" s="1">
+        <v>1</v>
+      </c>
+      <c r="C137" s="1">
+        <v>5</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B138" s="1">
+        <v>3</v>
+      </c>
+      <c r="C138" s="1">
+        <v>2</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B139" s="1">
+        <v>1</v>
+      </c>
+      <c r="C139" s="1">
+        <v>4</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B140" s="1">
+        <v>3</v>
+      </c>
+      <c r="C140" s="1">
+        <v>2</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B141" s="1">
+        <v>1</v>
+      </c>
+      <c r="C141" s="1">
+        <v>4</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B142" s="1">
+        <v>3</v>
+      </c>
+      <c r="C142" s="1">
+        <v>2</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B143" s="1">
+        <v>1</v>
+      </c>
+      <c r="C143" s="1">
+        <v>3</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B144" s="1">
+        <v>2</v>
+      </c>
+      <c r="C144" s="1">
+        <v>1</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B145" s="1">
+        <v>1</v>
+      </c>
+      <c r="C145" s="1">
+        <v>3</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B146" s="1">
+        <v>0</v>
+      </c>
+      <c r="C146" s="1">
+        <v>2</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B147" s="1">
+        <v>1</v>
+      </c>
+      <c r="C147" s="1">
+        <v>4</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B148" s="1">
+        <v>3</v>
+      </c>
+      <c r="C148" s="1">
+        <v>2</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B149" s="1">
+        <v>1</v>
+      </c>
+      <c r="C149" s="1">
+        <v>3</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B150" s="1">
+        <v>2</v>
+      </c>
+      <c r="C150" s="1">
+        <v>2</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B151" s="1">
+        <v>1</v>
+      </c>
+      <c r="C151" s="1">
+        <v>5</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B152" s="1">
+        <v>0</v>
+      </c>
+      <c r="C152" s="1">
+        <v>8</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B153" s="1">
+        <v>1</v>
+      </c>
+      <c r="C153" s="1">
+        <v>3</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B154" s="1">
+        <v>2</v>
+      </c>
+      <c r="C154" s="1">
+        <v>1</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B155" s="1">
+        <v>1</v>
+      </c>
+      <c r="C155" s="1">
+        <v>4</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B156" s="1">
+        <v>3</v>
+      </c>
+      <c r="C156" s="1">
+        <v>2</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B157" s="1">
+        <v>1</v>
+      </c>
+      <c r="C157" s="1">
+        <v>6</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B158" s="1">
+        <v>2</v>
+      </c>
+      <c r="C158" s="1">
+        <v>7</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F158" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B159" s="1">
+        <v>1</v>
+      </c>
+      <c r="C159" s="1">
+        <v>4</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B160" s="1">
+        <v>3</v>
+      </c>
+      <c r="C160" s="1">
+        <v>2</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B161" s="1">
+        <v>1</v>
+      </c>
+      <c r="C161" s="1">
+        <v>5</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B162" s="1">
+        <v>2</v>
+      </c>
+      <c r="C162" s="1">
+        <v>1</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B163" s="1">
+        <v>1</v>
+      </c>
+      <c r="C163" s="1">
+        <v>4</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B164" s="1">
+        <v>2</v>
+      </c>
+      <c r="C164" s="1">
+        <v>1</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B165" s="1">
+        <v>3</v>
+      </c>
+      <c r="C165" s="1">
+        <v>1</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B166" s="1">
+        <v>2</v>
+      </c>
+      <c r="C166" s="1">
+        <v>1</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B167" s="1">
+        <v>1</v>
+      </c>
+      <c r="C167" s="1">
+        <v>4</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B168" s="1">
+        <v>0</v>
+      </c>
+      <c r="C168" s="1">
+        <v>1</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B169" s="1">
+        <v>1</v>
+      </c>
+      <c r="C169" s="1">
+        <v>3</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B170" s="1">
+        <v>3</v>
+      </c>
+      <c r="C170" s="1">
+        <v>2</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B171" s="1">
+        <v>1</v>
+      </c>
+      <c r="C171" s="1">
+        <v>4</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B172" s="1">
+        <v>2</v>
+      </c>
+      <c r="C172" s="1">
+        <v>2</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B173" s="1">
+        <v>2</v>
+      </c>
+      <c r="C173" s="1">
+        <v>1</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B174" s="1">
+        <v>1</v>
+      </c>
+      <c r="C174" s="1">
+        <v>4</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B175" s="1">
+        <v>0</v>
+      </c>
+      <c r="C175" s="1">
+        <v>5</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B176" s="1">
+        <v>1</v>
+      </c>
+      <c r="C176" s="1">
+        <v>2</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B177" s="1">
+        <v>3</v>
+      </c>
+      <c r="C177" s="1">
+        <v>2</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B178" s="1">
+        <v>1</v>
+      </c>
+      <c r="C178" s="1">
+        <v>3</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B179" s="1">
+        <v>2</v>
+      </c>
+      <c r="C179" s="1">
+        <v>1</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B180" s="1">
+        <v>1</v>
+      </c>
+      <c r="C180" s="1">
+        <v>3</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B181" s="1">
+        <v>3</v>
+      </c>
+      <c r="C181" s="1">
+        <v>2</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B182" s="1">
+        <v>1</v>
+      </c>
+      <c r="C182" s="1">
+        <v>4</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B183" s="1">
+        <v>2</v>
+      </c>
+      <c r="C183" s="1">
+        <v>5</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B184" s="1">
+        <v>0</v>
+      </c>
+      <c r="C184" s="1">
+        <v>1</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B185" s="1">
+        <v>1</v>
+      </c>
+      <c r="C185" s="1">
+        <v>2</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B186" s="1">
+        <v>0</v>
+      </c>
+      <c r="C186" s="1">
+        <v>1</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B187" s="1">
+        <v>0</v>
+      </c>
+      <c r="C187" s="1">
+        <v>2</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B188" s="1">
+        <v>1</v>
+      </c>
+      <c r="C188" s="1">
+        <v>3</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B189" s="1">
+        <v>2</v>
+      </c>
+      <c r="C189" s="1">
+        <v>2</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B190" s="1">
+        <v>1</v>
+      </c>
+      <c r="C190" s="1">
+        <v>4</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B191" s="1">
+        <v>2</v>
+      </c>
+      <c r="C191" s="1">
+        <v>3</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F191" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B192" s="1">
+        <v>3</v>
+      </c>
+      <c r="C192" s="1">
+        <v>4</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F192" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A193" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B193" s="1">
+        <v>4</v>
+      </c>
+      <c r="C193" s="1">
+        <v>3</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F193" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A194" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B194" s="1">
+        <v>5</v>
+      </c>
+      <c r="C194" s="1">
+        <v>5</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F194" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A195" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G195" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -765,10 +3932,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>9</v>
@@ -794,7 +3961,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -1013,10 +4180,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>9</v>
@@ -1042,7 +4209,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -1261,10 +4428,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>9</v>
@@ -1290,7 +4457,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -1509,10 +4676,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>9</v>
@@ -1538,7 +4705,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -1726,7 +4893,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1757,10 +4924,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>9</v>
@@ -1786,7 +4953,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -2005,10 +5172,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>9</v>
@@ -2034,7 +5201,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -2253,10 +5420,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>9</v>
@@ -2282,7 +5449,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -2501,10 +5668,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>9</v>
@@ -2530,7 +5697,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -2749,10 +5916,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>9</v>
@@ -2778,7 +5945,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>

--- a/Assets/Excel/Map/Chapter_1/Chapter_1.xlsx
+++ b/Assets/Excel/Map/Chapter_1/Chapter_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Project_Run-Game-Production\Assets\Excel\Map\Chapter_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685FA967-06EC-46A3-A96D-3140C1100FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9785722-F310-4A10-905B-2D990A789A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13440" yWindow="600" windowWidth="13965" windowHeight="13260" xr2:uid="{7789A3F8-44EE-4C38-A573-079D1C4BC80F}"/>
+    <workbookView xWindow="13440" yWindow="600" windowWidth="13965" windowHeight="13260" activeTab="1" xr2:uid="{7789A3F8-44EE-4C38-A573-079D1C4BC80F}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage_1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="33">
   <si>
     <t>CoinType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,10 +114,6 @@
     <t>Obstacle_1</t>
   </si>
   <si>
-    <t>====</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Obstacle_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -150,6 +146,34 @@
   </si>
   <si>
     <t>Obstacle_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obstacle_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Platform_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obstacle_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>====</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obstacle_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -522,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C9955E-D329-426C-AA74-3448E8ED168B}">
   <dimension ref="A1:I195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G181" sqref="G181:G182"/>
+    <sheetView topLeftCell="A178" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G196" sqref="G196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -587,7 +611,7 @@
       </c>
       <c r="H2" s="1" t="str">
         <f>SUM(C:C) &amp; " 개"</f>
-        <v>685 개</v>
+        <v>690 개</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -601,7 +625,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>6</v>
@@ -635,7 +659,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>6</v>
@@ -669,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>6</v>
@@ -737,7 +761,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>6</v>
@@ -805,7 +829,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>6</v>
@@ -839,7 +863,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>6</v>
@@ -873,10 +897,10 @@
         <v>2</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -907,7 +931,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>6</v>
@@ -941,7 +965,7 @@
         <v>10</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>6</v>
@@ -975,7 +999,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>6</v>
@@ -986,7 +1010,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" s="1">
         <v>3</v>
@@ -1006,10 +1030,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>6</v>
@@ -1054,7 +1078,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30" s="1">
         <v>2</v>
@@ -1145,7 +1169,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>6</v>
@@ -1187,7 +1211,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B38" s="1">
         <v>0</v>
@@ -1196,7 +1220,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>6</v>
@@ -1230,7 +1254,7 @@
         <v>2</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>6</v>
@@ -1264,7 +1288,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>6</v>
@@ -1315,7 +1339,7 @@
         <v>2</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>6</v>
@@ -1374,7 +1398,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B49" s="1">
         <v>1</v>
@@ -1391,7 +1415,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B50" s="1">
         <v>1</v>
@@ -1417,7 +1441,7 @@
         <v>6</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>6</v>
@@ -1451,7 +1475,7 @@
         <v>5</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>6</v>
@@ -1485,7 +1509,7 @@
         <v>2</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>6</v>
@@ -1519,7 +1543,7 @@
         <v>2</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>6</v>
@@ -1553,7 +1577,7 @@
         <v>2</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>6</v>
@@ -1587,7 +1611,7 @@
         <v>2</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>6</v>
@@ -1638,7 +1662,7 @@
         <v>2</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>6</v>
@@ -1672,7 +1696,7 @@
         <v>2</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>6</v>
@@ -1706,7 +1730,7 @@
         <v>1</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>6</v>
@@ -1740,7 +1764,7 @@
         <v>2</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>6</v>
@@ -1774,7 +1798,7 @@
         <v>2</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>6</v>
@@ -1808,7 +1832,7 @@
         <v>15</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>6</v>
@@ -1893,7 +1917,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B79" s="1">
         <v>4</v>
@@ -1910,7 +1934,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B80" s="1">
         <v>1</v>
@@ -1936,7 +1960,7 @@
         <v>2</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>6</v>
@@ -1970,7 +1994,7 @@
         <v>2</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>6</v>
@@ -2004,7 +2028,7 @@
         <v>1</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>6</v>
@@ -2038,7 +2062,7 @@
         <v>1</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>6</v>
@@ -2072,7 +2096,7 @@
         <v>2</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>6</v>
@@ -2080,7 +2104,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B90" s="1">
         <v>1</v>
@@ -2106,7 +2130,7 @@
         <v>4</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>6</v>
@@ -2157,7 +2181,7 @@
         <v>10</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>11</v>
@@ -2194,7 +2218,7 @@
         <v>2</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>6</v>
@@ -2228,7 +2252,7 @@
         <v>2</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>6</v>
@@ -2262,7 +2286,7 @@
         <v>2</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>6</v>
@@ -2330,7 +2354,7 @@
         <v>2</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>6</v>
@@ -2364,7 +2388,7 @@
         <v>1</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>6</v>
@@ -2398,7 +2422,7 @@
         <v>2</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>6</v>
@@ -2432,7 +2456,7 @@
         <v>6</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>6</v>
@@ -2449,7 +2473,7 @@
         <v>1</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>6</v>
@@ -2494,13 +2518,13 @@
         <v>4</v>
       </c>
       <c r="B114" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C114" s="1">
         <v>2</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>6</v>
@@ -2534,7 +2558,7 @@
         <v>2</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>6</v>
@@ -2568,7 +2592,7 @@
         <v>5</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>6</v>
@@ -2670,7 +2694,7 @@
         <v>2</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>6</v>
@@ -2704,7 +2728,7 @@
         <v>2</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>6</v>
@@ -2738,7 +2762,7 @@
         <v>3</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>6</v>
@@ -2775,7 +2799,7 @@
         <v>6</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
@@ -2840,7 +2864,7 @@
         <v>2</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>6</v>
@@ -2882,7 +2906,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B137" s="1">
         <v>1</v>
@@ -2908,7 +2932,7 @@
         <v>2</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>6</v>
@@ -2942,7 +2966,7 @@
         <v>2</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>6</v>
@@ -2976,7 +3000,7 @@
         <v>2</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>6</v>
@@ -3010,13 +3034,13 @@
         <v>1</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>4</v>
       </c>
@@ -3033,7 +3057,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>4</v>
       </c>
@@ -3044,81 +3068,81 @@
         <v>2</v>
       </c>
       <c r="D146" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B147" s="1">
+        <v>1</v>
+      </c>
+      <c r="C147" s="1">
+        <v>4</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B148" s="1">
+        <v>3</v>
+      </c>
+      <c r="C148" s="1">
+        <v>2</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B149" s="1">
+        <v>1</v>
+      </c>
+      <c r="C149" s="1">
+        <v>3</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B150" s="1">
+        <v>2</v>
+      </c>
+      <c r="C150" s="1">
+        <v>2</v>
+      </c>
+      <c r="D150" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E146" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B147" s="1">
-        <v>1</v>
-      </c>
-      <c r="C147" s="1">
-        <v>4</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B148" s="1">
-        <v>3</v>
-      </c>
-      <c r="C148" s="1">
-        <v>2</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B149" s="1">
-        <v>1</v>
-      </c>
-      <c r="C149" s="1">
-        <v>3</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B150" s="1">
-        <v>2</v>
-      </c>
-      <c r="C150" s="1">
-        <v>2</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="E150" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>4</v>
       </c>
@@ -3135,7 +3159,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>4</v>
       </c>
@@ -3146,47 +3170,47 @@
         <v>8</v>
       </c>
       <c r="D152" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B153" s="1">
+        <v>1</v>
+      </c>
+      <c r="C153" s="1">
+        <v>3</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B154" s="1">
+        <v>2</v>
+      </c>
+      <c r="C154" s="1">
+        <v>1</v>
+      </c>
+      <c r="D154" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E152" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B153" s="1">
-        <v>1</v>
-      </c>
-      <c r="C153" s="1">
-        <v>3</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B154" s="1">
-        <v>2</v>
-      </c>
-      <c r="C154" s="1">
-        <v>1</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="E154" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>4</v>
       </c>
@@ -3203,7 +3227,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>4</v>
       </c>
@@ -3214,13 +3238,13 @@
         <v>2</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>4</v>
       </c>
@@ -3237,7 +3261,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>4</v>
       </c>
@@ -3251,13 +3275,10 @@
         <v>6</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F158" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>4</v>
       </c>
@@ -3274,7 +3295,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>4</v>
       </c>
@@ -3285,7 +3306,7 @@
         <v>2</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>6</v>
@@ -3319,7 +3340,7 @@
         <v>1</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>6</v>
@@ -3421,7 +3442,7 @@
         <v>1</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>6</v>
@@ -3455,7 +3476,7 @@
         <v>2</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>6</v>
@@ -3489,7 +3510,7 @@
         <v>2</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>6</v>
@@ -3540,7 +3561,7 @@
         <v>5</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>6</v>
@@ -3563,7 +3584,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>4</v>
       </c>
@@ -3574,13 +3595,13 @@
         <v>2</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>4</v>
       </c>
@@ -3597,7 +3618,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>4</v>
       </c>
@@ -3608,13 +3629,13 @@
         <v>1</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>4</v>
       </c>
@@ -3631,24 +3652,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B181" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C181" s="1">
         <v>2</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>4</v>
       </c>
@@ -3665,7 +3686,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>4</v>
       </c>
@@ -3682,7 +3703,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>4</v>
       </c>
@@ -3693,13 +3714,13 @@
         <v>1</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>4</v>
       </c>
@@ -3716,7 +3737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>4</v>
       </c>
@@ -3727,13 +3748,13 @@
         <v>1</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>4</v>
       </c>
@@ -3750,7 +3771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>4</v>
       </c>
@@ -3767,7 +3788,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>4</v>
       </c>
@@ -3778,13 +3799,13 @@
         <v>2</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>4</v>
       </c>
@@ -3801,44 +3822,38 @@
         <v>6</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B191" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C191" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F191" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B192" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C192" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F192" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
@@ -3846,44 +3861,38 @@
         <v>4</v>
       </c>
       <c r="B193" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C193" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F193" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A194" s="1" t="s">
-        <v>15</v>
+      <c r="A194" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B194" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C194" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F194" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G195" s="1">
         <v>1</v>
@@ -4146,10 +4155,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D40F19-04CB-4AA4-9741-41F6888F37B1}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4197,198 +4206,1202 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="H2" s="1" t="str">
         <f>SUM(C:C) &amp; " 개"</f>
-        <v>22 개</v>
+        <v>241 개</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1">
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
+      <c r="A5" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="G12" s="1">
-        <v>1</v>
+      <c r="D12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D13" s="2"/>
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>4</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="1">
+        <v>3</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
+        <v>4</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1">
+        <v>3</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1">
+        <v>3</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1">
+        <v>4</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1">
+        <v>3</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="1">
+        <v>3</v>
+      </c>
+      <c r="C37" s="1">
+        <v>10</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1">
+        <v>5</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1">
+        <v>7</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="1">
+        <v>3</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1">
+        <v>5</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1">
+        <v>4</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1">
+        <v>3</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="1">
+        <v>3</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1">
+        <v>5</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="1">
+        <v>3</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1">
+        <v>7</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0</v>
+      </c>
+      <c r="C48" s="1">
+        <v>3</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1">
+        <v>2</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="1">
+        <v>3</v>
+      </c>
+      <c r="C50" s="1">
+        <v>2</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1">
+        <v>4</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="1">
+        <v>4</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="1">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1">
+        <v>5</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="1">
+        <v>3</v>
+      </c>
+      <c r="C54" s="1">
+        <v>2</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="1">
+        <v>1</v>
+      </c>
+      <c r="C55" s="1">
+        <v>3</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="1">
+        <v>2</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="1">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1">
+        <v>5</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="1">
+        <v>2</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="1">
+        <v>1</v>
+      </c>
+      <c r="C59" s="1">
+        <v>3</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0</v>
+      </c>
+      <c r="C60" s="1">
+        <v>7</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="1">
+        <v>1</v>
+      </c>
+      <c r="C61" s="1">
+        <v>4</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="1">
+        <v>0</v>
+      </c>
+      <c r="C62" s="1">
+        <v>3</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="1">
+        <v>1</v>
+      </c>
+      <c r="C63" s="1">
+        <v>2</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="1">
+        <v>0</v>
+      </c>
+      <c r="C64" s="1">
+        <v>2</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="1">
+        <v>1</v>
+      </c>
+      <c r="C65" s="1">
+        <v>4</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="1">
+        <v>3</v>
+      </c>
+      <c r="C66" s="1">
+        <v>10</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="1">
+        <v>4</v>
+      </c>
+      <c r="C67" s="1">
+        <v>6</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F67" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" s="1">
+        <v>3</v>
+      </c>
+      <c r="C68" s="1">
+        <v>10</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="1">
+        <v>1</v>
+      </c>
+      <c r="C69" s="1">
+        <v>5</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" s="1">
+        <v>1</v>
+      </c>
+      <c r="C70" s="1">
+        <v>5</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B71" s="1">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Assets/Excel/Map/Chapter_1/Chapter_1.xlsx
+++ b/Assets/Excel/Map/Chapter_1/Chapter_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Project_Run-Game-Production\Assets\Excel\Map\Chapter_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9785722-F310-4A10-905B-2D990A789A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F7C820-042A-4FEB-9714-A8612CE7FBE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13440" yWindow="600" windowWidth="13965" windowHeight="13260" activeTab="1" xr2:uid="{7789A3F8-44EE-4C38-A573-079D1C4BC80F}"/>
+    <workbookView xWindow="6660" yWindow="690" windowWidth="13965" windowHeight="13260" activeTab="1" xr2:uid="{7789A3F8-44EE-4C38-A573-079D1C4BC80F}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage_1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="36">
   <si>
     <t>CoinType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -174,6 +174,18 @@
   </si>
   <si>
     <t>HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>====</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Double</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4155,10 +4167,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D40F19-04CB-4AA4-9741-41F6888F37B1}">
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView tabSelected="1" topLeftCell="A150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G170" sqref="G170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4206,13 +4218,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>28</v>
@@ -4222,7 +4234,7 @@
       </c>
       <c r="H2" s="1" t="str">
         <f>SUM(C:C) &amp; " 개"</f>
-        <v>241 개</v>
+        <v>534 개</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -4757,7 +4769,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34" s="1">
         <v>2</v>
@@ -4808,7 +4820,7 @@
         <v>4</v>
       </c>
       <c r="B37" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C37" s="1">
         <v>10</v>
@@ -4961,7 +4973,7 @@
         <v>4</v>
       </c>
       <c r="B46" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C46" s="1">
         <v>2</v>
@@ -5392,10 +5404,1714 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B71" s="1">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C71" s="1">
+        <v>2</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" s="1">
+        <v>1</v>
+      </c>
+      <c r="C72" s="1">
+        <v>3</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" s="1">
+        <v>3</v>
+      </c>
+      <c r="C73" s="1">
+        <v>2</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" s="1">
+        <v>1</v>
+      </c>
+      <c r="C74" s="1">
+        <v>7</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" s="1">
+        <v>2</v>
+      </c>
+      <c r="C75" s="1">
+        <v>1</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" s="1">
+        <v>1</v>
+      </c>
+      <c r="C76" s="1">
+        <v>6</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" s="1">
+        <v>2</v>
+      </c>
+      <c r="C77" s="1">
+        <v>5</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" s="1">
+        <v>3</v>
+      </c>
+      <c r="C78" s="1">
+        <v>2</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" s="1">
+        <v>2</v>
+      </c>
+      <c r="C79" s="1">
+        <v>3</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B80" s="1">
+        <v>2</v>
+      </c>
+      <c r="C80" s="1">
+        <v>1</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" s="1">
+        <v>2</v>
+      </c>
+      <c r="C81" s="1">
+        <v>5</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" s="1">
+        <v>3</v>
+      </c>
+      <c r="C82" s="1">
+        <v>2</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" s="1">
+        <v>1</v>
+      </c>
+      <c r="C83" s="1">
+        <v>3</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" s="1">
+        <v>2</v>
+      </c>
+      <c r="C84" s="1">
+        <v>1</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85" s="1">
+        <v>1</v>
+      </c>
+      <c r="C85" s="1">
+        <v>4</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" s="1">
+        <v>0</v>
+      </c>
+      <c r="C86" s="1">
+        <v>2</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87" s="1">
+        <v>1</v>
+      </c>
+      <c r="C87" s="1">
+        <v>3</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88" s="1">
+        <v>3</v>
+      </c>
+      <c r="C88" s="1">
+        <v>2</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" s="1">
+        <v>1</v>
+      </c>
+      <c r="C89" s="1">
+        <v>5</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" s="1">
+        <v>2</v>
+      </c>
+      <c r="C90" s="1">
+        <v>1</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91" s="1">
+        <v>1</v>
+      </c>
+      <c r="C91" s="1">
+        <v>3</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92" s="1">
+        <v>2</v>
+      </c>
+      <c r="C92" s="1">
+        <v>2</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B93" s="1">
+        <v>1</v>
+      </c>
+      <c r="C93" s="1">
+        <v>4</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94" s="1">
+        <v>2</v>
+      </c>
+      <c r="C94" s="1">
+        <v>1</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B95" s="1">
+        <v>1</v>
+      </c>
+      <c r="C95" s="1">
+        <v>4</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96" s="1">
+        <v>0</v>
+      </c>
+      <c r="C96" s="1">
+        <v>3</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97" s="1">
+        <v>1</v>
+      </c>
+      <c r="C97" s="1">
+        <v>4</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" s="1">
+        <v>3</v>
+      </c>
+      <c r="C98" s="1">
+        <v>2</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99" s="1">
+        <v>1</v>
+      </c>
+      <c r="C99" s="1">
+        <v>4</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100" s="1">
+        <v>2</v>
+      </c>
+      <c r="C100" s="1">
+        <v>1</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101" s="1">
+        <v>1</v>
+      </c>
+      <c r="C101" s="1">
+        <v>3</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102" s="1">
+        <v>2</v>
+      </c>
+      <c r="C102" s="1">
+        <v>1</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B103" s="1">
+        <v>3</v>
+      </c>
+      <c r="C103" s="1">
+        <v>2</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B104" s="1">
+        <v>2</v>
+      </c>
+      <c r="C104" s="1">
+        <v>1</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B105" s="1">
+        <v>1</v>
+      </c>
+      <c r="C105" s="1">
+        <v>3</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B106" s="1">
+        <v>0</v>
+      </c>
+      <c r="C106" s="1">
+        <v>2</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B107" s="1">
+        <v>1</v>
+      </c>
+      <c r="C107" s="1">
+        <v>3</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B108" s="1">
+        <v>0</v>
+      </c>
+      <c r="C108" s="1">
+        <v>2</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B109" s="1">
+        <v>1</v>
+      </c>
+      <c r="C109" s="1">
+        <v>4</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B110" s="1">
+        <v>0</v>
+      </c>
+      <c r="C110" s="1">
+        <v>3</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B111" s="1">
+        <v>2</v>
+      </c>
+      <c r="C111" s="1">
+        <v>5</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B112" s="1">
+        <v>2</v>
+      </c>
+      <c r="C112" s="1">
+        <v>2</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B113" s="1">
+        <v>2</v>
+      </c>
+      <c r="C113" s="1">
+        <v>3</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B114" s="1">
+        <v>2</v>
+      </c>
+      <c r="C114" s="1">
+        <v>10</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F114" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B115" s="1">
+        <v>4</v>
+      </c>
+      <c r="C115" s="1">
+        <v>4</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F115" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B116" s="1">
+        <v>2</v>
+      </c>
+      <c r="C116" s="1">
+        <v>5</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F116" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B117" s="1">
+        <v>1</v>
+      </c>
+      <c r="C117" s="1">
+        <v>5</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B118" s="1">
+        <v>2</v>
+      </c>
+      <c r="C118" s="1">
+        <v>2</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B119" s="1">
+        <v>1</v>
+      </c>
+      <c r="C119" s="1">
+        <v>5</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B120" s="1">
+        <v>3</v>
+      </c>
+      <c r="C120" s="1">
+        <v>2</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B121" s="1">
+        <v>2</v>
+      </c>
+      <c r="C121" s="1">
+        <v>1</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B122" s="1">
+        <v>1</v>
+      </c>
+      <c r="C122" s="1">
+        <v>4</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B123" s="1">
+        <v>0</v>
+      </c>
+      <c r="C123" s="1">
+        <v>3</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B124" s="1">
+        <v>1</v>
+      </c>
+      <c r="C124" s="1">
+        <v>4</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B125" s="1">
+        <v>3</v>
+      </c>
+      <c r="C125" s="1">
+        <v>2</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B126" s="1">
+        <v>2</v>
+      </c>
+      <c r="C126" s="1">
+        <v>1</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B127" s="1">
+        <v>1</v>
+      </c>
+      <c r="C127" s="1">
+        <v>4</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B128" s="1">
+        <v>3</v>
+      </c>
+      <c r="C128" s="1">
+        <v>2</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B129" s="1">
+        <v>1</v>
+      </c>
+      <c r="C129" s="1">
+        <v>4</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B130" s="1">
+        <v>3</v>
+      </c>
+      <c r="C130" s="1">
+        <v>2</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B131" s="1">
+        <v>0</v>
+      </c>
+      <c r="C131" s="1">
+        <v>5</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B132" s="1">
+        <v>1</v>
+      </c>
+      <c r="C132" s="1">
+        <v>3</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B133" s="1">
+        <v>2</v>
+      </c>
+      <c r="C133" s="1">
+        <v>1</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B134" s="1">
+        <v>3</v>
+      </c>
+      <c r="C134" s="1">
+        <v>1</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B135" s="1">
+        <v>4</v>
+      </c>
+      <c r="C135" s="1">
+        <v>1</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B136" s="1">
+        <v>3</v>
+      </c>
+      <c r="C136" s="1">
+        <v>1</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B137" s="1">
+        <v>2</v>
+      </c>
+      <c r="C137" s="1">
+        <v>1</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B138" s="1">
+        <v>1</v>
+      </c>
+      <c r="C138" s="1">
+        <v>4</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B139" s="1">
+        <v>2</v>
+      </c>
+      <c r="C139" s="1">
+        <v>1</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G139" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B140" s="1">
+        <v>1</v>
+      </c>
+      <c r="C140" s="1">
+        <v>3</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B141" s="1">
+        <v>3</v>
+      </c>
+      <c r="C141" s="1">
+        <v>3</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B142" s="1">
+        <v>1</v>
+      </c>
+      <c r="C142" s="1">
+        <v>3</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B143" s="1">
+        <v>3</v>
+      </c>
+      <c r="C143" s="1">
+        <v>2</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B144" s="1">
+        <v>1</v>
+      </c>
+      <c r="C144" s="1">
+        <v>4</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B145" s="1">
+        <v>0</v>
+      </c>
+      <c r="C145" s="1">
+        <v>2</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B146" s="1">
+        <v>1</v>
+      </c>
+      <c r="C146" s="1">
+        <v>3</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B147" s="1">
+        <v>2</v>
+      </c>
+      <c r="C147" s="1">
+        <v>2</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B148" s="1">
+        <v>1</v>
+      </c>
+      <c r="C148" s="1">
+        <v>5</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B149" s="1">
+        <v>1</v>
+      </c>
+      <c r="C149" s="1">
+        <v>3</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B150" s="1">
+        <v>2</v>
+      </c>
+      <c r="C150" s="1">
+        <v>6</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F150" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B151" s="1">
+        <v>1</v>
+      </c>
+      <c r="C151" s="1">
+        <v>5</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B152" s="1">
+        <v>1</v>
+      </c>
+      <c r="C152" s="1">
+        <v>7</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B153" s="1">
+        <v>2</v>
+      </c>
+      <c r="C153" s="1">
+        <v>1</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B154" s="1">
+        <v>1</v>
+      </c>
+      <c r="C154" s="1">
+        <v>4</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B155" s="1">
+        <v>3</v>
+      </c>
+      <c r="C155" s="1">
+        <v>2</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B156" s="1">
+        <v>1</v>
+      </c>
+      <c r="C156" s="1">
+        <v>3</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B157" s="1">
+        <v>0</v>
+      </c>
+      <c r="C157" s="1">
+        <v>2</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B158" s="1">
+        <v>1</v>
+      </c>
+      <c r="C158" s="1">
+        <v>4</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B159" s="1">
+        <v>2</v>
+      </c>
+      <c r="C159" s="1">
+        <v>3</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B160" s="1">
+        <v>1</v>
+      </c>
+      <c r="C160" s="1">
+        <v>3</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B161" s="1">
+        <v>2</v>
+      </c>
+      <c r="C161" s="1">
+        <v>4</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B162" s="1">
+        <v>1</v>
+      </c>
+      <c r="C162" s="1">
+        <v>5</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B163" s="1">
+        <v>0</v>
+      </c>
+      <c r="C163" s="1">
+        <v>4</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B164" s="1">
+        <v>1</v>
+      </c>
+      <c r="C164" s="1">
+        <v>3</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B165" s="1">
+        <v>2</v>
+      </c>
+      <c r="C165" s="1">
+        <v>1</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A166" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B166" s="1">
+        <v>1</v>
+      </c>
+      <c r="C166" s="1">
+        <v>4</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B167" s="1">
+        <v>3</v>
+      </c>
+      <c r="C167" s="1">
+        <v>2</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A168" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B168" s="1">
+        <v>1</v>
+      </c>
+      <c r="C168" s="1">
+        <v>3</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B169" s="1">
+        <v>1</v>
+      </c>
+      <c r="C169" s="1">
+        <v>1</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A170" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G170" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Map/Chapter_1/Chapter_1.xlsx
+++ b/Assets/Excel/Map/Chapter_1/Chapter_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Project_Run-Game-Production\Assets\Excel\Map\Chapter_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_Run-Game-Production\Assets\Excel\Map\Chapter_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F7C820-042A-4FEB-9714-A8612CE7FBE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E797AA6-568E-42D9-8049-CA4BEF95EC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6660" yWindow="690" windowWidth="13965" windowHeight="13260" activeTab="1" xr2:uid="{7789A3F8-44EE-4C38-A573-079D1C4BC80F}"/>
+    <workbookView xWindow="9480" yWindow="2430" windowWidth="15180" windowHeight="11385" activeTab="2" xr2:uid="{7789A3F8-44EE-4C38-A573-079D1C4BC80F}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage_1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="38">
   <si>
     <t>CoinType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,15 +177,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>====</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>====</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>====</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -558,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C9955E-D329-426C-AA74-3448E8ED168B}">
   <dimension ref="A1:I195"/>
   <sheetViews>
-    <sheetView topLeftCell="A178" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G196" sqref="G196"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4167,10 +4175,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D40F19-04CB-4AA4-9741-41F6888F37B1}">
-  <dimension ref="A1:I170"/>
+  <dimension ref="A1:I201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G170" sqref="G170"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H104" sqref="H104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4218,7 +4226,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -4234,7 +4242,7 @@
       </c>
       <c r="H2" s="1" t="str">
         <f>SUM(C:C) &amp; " 개"</f>
-        <v>534 개</v>
+        <v>634 개</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -5563,7 +5571,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B80" s="1">
         <v>2</v>
@@ -6204,7 +6212,7 @@
         <v>4</v>
       </c>
       <c r="B117" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C117" s="1">
         <v>5</v>
@@ -6403,7 +6411,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>4</v>
       </c>
@@ -6420,24 +6428,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B130" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C130" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>4</v>
       </c>
@@ -6454,7 +6462,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>4</v>
       </c>
@@ -6471,7 +6479,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>4</v>
       </c>
@@ -6488,7 +6496,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>4</v>
       </c>
@@ -6505,7 +6513,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>15</v>
       </c>
@@ -6522,7 +6530,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>4</v>
       </c>
@@ -6539,7 +6547,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>4</v>
       </c>
@@ -6556,7 +6564,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>4</v>
       </c>
@@ -6573,7 +6581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>4</v>
       </c>
@@ -6589,11 +6597,8 @@
       <c r="E139" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G139" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>4</v>
       </c>
@@ -6610,7 +6615,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>4</v>
       </c>
@@ -6627,7 +6632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>4</v>
       </c>
@@ -6644,7 +6649,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>4</v>
       </c>
@@ -6661,7 +6666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>4</v>
       </c>
@@ -6771,7 +6776,7 @@
         <v>2</v>
       </c>
       <c r="C150" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>6</v>
@@ -6788,7 +6793,7 @@
         <v>6</v>
       </c>
       <c r="B151" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C151" s="1">
         <v>5</v>
@@ -6805,10 +6810,10 @@
         <v>4</v>
       </c>
       <c r="B152" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C152" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>6</v>
@@ -6953,7 +6958,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>4</v>
       </c>
@@ -6970,7 +6975,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>4</v>
       </c>
@@ -6987,7 +6992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>4</v>
       </c>
@@ -7004,7 +7009,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>4</v>
       </c>
@@ -7012,7 +7017,7 @@
         <v>1</v>
       </c>
       <c r="C164" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>6</v>
@@ -7021,9 +7026,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B165" s="1">
         <v>2</v>
@@ -7038,7 +7043,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>4</v>
       </c>
@@ -7055,7 +7060,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>4</v>
       </c>
@@ -7072,7 +7077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>4</v>
       </c>
@@ -7089,28 +7094,555 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B169" s="1">
+        <v>2</v>
+      </c>
+      <c r="C169" s="1">
+        <v>2</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B170" s="1">
+        <v>1</v>
+      </c>
+      <c r="C170" s="1">
+        <v>4</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B169" s="1">
-        <v>1</v>
-      </c>
-      <c r="C169" s="1">
-        <v>1</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A170" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G170" s="1">
+      <c r="B171" s="1">
+        <v>1</v>
+      </c>
+      <c r="C171" s="1">
+        <v>5</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B172" s="1">
+        <v>2</v>
+      </c>
+      <c r="C172" s="1">
+        <v>1</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B173" s="1">
+        <v>1</v>
+      </c>
+      <c r="C173" s="1">
+        <v>3</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B174" s="1">
+        <v>1</v>
+      </c>
+      <c r="C174" s="1">
+        <v>2</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B175" s="1">
+        <v>1</v>
+      </c>
+      <c r="C175" s="1">
+        <v>4</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B176" s="1">
+        <v>2</v>
+      </c>
+      <c r="C176" s="1">
+        <v>3</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B177" s="1">
+        <v>1</v>
+      </c>
+      <c r="C177" s="1">
+        <v>5</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B178" s="1">
+        <v>1</v>
+      </c>
+      <c r="C178" s="1">
+        <v>3</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B179" s="1">
+        <v>1</v>
+      </c>
+      <c r="C179" s="1">
+        <v>3</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B180" s="1">
+        <v>3</v>
+      </c>
+      <c r="C180" s="1">
+        <v>2</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B181" s="1">
+        <v>2</v>
+      </c>
+      <c r="C181" s="1">
+        <v>1</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B182" s="1">
+        <v>1</v>
+      </c>
+      <c r="C182" s="1">
+        <v>4</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B183" s="1">
+        <v>1</v>
+      </c>
+      <c r="C183" s="1">
+        <v>5</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B184" s="1">
+        <v>2</v>
+      </c>
+      <c r="C184" s="1">
+        <v>1</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B185" s="1">
+        <v>1</v>
+      </c>
+      <c r="C185" s="1">
+        <v>5</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B186" s="1">
+        <v>0</v>
+      </c>
+      <c r="C186" s="1">
+        <v>4</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B187" s="1">
+        <v>1</v>
+      </c>
+      <c r="C187" s="1">
+        <v>3</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B188" s="1">
+        <v>3</v>
+      </c>
+      <c r="C188" s="1">
+        <v>2</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B189" s="1">
+        <v>1</v>
+      </c>
+      <c r="C189" s="1">
+        <v>3</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B190" s="1">
+        <v>3</v>
+      </c>
+      <c r="C190" s="1">
+        <v>1</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B191" s="1">
+        <v>1</v>
+      </c>
+      <c r="C191" s="1">
+        <v>5</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B192" s="1">
+        <v>2</v>
+      </c>
+      <c r="C192" s="1">
+        <v>10</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A193" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B193" s="1">
+        <v>1</v>
+      </c>
+      <c r="C193" s="1">
+        <v>5</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A194" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B194" s="1">
+        <v>3</v>
+      </c>
+      <c r="C194" s="1">
+        <v>2</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B195" s="1">
+        <v>2</v>
+      </c>
+      <c r="C195" s="1">
+        <v>1</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A196" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B196" s="1">
+        <v>1</v>
+      </c>
+      <c r="C196" s="1">
+        <v>3</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A197" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B197" s="1">
+        <v>0</v>
+      </c>
+      <c r="C197" s="1">
+        <v>5</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A198" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B198" s="1">
+        <v>1</v>
+      </c>
+      <c r="C198" s="1">
+        <v>4</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A199" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B199" s="1">
+        <v>3</v>
+      </c>
+      <c r="C199" s="1">
+        <v>1</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A200" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B200" s="1">
+        <v>2</v>
+      </c>
+      <c r="C200" s="1">
+        <v>3</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A201" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G201" s="1">
         <v>1</v>
       </c>
     </row>
@@ -7125,8 +7657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F20716C-A8AD-4DAE-A7E4-7DDCB053F8D7}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7174,191 +7706,38 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="H2" s="1" t="str">
         <f>SUM(C:C) &amp; " 개"</f>
-        <v>22 개</v>
+        <v>6 개</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>6</v>
+      <c r="A3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D13" s="2"/>

--- a/Assets/Excel/Map/Chapter_1/Chapter_1.xlsx
+++ b/Assets/Excel/Map/Chapter_1/Chapter_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_Run-Game-Production\Assets\Excel\Map\Chapter_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Project_Run-Game-Production\Assets\Excel\Map\Chapter_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E797AA6-568E-42D9-8049-CA4BEF95EC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E122E9-53DB-490B-9746-4E6265B8E08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9480" yWindow="2430" windowWidth="15180" windowHeight="11385" activeTab="2" xr2:uid="{7789A3F8-44EE-4C38-A573-079D1C4BC80F}"/>
+    <workbookView xWindow="16920" yWindow="690" windowWidth="11850" windowHeight="13260" firstSheet="1" activeTab="2" xr2:uid="{7789A3F8-44EE-4C38-A573-079D1C4BC80F}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage_1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="40">
   <si>
     <t>CoinType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -189,11 +189,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>====</t>
+    <t>None</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>None</t>
+    <t>Platform_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">c </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7655,10 +7663,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F20716C-A8AD-4DAE-A7E4-7DDCB053F8D7}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="A119" sqref="A119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7712,39 +7720,2006 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2" s="1" t="str">
         <f>SUM(C:C) &amp; " 개"</f>
-        <v>6 개</v>
+        <v>377 개</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D13" s="2"/>
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1">
+        <v>3</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>5</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>4</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>4</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2</v>
+      </c>
+      <c r="C28" s="1">
+        <v>6</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="1">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1">
+        <v>10</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
+        <v>4</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1">
+        <v>3</v>
+      </c>
+      <c r="C33" s="1">
+        <v>3</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1">
+        <v>4</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2</v>
+      </c>
+      <c r="C35" s="1">
+        <v>9</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1">
+        <v>7</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="1">
+        <v>3</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1">
+        <v>6</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="1">
+        <v>3</v>
+      </c>
+      <c r="C39" s="1">
+        <v>3</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1">
+        <v>5</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1">
+        <v>3</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="1">
+        <v>3</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1">
+        <v>3</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0</v>
+      </c>
+      <c r="C45" s="1">
+        <v>4</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1">
+        <v>3</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0</v>
+      </c>
+      <c r="C47" s="1">
+        <v>5</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1">
+        <v>6</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="1">
+        <v>2</v>
+      </c>
+      <c r="C49" s="1">
+        <v>3</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1">
+        <v>3</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="1">
+        <v>2</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="1">
+        <v>3</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="1">
+        <v>2</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1">
+        <v>5</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="1">
+        <v>3</v>
+      </c>
+      <c r="C55" s="1">
+        <v>2</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="1">
+        <v>2</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="1">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1">
+        <v>6</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="1">
+        <v>2</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="1">
+        <v>1</v>
+      </c>
+      <c r="C59" s="1">
+        <v>3</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="1">
+        <v>2</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="1">
+        <v>1</v>
+      </c>
+      <c r="C61" s="1">
+        <v>2</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="1">
+        <v>2</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="1">
+        <v>1</v>
+      </c>
+      <c r="C63" s="1">
+        <v>2</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="1">
+        <v>2</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="1">
+        <v>1</v>
+      </c>
+      <c r="C65" s="1">
+        <v>2</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="1">
+        <v>2</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="1">
+        <v>1</v>
+      </c>
+      <c r="C67" s="1">
+        <v>2</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" s="1">
+        <v>2</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" s="1">
+        <v>1</v>
+      </c>
+      <c r="C69" s="1">
+        <v>1</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" s="1">
+        <v>1</v>
+      </c>
+      <c r="C70" s="1">
+        <v>10</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" s="1">
+        <v>2</v>
+      </c>
+      <c r="C71" s="1">
+        <v>1</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" s="1">
+        <v>1</v>
+      </c>
+      <c r="C72" s="1">
+        <v>4</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" s="1">
+        <v>2</v>
+      </c>
+      <c r="C73" s="1">
+        <v>1</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" s="1">
+        <v>3</v>
+      </c>
+      <c r="C74" s="1">
+        <v>1</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" s="1">
+        <v>1</v>
+      </c>
+      <c r="C75" s="1">
+        <v>5</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B76" s="1">
+        <v>3</v>
+      </c>
+      <c r="C76" s="1">
+        <v>2</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B77" s="1">
+        <v>1</v>
+      </c>
+      <c r="C77" s="1">
+        <v>4</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" s="1">
+        <v>1</v>
+      </c>
+      <c r="C78" s="1">
+        <v>4</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" s="1">
+        <v>0</v>
+      </c>
+      <c r="C79" s="1">
+        <v>4</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" s="1">
+        <v>1</v>
+      </c>
+      <c r="C80" s="1">
+        <v>3</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" s="1">
+        <v>3</v>
+      </c>
+      <c r="C81" s="1">
+        <v>2</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" s="1">
+        <v>1</v>
+      </c>
+      <c r="C82" s="1">
+        <v>3</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" s="1">
+        <v>2</v>
+      </c>
+      <c r="C83" s="1">
+        <v>1</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" s="1">
+        <v>3</v>
+      </c>
+      <c r="C84" s="1">
+        <v>1</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85" s="1">
+        <v>4</v>
+      </c>
+      <c r="C85" s="1">
+        <v>2</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" s="1">
+        <v>3</v>
+      </c>
+      <c r="C86" s="1">
+        <v>1</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87" s="1">
+        <v>2</v>
+      </c>
+      <c r="C87" s="1">
+        <v>1</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88" s="1">
+        <v>1</v>
+      </c>
+      <c r="C88" s="1">
+        <v>4</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" s="1">
+        <v>2</v>
+      </c>
+      <c r="C89" s="1">
+        <v>2</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" s="1">
+        <v>1</v>
+      </c>
+      <c r="C90" s="1">
+        <v>2</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91" s="1">
+        <v>3</v>
+      </c>
+      <c r="C91" s="1">
+        <v>3</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92" s="1">
+        <v>1</v>
+      </c>
+      <c r="C92" s="1">
+        <v>4</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B93" s="1">
+        <v>0</v>
+      </c>
+      <c r="C93" s="1">
+        <v>2</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94" s="1">
+        <v>1</v>
+      </c>
+      <c r="C94" s="1">
+        <v>3</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B95" s="1">
+        <v>3</v>
+      </c>
+      <c r="C95" s="1">
+        <v>2</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96" s="1">
+        <v>2</v>
+      </c>
+      <c r="C96" s="1">
+        <v>1</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B97" s="1">
+        <v>1</v>
+      </c>
+      <c r="C97" s="1">
+        <v>4</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" s="1">
+        <v>2</v>
+      </c>
+      <c r="C98" s="1">
+        <v>4</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99" s="1">
+        <v>1</v>
+      </c>
+      <c r="C99" s="1">
+        <v>10</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100" s="1">
+        <v>4</v>
+      </c>
+      <c r="C100" s="1">
+        <v>2</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101" s="1">
+        <v>1</v>
+      </c>
+      <c r="C101" s="1">
+        <v>5</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102" s="1">
+        <v>3</v>
+      </c>
+      <c r="C102" s="1">
+        <v>3</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B103" s="1">
+        <v>1</v>
+      </c>
+      <c r="C103" s="1">
+        <v>6</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B104" s="1">
+        <v>2</v>
+      </c>
+      <c r="C104" s="1">
+        <v>2</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B105" s="1">
+        <v>1</v>
+      </c>
+      <c r="C105" s="1">
+        <v>5</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B106" s="1">
+        <v>3</v>
+      </c>
+      <c r="C106" s="1">
+        <v>2</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B107" s="1">
+        <v>2</v>
+      </c>
+      <c r="C107" s="1">
+        <v>1</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B108" s="1">
+        <v>1</v>
+      </c>
+      <c r="C108" s="1">
+        <v>4</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B109" s="1">
+        <v>0</v>
+      </c>
+      <c r="C109" s="1">
+        <v>4</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C110" s="1">
+        <v>3</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B111" s="1">
+        <v>2</v>
+      </c>
+      <c r="C111" s="1">
+        <v>1</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B112" s="1">
+        <v>1</v>
+      </c>
+      <c r="C112" s="1">
+        <v>2</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B113" s="1">
+        <v>2</v>
+      </c>
+      <c r="C113" s="1">
+        <v>1</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B114" s="1">
+        <v>1</v>
+      </c>
+      <c r="C114" s="1">
+        <v>3</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B115" s="1">
+        <v>3</v>
+      </c>
+      <c r="C115" s="1">
+        <v>2</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B116" s="1">
+        <v>1</v>
+      </c>
+      <c r="C116" s="1">
+        <v>4</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B117" s="1">
+        <v>0</v>
+      </c>
+      <c r="C117" s="1">
+        <v>1</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B118" s="1">
+        <v>1</v>
+      </c>
+      <c r="C118" s="1">
+        <v>5</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8249,7 +10224,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/Excel/Map/Chapter_1/Chapter_1.xlsx
+++ b/Assets/Excel/Map/Chapter_1/Chapter_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Project_Run-Game-Production\Assets\Excel\Map\Chapter_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E122E9-53DB-490B-9746-4E6265B8E08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0382042-74CA-482D-B287-B2392599555A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16920" yWindow="690" windowWidth="11850" windowHeight="13260" firstSheet="1" activeTab="2" xr2:uid="{7789A3F8-44EE-4C38-A573-079D1C4BC80F}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2046" uniqueCount="42">
   <si>
     <t>CoinType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,11 +197,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>`1</t>
+    <t>Double_HP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">c </t>
+    <t>`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Double</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4185,7 +4193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D40F19-04CB-4AA4-9741-41F6888F37B1}">
   <dimension ref="A1:I201"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H104" sqref="H104"/>
     </sheetView>
   </sheetViews>
@@ -7663,10 +7671,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F20716C-A8AD-4DAE-A7E4-7DDCB053F8D7}">
-  <dimension ref="A1:I119"/>
+  <dimension ref="A1:I188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="A119" sqref="A119"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="D189" sqref="D189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7730,7 +7738,7 @@
       </c>
       <c r="H2" s="1" t="str">
         <f>SUM(C:C) &amp; " 개"</f>
-        <v>377 개</v>
+        <v>577 개</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -9217,13 +9225,13 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B90" s="1">
         <v>1</v>
       </c>
       <c r="C90" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>6</v>
@@ -9237,13 +9245,13 @@
         <v>4</v>
       </c>
       <c r="B91" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C91" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>6</v>
@@ -9251,13 +9259,13 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B92" s="1">
         <v>1</v>
       </c>
       <c r="C92" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>6</v>
@@ -9271,13 +9279,13 @@
         <v>4</v>
       </c>
       <c r="B93" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C93" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>6</v>
@@ -9291,7 +9299,7 @@
         <v>1</v>
       </c>
       <c r="C94" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>6</v>
@@ -9305,13 +9313,13 @@
         <v>4</v>
       </c>
       <c r="B95" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C95" s="1">
         <v>2</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>6</v>
@@ -9322,10 +9330,10 @@
         <v>4</v>
       </c>
       <c r="B96" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C96" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>6</v>
@@ -9336,16 +9344,16 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B97" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C97" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>6</v>
@@ -9359,27 +9367,24 @@
         <v>2</v>
       </c>
       <c r="C98" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F98" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B99" s="1">
         <v>1</v>
       </c>
       <c r="C99" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>6</v>
@@ -9389,20 +9394,23 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="2" t="s">
+      <c r="A100" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B100" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C100" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="F100" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -9413,7 +9421,7 @@
         <v>1</v>
       </c>
       <c r="C101" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>6</v>
@@ -9423,17 +9431,17 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B102" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C102" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>6</v>
@@ -9447,7 +9455,7 @@
         <v>1</v>
       </c>
       <c r="C103" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>6</v>
@@ -9461,10 +9469,10 @@
         <v>4</v>
       </c>
       <c r="B104" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C104" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>13</v>
@@ -9475,13 +9483,13 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B105" s="1">
         <v>1</v>
       </c>
       <c r="C105" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>6</v>
@@ -9495,13 +9503,13 @@
         <v>4</v>
       </c>
       <c r="B106" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C106" s="1">
         <v>2</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>6</v>
@@ -9509,13 +9517,13 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B107" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C107" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>6</v>
@@ -9529,13 +9537,13 @@
         <v>4</v>
       </c>
       <c r="B108" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C108" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>6</v>
@@ -9546,13 +9554,13 @@
         <v>4</v>
       </c>
       <c r="B109" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C109" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>6</v>
@@ -9560,19 +9568,22 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
+      </c>
+      <c r="B110" s="1">
+        <v>1</v>
       </c>
       <c r="C110" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -9580,13 +9591,13 @@
         <v>4</v>
       </c>
       <c r="B111" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C111" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>6</v>
@@ -9600,7 +9611,7 @@
         <v>1</v>
       </c>
       <c r="C112" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>6</v>
@@ -9634,7 +9645,7 @@
         <v>1</v>
       </c>
       <c r="C114" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>6</v>
@@ -9648,13 +9659,13 @@
         <v>4</v>
       </c>
       <c r="B115" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C115" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>6</v>
@@ -9668,7 +9679,7 @@
         <v>1</v>
       </c>
       <c r="C116" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>6</v>
@@ -9682,13 +9693,13 @@
         <v>4</v>
       </c>
       <c r="B117" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C117" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>6</v>
@@ -9696,13 +9707,13 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B118" s="1">
         <v>1</v>
       </c>
       <c r="C118" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>6</v>
@@ -9713,7 +9724,1189 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>39</v>
+        <v>4</v>
+      </c>
+      <c r="B119" s="1">
+        <v>0</v>
+      </c>
+      <c r="C119" s="1">
+        <v>1</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B120" s="1">
+        <v>1</v>
+      </c>
+      <c r="C120" s="1">
+        <v>5</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B121" s="1">
+        <v>3</v>
+      </c>
+      <c r="C121" s="1">
+        <v>2</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B122" s="1">
+        <v>1</v>
+      </c>
+      <c r="C122" s="1">
+        <v>4</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B123" s="1">
+        <v>2</v>
+      </c>
+      <c r="C123" s="1">
+        <v>2</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B124" s="1">
+        <v>1</v>
+      </c>
+      <c r="C124" s="1">
+        <v>4</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B125" s="1">
+        <v>4</v>
+      </c>
+      <c r="C125" s="1">
+        <v>2</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B126" s="1">
+        <v>2</v>
+      </c>
+      <c r="C126" s="1">
+        <v>5</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B127" s="1">
+        <v>1</v>
+      </c>
+      <c r="C127" s="1">
+        <v>3</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B128" s="1">
+        <v>1</v>
+      </c>
+      <c r="C128" s="1">
+        <v>1</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B129" s="1">
+        <v>1</v>
+      </c>
+      <c r="C129" s="1">
+        <v>5</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B130" s="1">
+        <v>2</v>
+      </c>
+      <c r="C130" s="1">
+        <v>1</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B131" s="1">
+        <v>1</v>
+      </c>
+      <c r="C131" s="1">
+        <v>3</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B132" s="1">
+        <v>3</v>
+      </c>
+      <c r="C132" s="1">
+        <v>2</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B133" s="1">
+        <v>1</v>
+      </c>
+      <c r="C133" s="1">
+        <v>4</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B134" s="1">
+        <v>2</v>
+      </c>
+      <c r="C134" s="1">
+        <v>1</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B135" s="1">
+        <v>3</v>
+      </c>
+      <c r="C135" s="1">
+        <v>1</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B136" s="1">
+        <v>4</v>
+      </c>
+      <c r="C136" s="1">
+        <v>1</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B137" s="1">
+        <v>3</v>
+      </c>
+      <c r="C137" s="1">
+        <v>1</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B138" s="1">
+        <v>2</v>
+      </c>
+      <c r="C138" s="1">
+        <v>1</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B139" s="1">
+        <v>1</v>
+      </c>
+      <c r="C139" s="1">
+        <v>1</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B140" s="1">
+        <v>3</v>
+      </c>
+      <c r="C140" s="1">
+        <v>2</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B141" s="1">
+        <v>1</v>
+      </c>
+      <c r="C141" s="1">
+        <v>3</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B142" s="1">
+        <v>2</v>
+      </c>
+      <c r="C142" s="1">
+        <v>2</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B143" s="1">
+        <v>4</v>
+      </c>
+      <c r="C143" s="1">
+        <v>2</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B144" s="1">
+        <v>1</v>
+      </c>
+      <c r="C144" s="1">
+        <v>4</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B145" s="1">
+        <v>1</v>
+      </c>
+      <c r="C145" s="1">
+        <v>3</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B146" s="1">
+        <v>3</v>
+      </c>
+      <c r="C146" s="1">
+        <v>2</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B147" s="1">
+        <v>1</v>
+      </c>
+      <c r="C147" s="1">
+        <v>4</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B148" s="1">
+        <v>1</v>
+      </c>
+      <c r="C148" s="1">
+        <v>5</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B149" s="1">
+        <v>2</v>
+      </c>
+      <c r="C149" s="1">
+        <v>1</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B150" s="1">
+        <v>1</v>
+      </c>
+      <c r="C150" s="1">
+        <v>3</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B151" s="1">
+        <v>2</v>
+      </c>
+      <c r="C151" s="1">
+        <v>2</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B152" s="1">
+        <v>1</v>
+      </c>
+      <c r="C152" s="1">
+        <v>3</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B153" s="1">
+        <v>2</v>
+      </c>
+      <c r="C153" s="1">
+        <v>10</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B154" s="1">
+        <v>1</v>
+      </c>
+      <c r="C154" s="1">
+        <v>3</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B155" s="1">
+        <v>2</v>
+      </c>
+      <c r="C155" s="1">
+        <v>3</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B156" s="1">
+        <v>1</v>
+      </c>
+      <c r="C156" s="1">
+        <v>4</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B157" s="1">
+        <v>3</v>
+      </c>
+      <c r="C157" s="1">
+        <v>3</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B158" s="1">
+        <v>1</v>
+      </c>
+      <c r="C158" s="1">
+        <v>4</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B159" s="1">
+        <v>0</v>
+      </c>
+      <c r="C159" s="1">
+        <v>3</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B160" s="1">
+        <v>0</v>
+      </c>
+      <c r="C160" s="1">
+        <v>1</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B161" s="1">
+        <v>1</v>
+      </c>
+      <c r="C161" s="1">
+        <v>6</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B162" s="1">
+        <v>2</v>
+      </c>
+      <c r="C162" s="1">
+        <v>2</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B163" s="1">
+        <v>1</v>
+      </c>
+      <c r="C163" s="1">
+        <v>3</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B164" s="1">
+        <v>2</v>
+      </c>
+      <c r="C164" s="1">
+        <v>1</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B165" s="1">
+        <v>1</v>
+      </c>
+      <c r="C165" s="1">
+        <v>3</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B166" s="1">
+        <v>3</v>
+      </c>
+      <c r="C166" s="1">
+        <v>3</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B167" s="1">
+        <v>1</v>
+      </c>
+      <c r="C167" s="1">
+        <v>3</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B168" s="1">
+        <v>2</v>
+      </c>
+      <c r="C168" s="1">
+        <v>3</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B169" s="1">
+        <v>1</v>
+      </c>
+      <c r="C169" s="1">
+        <v>4</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B170" s="1">
+        <v>1</v>
+      </c>
+      <c r="C170" s="1">
+        <v>2</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B171" s="1">
+        <v>0</v>
+      </c>
+      <c r="C171" s="1">
+        <v>5</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B172" s="1">
+        <v>1</v>
+      </c>
+      <c r="C172" s="1">
+        <v>6</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B173" s="1">
+        <v>2</v>
+      </c>
+      <c r="C173" s="1">
+        <v>2</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B174" s="1">
+        <v>1</v>
+      </c>
+      <c r="C174" s="1">
+        <v>4</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B175" s="1">
+        <v>2</v>
+      </c>
+      <c r="C175" s="1">
+        <v>1</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B176" s="1">
+        <v>1</v>
+      </c>
+      <c r="C176" s="1">
+        <v>4</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B177" s="1">
+        <v>1</v>
+      </c>
+      <c r="C177" s="1">
+        <v>2</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B178" s="1">
+        <v>3</v>
+      </c>
+      <c r="C178" s="1">
+        <v>3</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B179" s="1">
+        <v>1</v>
+      </c>
+      <c r="C179" s="1">
+        <v>3</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B180" s="1">
+        <v>2</v>
+      </c>
+      <c r="C180" s="1">
+        <v>2</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B181" s="1">
+        <v>1</v>
+      </c>
+      <c r="C181" s="1">
+        <v>2</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B182" s="1">
+        <v>2</v>
+      </c>
+      <c r="C182" s="1">
+        <v>2</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B183" s="1">
+        <v>1</v>
+      </c>
+      <c r="C183" s="1">
+        <v>4</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B184" s="1">
+        <v>3</v>
+      </c>
+      <c r="C184" s="1">
+        <v>4</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B185" s="1">
+        <v>1</v>
+      </c>
+      <c r="C185" s="1">
+        <v>5</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B186" s="1">
+        <v>2</v>
+      </c>
+      <c r="C186" s="1">
+        <v>6</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B187" s="1">
+        <v>1</v>
+      </c>
+      <c r="C187" s="1">
+        <v>3</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B188" s="1">
+        <v>1</v>
+      </c>
+      <c r="C188" s="1">
+        <v>1</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Map/Chapter_1/Chapter_1.xlsx
+++ b/Assets/Excel/Map/Chapter_1/Chapter_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Project_Run-Game-Production\Assets\Excel\Map\Chapter_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0382042-74CA-482D-B287-B2392599555A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEBC2BA-05E4-4DF7-9B97-4E939B3F13EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16920" yWindow="690" windowWidth="11850" windowHeight="13260" firstSheet="1" activeTab="2" xr2:uid="{7789A3F8-44EE-4C38-A573-079D1C4BC80F}"/>
+    <workbookView xWindow="16920" yWindow="690" windowWidth="11850" windowHeight="13260" firstSheet="1" activeTab="4" xr2:uid="{7789A3F8-44EE-4C38-A573-079D1C4BC80F}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage_1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2046" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2466" uniqueCount="47">
   <si>
     <t>CoinType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -206,6 +206,26 @@
   </si>
   <si>
     <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obstacle_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obstacle_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obstacle_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Double</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -7673,8 +7693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F20716C-A8AD-4DAE-A7E4-7DDCB053F8D7}">
   <dimension ref="A1:I188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="D189" sqref="D189"/>
+    <sheetView topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="A189" sqref="A189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10918,10 +10938,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5D3D1D-CFA4-4C1D-A4DE-BD925E94E257}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I162"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="F162" sqref="F162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10969,7 +10989,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -10988,12 +11008,12 @@
       </c>
       <c r="H2" s="1" t="str">
         <f>SUM(C:C) &amp; " 개"</f>
-        <v>22 개</v>
+        <v>472 개</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -11010,7 +11030,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -11027,7 +11047,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -11044,7 +11064,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -11061,7 +11081,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -11078,7 +11098,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1">
         <v>4</v>
@@ -11095,7 +11115,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -11112,7 +11132,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -11129,7 +11149,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -11146,21 +11166,2575 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>4</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1">
+        <v>5</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2</v>
+      </c>
+      <c r="C32" s="1">
+        <v>5</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1">
+        <v>3</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1">
+        <v>3</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="1">
+        <v>3</v>
+      </c>
+      <c r="C36" s="1">
+        <v>5</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1">
+        <v>4</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="1">
+        <v>3</v>
+      </c>
+      <c r="C38" s="1">
+        <v>3</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1">
+        <v>3</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="1">
+        <v>3</v>
+      </c>
+      <c r="C40" s="1">
+        <v>3</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1">
+        <v>4</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="1">
+        <v>2</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="1">
+        <v>2</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="1">
+        <v>2</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1">
+        <v>5</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="1">
+        <v>3</v>
+      </c>
+      <c r="C48" s="1">
+        <v>2</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="1">
+        <v>2</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1">
+        <v>3</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0</v>
+      </c>
+      <c r="C51" s="1">
+        <v>4</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="1">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1">
+        <v>5</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="1">
+        <v>3</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="1">
+        <v>3</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="1">
+        <v>1</v>
+      </c>
+      <c r="C55" s="1">
+        <v>4</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="1">
+        <v>2</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="1">
+        <v>3</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="1">
+        <v>4</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="1">
+        <v>3</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="1">
+        <v>2</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="1">
+        <v>1</v>
+      </c>
+      <c r="C61" s="1">
+        <v>4</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="1">
+        <v>3</v>
+      </c>
+      <c r="C62" s="1">
+        <v>2</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="1">
+        <v>1</v>
+      </c>
+      <c r="C63" s="1">
+        <v>3</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" s="1">
+        <v>0</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="1">
+        <v>1</v>
+      </c>
+      <c r="C65" s="1">
+        <v>3</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="1">
+        <v>2</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="1">
+        <v>1</v>
+      </c>
+      <c r="C67" s="1">
+        <v>5</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" s="1">
+        <v>2</v>
+      </c>
+      <c r="C68" s="1">
+        <v>2</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" s="1">
+        <v>1</v>
+      </c>
+      <c r="C69" s="1">
+        <v>3</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" s="1">
+        <v>2</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" s="1">
+        <v>1</v>
+      </c>
+      <c r="C71" s="1">
+        <v>2</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" s="1">
+        <v>0</v>
+      </c>
+      <c r="C72" s="1">
+        <v>5</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" s="1">
+        <v>1</v>
+      </c>
+      <c r="C73" s="1">
+        <v>4</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" s="1">
+        <v>3</v>
+      </c>
+      <c r="C74" s="1">
+        <v>2</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" s="1">
+        <v>1</v>
+      </c>
+      <c r="C75" s="1">
+        <v>6</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" s="1">
+        <v>2</v>
+      </c>
+      <c r="C76" s="1">
+        <v>2</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" s="1">
+        <v>1</v>
+      </c>
+      <c r="C77" s="1">
+        <v>5</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B78" s="1">
+        <v>1</v>
+      </c>
+      <c r="C78" s="1">
+        <v>2</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B79" s="1">
+        <v>2</v>
+      </c>
+      <c r="C79" s="1">
+        <v>4</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B80" s="1">
+        <v>1</v>
+      </c>
+      <c r="C80" s="1">
+        <v>2</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B81" s="1">
+        <v>2</v>
+      </c>
+      <c r="C81" s="1">
+        <v>4</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B82" s="1">
+        <v>1</v>
+      </c>
+      <c r="C82" s="1">
+        <v>2</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" s="1">
+        <v>1</v>
+      </c>
+      <c r="C83" s="1">
+        <v>4</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" s="1">
+        <v>2</v>
+      </c>
+      <c r="C84" s="1">
+        <v>1</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85" s="1">
+        <v>1</v>
+      </c>
+      <c r="C85" s="1">
+        <v>3</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" s="1">
+        <v>2</v>
+      </c>
+      <c r="C86" s="1">
+        <v>1</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87" s="1">
+        <v>1</v>
+      </c>
+      <c r="C87" s="1">
+        <v>5</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88" s="1">
+        <v>3</v>
+      </c>
+      <c r="C88" s="1">
+        <v>3</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" s="1">
+        <v>1</v>
+      </c>
+      <c r="C89" s="1">
+        <v>5</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" s="1">
+        <v>2</v>
+      </c>
+      <c r="C90" s="1">
+        <v>3</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91" s="1">
+        <v>1</v>
+      </c>
+      <c r="C91" s="1">
+        <v>3</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92" s="1">
+        <v>0</v>
+      </c>
+      <c r="C92" s="1">
+        <v>5</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B93" s="1">
+        <v>1</v>
+      </c>
+      <c r="C93" s="1">
+        <v>3</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94" s="1">
+        <v>3</v>
+      </c>
+      <c r="C94" s="1">
+        <v>2</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B95" s="1">
+        <v>1</v>
+      </c>
+      <c r="C95" s="1">
+        <v>4</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96" s="1">
+        <v>2</v>
+      </c>
+      <c r="C96" s="1">
+        <v>2</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97" s="1">
+        <v>1</v>
+      </c>
+      <c r="C97" s="1">
+        <v>3</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" s="1">
+        <v>3</v>
+      </c>
+      <c r="C98" s="1">
+        <v>2</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99" s="1">
+        <v>1</v>
+      </c>
+      <c r="C99" s="1">
+        <v>4</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B100" s="1">
+        <v>2</v>
+      </c>
+      <c r="C100" s="1">
+        <v>1</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101" s="1">
+        <v>1</v>
+      </c>
+      <c r="C101" s="1">
+        <v>4</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102" s="1">
+        <v>4</v>
+      </c>
+      <c r="C102" s="1">
+        <v>1</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B103" s="1">
+        <v>1</v>
+      </c>
+      <c r="C103" s="1">
+        <v>3</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B104" s="1">
+        <v>3</v>
+      </c>
+      <c r="C104" s="1">
+        <v>3</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B105" s="1">
+        <v>1</v>
+      </c>
+      <c r="C105" s="1">
+        <v>5</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B106" s="1">
+        <v>2</v>
+      </c>
+      <c r="C106" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D13" s="2"/>
+      <c r="D106" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B107" s="1">
+        <v>1</v>
+      </c>
+      <c r="C107" s="1">
+        <v>4</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B108" s="1">
+        <v>3</v>
+      </c>
+      <c r="C108" s="1">
+        <v>1</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B109" s="1">
+        <v>1</v>
+      </c>
+      <c r="C109" s="1">
+        <v>5</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B110" s="1">
+        <v>2</v>
+      </c>
+      <c r="C110" s="1">
+        <v>2</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B111" s="1">
+        <v>1</v>
+      </c>
+      <c r="C111" s="1">
+        <v>4</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B112" s="1">
+        <v>0</v>
+      </c>
+      <c r="C112" s="1">
+        <v>3</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B113" s="1">
+        <v>1</v>
+      </c>
+      <c r="C113" s="1">
+        <v>6</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B114" s="1">
+        <v>2</v>
+      </c>
+      <c r="C114" s="1">
+        <v>1</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B115" s="1">
+        <v>1</v>
+      </c>
+      <c r="C115" s="1">
+        <v>4</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B116" s="1">
+        <v>3</v>
+      </c>
+      <c r="C116" s="1">
+        <v>3</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B117" s="1">
+        <v>1</v>
+      </c>
+      <c r="C117" s="1">
+        <v>3</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B118" s="1">
+        <v>2</v>
+      </c>
+      <c r="C118" s="1">
+        <v>1</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B119" s="1">
+        <v>3</v>
+      </c>
+      <c r="C119" s="1">
+        <v>2</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B120" s="1">
+        <v>2</v>
+      </c>
+      <c r="C120" s="1">
+        <v>1</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B121" s="1">
+        <v>1</v>
+      </c>
+      <c r="C121" s="1">
+        <v>4</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B122" s="1">
+        <v>3</v>
+      </c>
+      <c r="C122" s="1">
+        <v>3</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B123" s="1">
+        <v>1</v>
+      </c>
+      <c r="C123" s="1">
+        <v>5</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B124" s="1">
+        <v>2</v>
+      </c>
+      <c r="C124" s="1">
+        <v>1</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B125" s="1">
+        <v>1</v>
+      </c>
+      <c r="C125" s="1">
+        <v>2</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B126" s="1">
+        <v>2</v>
+      </c>
+      <c r="C126" s="1">
+        <v>1</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B127" s="1">
+        <v>1</v>
+      </c>
+      <c r="C127" s="1">
+        <v>4</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B128" s="1">
+        <v>3</v>
+      </c>
+      <c r="C128" s="1">
+        <v>2</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B129" s="1">
+        <v>1</v>
+      </c>
+      <c r="C129" s="1">
+        <v>4</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B130" s="1">
+        <v>3</v>
+      </c>
+      <c r="C130" s="1">
+        <v>3</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B131" s="1">
+        <v>1</v>
+      </c>
+      <c r="C131" s="1">
+        <v>5</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B132" s="1">
+        <v>2</v>
+      </c>
+      <c r="C132" s="1">
+        <v>2</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B133" s="1">
+        <v>1</v>
+      </c>
+      <c r="C133" s="1">
+        <v>3</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B134" s="1">
+        <v>0</v>
+      </c>
+      <c r="C134" s="1">
+        <v>4</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B135" s="1">
+        <v>1</v>
+      </c>
+      <c r="C135" s="1">
+        <v>5</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B136" s="1">
+        <v>3</v>
+      </c>
+      <c r="C136" s="1">
+        <v>1</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B137" s="1">
+        <v>1</v>
+      </c>
+      <c r="C137" s="1">
+        <v>4</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B138" s="1">
+        <v>2</v>
+      </c>
+      <c r="C138" s="1">
+        <v>1</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B139" s="1">
+        <v>1</v>
+      </c>
+      <c r="C139" s="1">
+        <v>3</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B140" s="1">
+        <v>2</v>
+      </c>
+      <c r="C140" s="1">
+        <v>2</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B141" s="1">
+        <v>2</v>
+      </c>
+      <c r="C141" s="1">
+        <v>1</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B142" s="1">
+        <v>1</v>
+      </c>
+      <c r="C142" s="1">
+        <v>5</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B143" s="1">
+        <v>4</v>
+      </c>
+      <c r="C143" s="1">
+        <v>2</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B144" s="1">
+        <v>1</v>
+      </c>
+      <c r="C144" s="1">
+        <v>3</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B145" s="1">
+        <v>2</v>
+      </c>
+      <c r="C145" s="1">
+        <v>2</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B146" s="1">
+        <v>1</v>
+      </c>
+      <c r="C146" s="1">
+        <v>3</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B147" s="1">
+        <v>0</v>
+      </c>
+      <c r="C147" s="1">
+        <v>2</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B148" s="1">
+        <v>1</v>
+      </c>
+      <c r="C148" s="1">
+        <v>4</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B149" s="1">
+        <v>2</v>
+      </c>
+      <c r="C149" s="1">
+        <v>1</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B150" s="1">
+        <v>1</v>
+      </c>
+      <c r="C150" s="1">
+        <v>3</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B151" s="1">
+        <v>3</v>
+      </c>
+      <c r="C151" s="1">
+        <v>2</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B152" s="1">
+        <v>1</v>
+      </c>
+      <c r="C152" s="1">
+        <v>5</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B153" s="1">
+        <v>2</v>
+      </c>
+      <c r="C153" s="1">
+        <v>2</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B154" s="1">
+        <v>1</v>
+      </c>
+      <c r="C154" s="1">
+        <v>3</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B155" s="1">
+        <v>3</v>
+      </c>
+      <c r="C155" s="1">
+        <v>2</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B156" s="1">
+        <v>1</v>
+      </c>
+      <c r="C156" s="1">
+        <v>6</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B157" s="1">
+        <v>2</v>
+      </c>
+      <c r="C157" s="1">
+        <v>1</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B158" s="1">
+        <v>1</v>
+      </c>
+      <c r="C158" s="1">
+        <v>6</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B159" s="1">
+        <v>3</v>
+      </c>
+      <c r="C159" s="1">
+        <v>2</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B160" s="1">
+        <v>1</v>
+      </c>
+      <c r="C160" s="1">
+        <v>7</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B161" s="1">
+        <v>2</v>
+      </c>
+      <c r="C161" s="1">
+        <v>1</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B162" s="1">
+        <v>1</v>
+      </c>
+      <c r="C162" s="1">
+        <v>6</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11168,8 +13742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC34187-A8AF-4586-8EE1-6E5E1B344A6A}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11216,192 +13790,16 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
       <c r="H2" s="1" t="str">
         <f>SUM(C:C) &amp; " 개"</f>
-        <v>22 개</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>6</v>
+        <v>0 개</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D13" s="2"/>

--- a/Assets/Excel/Map/Chapter_1/Chapter_1.xlsx
+++ b/Assets/Excel/Map/Chapter_1/Chapter_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Project_Run-Game-Production\Assets\Excel\Map\Chapter_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEBC2BA-05E4-4DF7-9B97-4E939B3F13EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDAAE39-A9FA-4215-88C3-B9E8A417E23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16920" yWindow="690" windowWidth="11850" windowHeight="13260" firstSheet="1" activeTab="4" xr2:uid="{7789A3F8-44EE-4C38-A573-079D1C4BC80F}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2466" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2593" uniqueCount="53">
   <si>
     <t>CoinType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -230,6 +230,30 @@
   </si>
   <si>
     <t>Double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coin_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obstacle_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obstacle_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obstacle_3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -13740,10 +13764,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC34187-A8AF-4586-8EE1-6E5E1B344A6A}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13790,23 +13814,732 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="H2" s="1" t="str">
         <f>SUM(C:C) &amp; " 개"</f>
-        <v>0 개</v>
+        <v>110 개</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D13" s="2"/>
+      <c r="A13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="1">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="1">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="1">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="1">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>3</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="1">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1">
+        <v>4</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>3</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="1">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1">
+        <v>4</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="1">
+        <v>3</v>
+      </c>
+      <c r="C30" s="1">
+        <v>4</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1">
+        <v>3</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="1">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1">
+        <v>4</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1">
+        <v>3</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="1">
+        <v>3</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1">
+        <v>3</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="1">
+        <v>3</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1">
+        <v>3</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="1">
+        <v>3</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1">
+        <v>3</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="1">
+        <v>3</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1">
+        <v>3</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1">
+        <v>4</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Assets/Excel/Map/Chapter_1/Chapter_1.xlsx
+++ b/Assets/Excel/Map/Chapter_1/Chapter_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Project_Run-Game-Production\Assets\Excel\Map\Chapter_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDAAE39-A9FA-4215-88C3-B9E8A417E23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E971F1-77D1-4C2C-8569-078543ED6B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16920" yWindow="690" windowWidth="11850" windowHeight="13260" firstSheet="1" activeTab="4" xr2:uid="{7789A3F8-44EE-4C38-A573-079D1C4BC80F}"/>
+    <workbookView xWindow="16920" yWindow="690" windowWidth="11850" windowHeight="13260" firstSheet="2" activeTab="4" xr2:uid="{7789A3F8-44EE-4C38-A573-079D1C4BC80F}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage_1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2593" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2683" uniqueCount="57">
   <si>
     <t>CoinType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -254,6 +254,22 @@
   </si>
   <si>
     <t>Obstacle_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>====</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Double_HP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4237,7 +4253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D40F19-04CB-4AA4-9741-41F6888F37B1}">
   <dimension ref="A1:I201"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A190" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H104" sqref="H104"/>
     </sheetView>
   </sheetViews>
@@ -7717,7 +7733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F20716C-A8AD-4DAE-A7E4-7DDCB053F8D7}">
   <dimension ref="A1:I188"/>
   <sheetViews>
-    <sheetView topLeftCell="A181" workbookViewId="0">
+    <sheetView topLeftCell="A154" workbookViewId="0">
       <selection activeCell="A189" sqref="A189"/>
     </sheetView>
   </sheetViews>
@@ -9448,13 +9464,10 @@
         <v>4</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F100" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -13764,10 +13777,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC34187-A8AF-4586-8EE1-6E5E1B344A6A}">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13831,7 +13844,7 @@
       </c>
       <c r="H2" s="1" t="str">
         <f>SUM(C:C) &amp; " 개"</f>
-        <v>110 개</v>
+        <v>223 개</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -14534,6 +14547,519 @@
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>47</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1">
+        <v>3</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0</v>
+      </c>
+      <c r="C45" s="1">
+        <v>3</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0</v>
+      </c>
+      <c r="C47" s="1">
+        <v>3</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1">
+        <v>4</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="1">
+        <v>3</v>
+      </c>
+      <c r="C49" s="1">
+        <v>2</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1">
+        <v>4</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" s="1">
+        <v>2</v>
+      </c>
+      <c r="C51" s="1">
+        <v>10</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="1">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1">
+        <v>5</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0</v>
+      </c>
+      <c r="C53" s="1">
+        <v>10</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="1">
+        <v>3</v>
+      </c>
+      <c r="C54" s="1">
+        <v>3</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="1">
+        <v>1</v>
+      </c>
+      <c r="C55" s="1">
+        <v>3</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="1">
+        <v>2</v>
+      </c>
+      <c r="C56" s="1">
+        <v>3</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="1">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1">
+        <v>4</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="1">
+        <v>2</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="1">
+        <v>1</v>
+      </c>
+      <c r="C59" s="1">
+        <v>5</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="1">
+        <v>2</v>
+      </c>
+      <c r="C60" s="1">
+        <v>2</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="1">
+        <v>3</v>
+      </c>
+      <c r="C61" s="1">
+        <v>2</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="1">
+        <v>1</v>
+      </c>
+      <c r="C62" s="1">
+        <v>5</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="1">
+        <v>3</v>
+      </c>
+      <c r="C63" s="1">
+        <v>2</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B64" s="1">
+        <v>1</v>
+      </c>
+      <c r="C64" s="1">
+        <v>10</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="1">
+        <v>4</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="1">
+        <v>3</v>
+      </c>
+      <c r="C66" s="1">
+        <v>2</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="1">
+        <v>1</v>
+      </c>
+      <c r="C67" s="1">
+        <v>3</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" s="1">
+        <v>2</v>
+      </c>
+      <c r="C68" s="1">
+        <v>2</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" s="1">
+        <v>1</v>
+      </c>
+      <c r="C69" s="1">
+        <v>6</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B70" s="1">
+        <v>2</v>
+      </c>
+      <c r="C70" s="1">
+        <v>3</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" s="1">
+        <v>0</v>
+      </c>
+      <c r="C71" s="1">
+        <v>5</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" s="1">
+        <v>1</v>
+      </c>
+      <c r="C72" s="1">
+        <v>4</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B73" s="1">
+        <v>1</v>
+      </c>
+      <c r="C73" s="1">
+        <v>1</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G74" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Map/Chapter_1/Chapter_1.xlsx
+++ b/Assets/Excel/Map/Chapter_1/Chapter_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Project_Run-Game-Production\Assets\Excel\Map\Chapter_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E971F1-77D1-4C2C-8569-078543ED6B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861403E7-7D84-49F0-AB28-724B87832A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16920" yWindow="690" windowWidth="11850" windowHeight="13260" firstSheet="2" activeTab="4" xr2:uid="{7789A3F8-44EE-4C38-A573-079D1C4BC80F}"/>
+    <workbookView xWindow="16920" yWindow="690" windowWidth="11850" windowHeight="13260" xr2:uid="{7789A3F8-44EE-4C38-A573-079D1C4BC80F}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage_1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2683" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3141" uniqueCount="68">
   <si>
     <t>CoinType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -272,12 +272,56 @@
     <t>Double_HP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>coin_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obstacle_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obstacle_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obstacle_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Platform_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Double_HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>====</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>====</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,6 +334,14 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -316,7 +368,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -324,6 +376,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -642,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C9955E-D329-426C-AA74-3448E8ED168B}">
   <dimension ref="A1:I195"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A184" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C201" sqref="C201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7731,10 +7786,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F20716C-A8AD-4DAE-A7E4-7DDCB053F8D7}">
-  <dimension ref="A1:I188"/>
+  <dimension ref="A1:I189"/>
   <sheetViews>
-    <sheetView topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="A189" sqref="A189"/>
+    <sheetView topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="G189" sqref="G189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10762,7 +10817,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>34</v>
       </c>
@@ -10779,7 +10834,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>4</v>
       </c>
@@ -10796,7 +10851,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>4</v>
       </c>
@@ -10813,7 +10868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>4</v>
       </c>
@@ -10830,7 +10885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>4</v>
       </c>
@@ -10847,7 +10902,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>4</v>
       </c>
@@ -10864,7 +10919,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>4</v>
       </c>
@@ -10881,7 +10936,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>4</v>
       </c>
@@ -10898,7 +10953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>4</v>
       </c>
@@ -10915,7 +10970,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>41</v>
       </c>
@@ -10932,7 +10987,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>4</v>
       </c>
@@ -10949,7 +11004,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>38</v>
       </c>
@@ -10964,6 +11019,14 @@
       </c>
       <c r="E188" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A189" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G189" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10975,10 +11038,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5D3D1D-CFA4-4C1D-A4DE-BD925E94E257}">
-  <dimension ref="A1:I162"/>
+  <dimension ref="A1:I163"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="F162" sqref="F162"/>
+    <sheetView topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="C170" sqref="C170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13734,7 +13797,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>38</v>
       </c>
@@ -13751,7 +13814,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>34</v>
       </c>
@@ -13766,6 +13829,14 @@
       </c>
       <c r="E162" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G163" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -13779,8 +13850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC34187-A8AF-4586-8EE1-6E5E1B344A6A}">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15071,10 +15142,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F562BDF9-DC5B-4ACC-99BF-7EDFEC2239A7}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I164"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="G164" sqref="G164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15122,34 +15193,31 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="H2" s="1" t="str">
         <f>SUM(C:C) &amp; " 개"</f>
-        <v>22 개</v>
+        <v>514 개</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -15158,32 +15226,32 @@
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
@@ -15192,15 +15260,15 @@
         <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="B6" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
@@ -15209,111 +15277,2699 @@
         <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="B8" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="1">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="1">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>5</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="1">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>4</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>5</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="1">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1">
+        <v>3</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="1">
+        <v>4</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1">
+        <v>4</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1">
+        <v>3</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1">
+        <v>5</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1">
+        <v>4</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="1">
+        <v>3</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1">
+        <v>4</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1">
+        <v>3</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1">
+        <v>3</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="1">
+        <v>3</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1">
+        <v>4</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1">
+        <v>4</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="1">
+        <v>2</v>
+      </c>
+      <c r="C46" s="1">
+        <v>7</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F46" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="1">
+        <v>2</v>
+      </c>
+      <c r="C47" s="1">
+        <v>5</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1">
+        <v>5</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" s="1">
+        <v>3</v>
+      </c>
+      <c r="C49" s="1">
+        <v>2</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1">
+        <v>4</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" s="1">
+        <v>2</v>
+      </c>
+      <c r="C51" s="1">
+        <v>2</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="1">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1">
+        <v>3</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="1">
+        <v>2</v>
+      </c>
+      <c r="C53" s="1">
+        <v>3</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1">
+        <v>4</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="1">
+        <v>3</v>
+      </c>
+      <c r="C55" s="1">
+        <v>2</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="1">
+        <v>1</v>
+      </c>
+      <c r="C56" s="1">
+        <v>4</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="1">
+        <v>2</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1">
+        <v>1</v>
+      </c>
+      <c r="C58" s="1">
+        <v>3</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0</v>
+      </c>
+      <c r="C59" s="1">
+        <v>3</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60" s="1">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1">
+        <v>4</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B61" s="1">
+        <v>2</v>
+      </c>
+      <c r="C61" s="1">
+        <v>3</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="1">
+        <v>2</v>
+      </c>
+      <c r="C62" s="1">
+        <v>8</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B63" s="1">
+        <v>1</v>
+      </c>
+      <c r="C63" s="1">
+        <v>4</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B64" s="1">
+        <v>3</v>
+      </c>
+      <c r="C64" s="1">
+        <v>2</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B65" s="1">
+        <v>1</v>
+      </c>
+      <c r="C65" s="1">
+        <v>4</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66" s="1">
+        <v>1</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B67" s="1">
+        <v>3</v>
+      </c>
+      <c r="C67" s="1">
+        <v>3</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B68" s="1">
+        <v>1</v>
+      </c>
+      <c r="C68" s="1">
+        <v>3</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B69" s="1">
+        <v>0</v>
+      </c>
+      <c r="C69" s="1">
+        <v>4</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B70" s="1">
+        <v>1</v>
+      </c>
+      <c r="C70" s="1">
+        <v>3</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B71" s="1">
+        <v>3</v>
+      </c>
+      <c r="C71" s="1">
+        <v>2</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B72" s="1">
+        <v>1</v>
+      </c>
+      <c r="C72" s="1">
+        <v>4</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B73" s="1">
+        <v>2</v>
+      </c>
+      <c r="C73" s="1">
+        <v>4</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B74" s="1">
+        <v>1</v>
+      </c>
+      <c r="C74" s="1">
+        <v>4</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B75" s="1">
+        <v>3</v>
+      </c>
+      <c r="C75" s="1">
+        <v>2</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B76" s="1">
+        <v>1</v>
+      </c>
+      <c r="C76" s="1">
+        <v>3</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B77" s="1">
+        <v>2</v>
+      </c>
+      <c r="C77" s="1">
+        <v>2</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B78" s="1">
+        <v>1</v>
+      </c>
+      <c r="C78" s="1">
+        <v>3</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B79" s="1">
+        <v>2</v>
+      </c>
+      <c r="C79" s="1">
+        <v>1</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B80" s="1">
+        <v>1</v>
+      </c>
+      <c r="C80" s="1">
+        <v>3</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B81" s="1">
+        <v>2</v>
+      </c>
+      <c r="C81" s="1">
+        <v>2</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B82" s="1">
+        <v>1</v>
+      </c>
+      <c r="C82" s="1">
+        <v>4</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B83" s="1">
+        <v>2</v>
+      </c>
+      <c r="C83" s="1">
+        <v>2</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B84" s="1">
+        <v>1</v>
+      </c>
+      <c r="C84" s="1">
+        <v>3</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B85" s="1">
+        <v>2</v>
+      </c>
+      <c r="C85" s="1">
+        <v>3</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B86" s="1">
+        <v>1</v>
+      </c>
+      <c r="C86" s="1">
+        <v>4</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B87" s="1">
+        <v>3</v>
+      </c>
+      <c r="C87" s="1">
+        <v>1</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B88" s="1">
+        <v>1</v>
+      </c>
+      <c r="C88" s="1">
+        <v>4</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B89" s="1">
+        <v>3</v>
+      </c>
+      <c r="C89" s="1">
+        <v>2</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B90" s="1">
+        <v>1</v>
+      </c>
+      <c r="C90" s="1">
+        <v>3</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B91" s="1">
+        <v>3</v>
+      </c>
+      <c r="C91" s="1">
+        <v>2</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B92" s="1">
+        <v>1</v>
+      </c>
+      <c r="C92" s="1">
+        <v>4</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B93" s="1">
+        <v>0</v>
+      </c>
+      <c r="C93" s="1">
+        <v>5</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B94" s="1">
+        <v>1</v>
+      </c>
+      <c r="C94" s="1">
+        <v>3</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B95" s="1">
+        <v>3</v>
+      </c>
+      <c r="C95" s="1">
+        <v>2</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B96" s="1">
+        <v>1</v>
+      </c>
+      <c r="C96" s="1">
+        <v>5</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B97" s="1">
+        <v>1</v>
+      </c>
+      <c r="C97" s="1">
+        <v>4</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B98" s="1">
+        <v>2</v>
+      </c>
+      <c r="C98" s="1">
+        <v>4</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F98" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B99" s="1">
+        <v>3</v>
+      </c>
+      <c r="C99" s="1">
+        <v>5</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F99" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B100" s="1">
+        <v>4</v>
+      </c>
+      <c r="C100" s="1">
+        <v>4</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B101" s="1">
+        <v>1</v>
+      </c>
+      <c r="C101" s="1">
+        <v>5</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B102" s="1">
+        <v>1</v>
+      </c>
+      <c r="C102" s="1">
+        <v>1</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B103" s="1">
+        <v>1</v>
+      </c>
+      <c r="C103" s="1">
+        <v>4</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B104" s="1">
+        <v>3</v>
+      </c>
+      <c r="C104" s="1">
+        <v>2</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B105" s="1">
+        <v>1</v>
+      </c>
+      <c r="C105" s="1">
+        <v>5</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B106" s="1">
+        <v>2</v>
+      </c>
+      <c r="C106" s="1">
+        <v>2</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B107" s="1">
+        <v>1</v>
+      </c>
+      <c r="C107" s="1">
+        <v>4</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B108" s="1">
+        <v>2</v>
+      </c>
+      <c r="C108" s="1">
+        <v>3</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B109" s="1">
+        <v>1</v>
+      </c>
+      <c r="C109" s="1">
+        <v>5</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B110" s="1">
+        <v>2</v>
+      </c>
+      <c r="C110" s="1">
+        <v>1</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B111" s="1">
+        <v>1</v>
+      </c>
+      <c r="C111" s="1">
+        <v>4</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B112" s="1">
+        <v>3</v>
+      </c>
+      <c r="C112" s="1">
+        <v>2</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B113" s="1">
+        <v>1</v>
+      </c>
+      <c r="C113" s="1">
+        <v>3</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B114" s="1">
+        <v>2</v>
+      </c>
+      <c r="C114" s="1">
+        <v>3</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B115" s="1">
+        <v>1</v>
+      </c>
+      <c r="C115" s="1">
+        <v>3</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B116" s="1">
+        <v>3</v>
+      </c>
+      <c r="C116" s="1">
+        <v>2</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B117" s="1">
+        <v>1</v>
+      </c>
+      <c r="C117" s="1">
+        <v>4</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B118" s="1">
+        <v>2</v>
+      </c>
+      <c r="C118" s="1">
+        <v>5</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B119" s="1">
+        <v>1</v>
+      </c>
+      <c r="C119" s="1">
+        <v>4</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B120" s="1">
+        <v>3</v>
+      </c>
+      <c r="C120" s="1">
+        <v>2</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B121" s="1">
+        <v>1</v>
+      </c>
+      <c r="C121" s="1">
+        <v>4</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B122" s="1">
+        <v>2</v>
+      </c>
+      <c r="C122" s="1">
+        <v>2</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B123" s="1">
+        <v>1</v>
+      </c>
+      <c r="C123" s="1">
+        <v>3</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B124" s="1">
+        <v>2</v>
+      </c>
+      <c r="C124" s="1">
+        <v>1</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B125" s="1">
+        <v>1</v>
+      </c>
+      <c r="C125" s="1">
+        <v>3</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B126" s="1">
+        <v>3</v>
+      </c>
+      <c r="C126" s="1">
+        <v>1</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B127" s="1">
+        <v>1</v>
+      </c>
+      <c r="C127" s="1">
+        <v>3</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B128" s="1">
+        <v>3</v>
+      </c>
+      <c r="C128" s="1">
+        <v>3</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B129" s="1">
+        <v>1</v>
+      </c>
+      <c r="C129" s="1">
+        <v>4</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B130" s="1">
+        <v>3</v>
+      </c>
+      <c r="C130" s="1">
+        <v>3</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B131" s="1">
+        <v>1</v>
+      </c>
+      <c r="C131" s="1">
+        <v>4</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B132" s="1">
+        <v>3</v>
+      </c>
+      <c r="C132" s="1">
+        <v>2</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B133" s="1">
+        <v>1</v>
+      </c>
+      <c r="C133" s="1">
+        <v>3</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B134" s="1">
+        <v>0</v>
+      </c>
+      <c r="C134" s="1">
+        <v>4</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B135" s="1">
+        <v>1</v>
+      </c>
+      <c r="C135" s="1">
+        <v>5</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B136" s="1">
+        <v>2</v>
+      </c>
+      <c r="C136" s="1">
+        <v>1</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B137" s="1">
+        <v>1</v>
+      </c>
+      <c r="C137" s="1">
+        <v>2</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B138" s="1">
+        <v>3</v>
+      </c>
+      <c r="C138" s="1">
+        <v>2</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B139" s="1">
+        <v>1</v>
+      </c>
+      <c r="C139" s="1">
+        <v>4</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B140" s="1">
+        <v>0</v>
+      </c>
+      <c r="C140" s="1">
+        <v>5</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B141" s="1">
+        <v>1</v>
+      </c>
+      <c r="C141" s="1">
+        <v>3</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B142" s="1">
+        <v>0</v>
+      </c>
+      <c r="C142" s="1">
+        <v>5</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B143" s="1">
+        <v>1</v>
+      </c>
+      <c r="C143" s="1">
+        <v>2</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B144" s="1">
+        <v>1</v>
+      </c>
+      <c r="C144" s="1">
+        <v>4</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B145" s="1">
+        <v>3</v>
+      </c>
+      <c r="C145" s="1">
+        <v>2</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B146" s="1">
+        <v>1</v>
+      </c>
+      <c r="C146" s="1">
+        <v>6</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B147" s="1">
+        <v>3</v>
+      </c>
+      <c r="C147" s="1">
+        <v>3</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B148" s="1">
+        <v>1</v>
+      </c>
+      <c r="C148" s="1">
+        <v>4</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B149" s="1">
+        <v>3</v>
+      </c>
+      <c r="C149" s="1">
+        <v>2</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B150" s="1">
+        <v>1</v>
+      </c>
+      <c r="C150" s="1">
+        <v>3</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B151" s="1">
+        <v>2</v>
+      </c>
+      <c r="C151" s="1">
+        <v>2</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B152" s="1">
+        <v>1</v>
+      </c>
+      <c r="C152" s="1">
+        <v>5</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B153" s="1">
+        <v>3</v>
+      </c>
+      <c r="C153" s="1">
+        <v>2</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B154" s="1">
+        <v>1</v>
+      </c>
+      <c r="C154" s="1">
+        <v>5</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B155" s="1">
+        <v>2</v>
+      </c>
+      <c r="C155" s="1">
+        <v>1</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B156" s="1">
+        <v>3</v>
+      </c>
+      <c r="C156" s="1">
+        <v>1</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B157" s="1">
+        <v>4</v>
+      </c>
+      <c r="C157" s="1">
+        <v>2</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B158" s="1">
+        <v>3</v>
+      </c>
+      <c r="C158" s="1">
+        <v>1</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B159" s="1">
+        <v>2</v>
+      </c>
+      <c r="C159" s="1">
+        <v>1</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B160" s="1">
+        <v>1</v>
+      </c>
+      <c r="C160" s="1">
+        <v>5</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B161" s="1">
+        <v>1</v>
+      </c>
+      <c r="C161" s="1">
+        <v>5</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B162" s="1">
+        <v>3</v>
+      </c>
+      <c r="C162" s="1">
+        <v>2</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B163" s="1">
+        <v>1</v>
+      </c>
+      <c r="C163" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D13" s="2"/>
+      <c r="D163" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A164" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G164" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Assets/Excel/Map/Chapter_1/Chapter_1.xlsx
+++ b/Assets/Excel/Map/Chapter_1/Chapter_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Project_Run-Game-Production\Assets\Excel\Map\Chapter_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\UnityFile\Project_Run-Game\Project_Run-Game-Production\Assets\Excel\Map\Chapter_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861403E7-7D84-49F0-AB28-724B87832A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CAB6CB-B339-4D90-9201-99B33E89F93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16920" yWindow="690" windowWidth="11850" windowHeight="13260" xr2:uid="{7789A3F8-44EE-4C38-A573-079D1C4BC80F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="4" xr2:uid="{7789A3F8-44EE-4C38-A573-079D1C4BC80F}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage_1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3141" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3140" uniqueCount="66">
   <si>
     <t>CoinType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -201,10 +201,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>`</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>None</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -262,10 +258,6 @@
   </si>
   <si>
     <t>====</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -697,7 +689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C9955E-D329-426C-AA74-3448E8ED168B}">
   <dimension ref="A1:I195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A178" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C201" sqref="C201"/>
     </sheetView>
   </sheetViews>
@@ -4308,7 +4300,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D40F19-04CB-4AA4-9741-41F6888F37B1}">
   <dimension ref="A1:I201"/>
   <sheetViews>
-    <sheetView topLeftCell="A190" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A187" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H104" sqref="H104"/>
     </sheetView>
   </sheetViews>
@@ -7788,8 +7780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F20716C-A8AD-4DAE-A7E4-7DDCB053F8D7}">
   <dimension ref="A1:I189"/>
   <sheetViews>
-    <sheetView topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="G189" sqref="G189"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="G116" sqref="G116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9457,7 +9449,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>4</v>
       </c>
@@ -9474,7 +9466,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>4</v>
       </c>
@@ -9491,7 +9483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>34</v>
       </c>
@@ -9508,7 +9500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>4</v>
       </c>
@@ -9519,13 +9511,13 @@
         <v>4</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>4</v>
       </c>
@@ -9542,7 +9534,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>4</v>
       </c>
@@ -9559,7 +9551,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>4</v>
       </c>
@@ -9576,7 +9568,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>4</v>
       </c>
@@ -9593,7 +9585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>4</v>
       </c>
@@ -9610,7 +9602,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>4</v>
       </c>
@@ -9627,7 +9619,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>34</v>
       </c>
@@ -9644,7 +9636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>4</v>
       </c>
@@ -9661,7 +9653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>4</v>
       </c>
@@ -9678,7 +9670,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>15</v>
       </c>
@@ -9694,11 +9686,8 @@
       <c r="E110" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F110" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>4</v>
       </c>
@@ -9715,7 +9704,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>4</v>
       </c>
@@ -10695,7 +10684,7 @@
         <v>6</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
@@ -10972,7 +10961,7 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B186" s="1">
         <v>2</v>
@@ -11023,7 +11012,7 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G189" s="1">
         <v>1</v>
@@ -11040,8 +11029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5D3D1D-CFA4-4C1D-A4DE-BD925E94E257}">
   <dimension ref="A1:I163"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="C170" sqref="C170"/>
+    <sheetView topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="D167" sqref="D167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11275,7 +11264,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>6</v>
@@ -11309,7 +11298,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>6</v>
@@ -11343,7 +11332,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>6</v>
@@ -11377,7 +11366,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>6</v>
@@ -11411,7 +11400,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>6</v>
@@ -11445,7 +11434,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>6</v>
@@ -11479,7 +11468,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>6</v>
@@ -11513,7 +11502,7 @@
         <v>2</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>6</v>
@@ -11538,7 +11527,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" s="1">
         <v>1</v>
@@ -12388,7 +12377,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B78" s="1">
         <v>1</v>
@@ -12864,7 +12853,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B106" s="1">
         <v>2</v>
@@ -13833,7 +13822,7 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G163" s="1">
         <v>1</v>
@@ -13850,8 +13839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC34187-A8AF-4586-8EE1-6E5E1B344A6A}">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13899,19 +13888,19 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="H2" s="1" t="str">
         <f>SUM(C:C) &amp; " 개"</f>
@@ -13920,143 +13909,143 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -14065,525 +14054,525 @@
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1">
-        <v>3</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B14" s="1">
-        <v>2</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="1">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1">
-        <v>3</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B16" s="1">
-        <v>2</v>
-      </c>
-      <c r="C16" s="1">
-        <v>2</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1">
-        <v>3</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="1">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B18" s="1">
-        <v>3</v>
-      </c>
-      <c r="C18" s="1">
-        <v>3</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="1">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1">
-        <v>3</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="1">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B20" s="1">
-        <v>3</v>
-      </c>
-      <c r="C20" s="1">
-        <v>3</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="1">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1">
-        <v>3</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="1">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B22" s="1">
-        <v>3</v>
-      </c>
-      <c r="C22" s="1">
-        <v>3</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="1">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1">
-        <v>3</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="1">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B24" s="1">
-        <v>3</v>
-      </c>
-      <c r="C24" s="1">
-        <v>3</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>3</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="1">
-        <v>1</v>
-      </c>
-      <c r="C25" s="1">
-        <v>3</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E25" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="1">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1">
+        <v>4</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B26" s="1">
-        <v>3</v>
-      </c>
-      <c r="C26" s="1">
-        <v>4</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>3</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="1">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1">
-        <v>3</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E27" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="1">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1">
+        <v>4</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B28" s="1">
-        <v>3</v>
-      </c>
-      <c r="C28" s="1">
-        <v>4</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="1">
-        <v>1</v>
-      </c>
-      <c r="C29" s="1">
-        <v>3</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E29" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="1">
+        <v>3</v>
+      </c>
+      <c r="C30" s="1">
+        <v>4</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B30" s="1">
-        <v>3</v>
-      </c>
-      <c r="C30" s="1">
-        <v>4</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1">
+        <v>3</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="1">
-        <v>1</v>
-      </c>
-      <c r="C31" s="1">
-        <v>3</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E31" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="1">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1">
+        <v>4</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B32" s="1">
-        <v>3</v>
-      </c>
-      <c r="C32" s="1">
-        <v>4</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1">
+        <v>3</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="1">
-        <v>1</v>
-      </c>
-      <c r="C33" s="1">
-        <v>3</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E33" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="1">
+        <v>3</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B34" s="1">
-        <v>3</v>
-      </c>
-      <c r="C34" s="1">
-        <v>2</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1">
+        <v>3</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="1">
-        <v>1</v>
-      </c>
-      <c r="C35" s="1">
-        <v>3</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="1">
+        <v>3</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B36" s="1">
-        <v>3</v>
-      </c>
-      <c r="C36" s="1">
-        <v>2</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1">
+        <v>3</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="1">
-        <v>1</v>
-      </c>
-      <c r="C37" s="1">
-        <v>3</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E37" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="1">
+        <v>3</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B38" s="1">
-        <v>3</v>
-      </c>
-      <c r="C38" s="1">
-        <v>2</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1">
+        <v>3</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="1">
-        <v>1</v>
-      </c>
-      <c r="C39" s="1">
-        <v>3</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E39" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="1">
+        <v>3</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B40" s="1">
-        <v>3</v>
-      </c>
-      <c r="C40" s="1">
-        <v>2</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1">
+        <v>3</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="1">
-        <v>1</v>
-      </c>
-      <c r="C41" s="1">
-        <v>3</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E41" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B42" s="1">
         <v>1</v>
@@ -14592,15 +14581,15 @@
         <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B43" s="1">
         <v>0</v>
@@ -14609,15 +14598,15 @@
         <v>4</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" s="1">
         <v>1</v>
@@ -14952,7 +14941,7 @@
         <v>17</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -15110,7 +15099,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B73" s="1">
         <v>1</v>
@@ -15127,7 +15116,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G74" s="1">
         <v>1</v>
@@ -15144,7 +15133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F562BDF9-DC5B-4ACC-99BF-7EDFEC2239A7}">
   <dimension ref="A1:I164"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
+    <sheetView topLeftCell="A148" workbookViewId="0">
       <selection activeCell="G164" sqref="G164"/>
     </sheetView>
   </sheetViews>
@@ -15193,7 +15182,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -15205,7 +15194,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H2" s="1" t="str">
         <f>SUM(C:C) &amp; " 개"</f>
@@ -15214,7 +15203,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -15226,12 +15215,12 @@
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -15243,12 +15232,12 @@
         <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -15260,12 +15249,12 @@
         <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -15277,12 +15266,12 @@
         <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -15291,15 +15280,15 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -15311,12 +15300,12 @@
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -15325,15 +15314,15 @@
         <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -15345,12 +15334,12 @@
         <v>6</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B11" s="1">
         <v>3</v>
@@ -15359,15 +15348,15 @@
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
@@ -15379,12 +15368,12 @@
         <v>6</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
@@ -15393,15 +15382,15 @@
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -15413,29 +15402,29 @@
         <v>6</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
@@ -15447,12 +15436,12 @@
         <v>6</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B17" s="1">
         <v>3</v>
@@ -15461,32 +15450,32 @@
         <v>2</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="1">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="1">
-        <v>3</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="E18" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
@@ -15498,29 +15487,29 @@
         <v>6</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="1">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="1">
-        <v>3</v>
-      </c>
-      <c r="C20" s="1">
-        <v>3</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
@@ -15532,12 +15521,12 @@
         <v>6</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
@@ -15549,12 +15538,12 @@
         <v>6</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B23" s="1">
         <v>2</v>
@@ -15566,12 +15555,12 @@
         <v>6</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B24" s="1">
         <v>3</v>
@@ -15580,15 +15569,15 @@
         <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B25" s="1">
         <v>2</v>
@@ -15600,12 +15589,12 @@
         <v>6</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
@@ -15617,12 +15606,12 @@
         <v>6</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
@@ -15631,15 +15620,15 @@
         <v>4</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B28" s="1">
         <v>1</v>
@@ -15651,12 +15640,12 @@
         <v>6</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B29" s="1">
         <v>3</v>
@@ -15665,15 +15654,15 @@
         <v>2</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B30" s="1">
         <v>1</v>
@@ -15685,12 +15674,12 @@
         <v>6</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B31" s="1">
         <v>4</v>
@@ -15702,12 +15691,12 @@
         <v>6</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B32" s="1">
         <v>1</v>
@@ -15719,12 +15708,12 @@
         <v>6</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B33" s="1">
         <v>1</v>
@@ -15736,29 +15725,29 @@
         <v>6</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1">
+        <v>3</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="1">
-        <v>2</v>
-      </c>
-      <c r="C34" s="1">
-        <v>3</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="E34" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B35" s="1">
         <v>1</v>
@@ -15770,12 +15759,12 @@
         <v>6</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B36" s="1">
         <v>2</v>
@@ -15784,15 +15773,15 @@
         <v>2</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B37" s="1">
         <v>1</v>
@@ -15804,12 +15793,12 @@
         <v>6</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B38" s="1">
         <v>3</v>
@@ -15818,15 +15807,15 @@
         <v>2</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B39" s="1">
         <v>1</v>
@@ -15838,12 +15827,12 @@
         <v>6</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B40" s="1">
         <v>1</v>
@@ -15855,12 +15844,12 @@
         <v>6</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B41" s="1">
         <v>2</v>
@@ -15872,12 +15861,12 @@
         <v>6</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B42" s="1">
         <v>1</v>
@@ -15889,12 +15878,12 @@
         <v>6</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B43" s="1">
         <v>3</v>
@@ -15906,12 +15895,12 @@
         <v>6</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B44" s="1">
         <v>1</v>
@@ -15923,12 +15912,12 @@
         <v>6</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B45" s="1">
         <v>1</v>
@@ -15940,12 +15929,12 @@
         <v>6</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B46" s="1">
         <v>2</v>
@@ -15957,7 +15946,7 @@
         <v>6</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F46" s="3">
         <v>2</v>
@@ -15965,7 +15954,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B47" s="1">
         <v>2</v>
@@ -15977,12 +15966,12 @@
         <v>6</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B48" s="1">
         <v>1</v>
@@ -15994,12 +15983,12 @@
         <v>6</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B49" s="1">
         <v>3</v>
@@ -16008,15 +15997,15 @@
         <v>2</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B50" s="1">
         <v>1</v>
@@ -16028,12 +16017,12 @@
         <v>6</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B51" s="1">
         <v>2</v>
@@ -16042,15 +16031,15 @@
         <v>2</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B52" s="1">
         <v>1</v>
@@ -16062,29 +16051,29 @@
         <v>6</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="1">
+        <v>2</v>
+      </c>
+      <c r="C53" s="1">
+        <v>3</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B53" s="1">
-        <v>2</v>
-      </c>
-      <c r="C53" s="1">
-        <v>3</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="E53" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B54" s="1">
         <v>1</v>
@@ -16096,12 +16085,12 @@
         <v>6</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B55" s="1">
         <v>3</v>
@@ -16110,15 +16099,15 @@
         <v>2</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B56" s="1">
         <v>1</v>
@@ -16130,12 +16119,12 @@
         <v>6</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>2</v>
@@ -16144,15 +16133,15 @@
         <v>1</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B58" s="1">
         <v>1</v>
@@ -16164,12 +16153,12 @@
         <v>6</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B59" s="1">
         <v>0</v>
@@ -16178,15 +16167,15 @@
         <v>3</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B60" s="1">
         <v>1</v>
@@ -16198,12 +16187,12 @@
         <v>6</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B61" s="1">
         <v>2</v>
@@ -16212,15 +16201,15 @@
         <v>3</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>2</v>
@@ -16232,12 +16221,12 @@
         <v>6</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B63" s="1">
         <v>1</v>
@@ -16249,12 +16238,12 @@
         <v>6</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B64" s="1">
         <v>3</v>
@@ -16263,15 +16252,15 @@
         <v>2</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B65" s="1">
         <v>1</v>
@@ -16283,12 +16272,12 @@
         <v>6</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B66" s="1">
         <v>1</v>
@@ -16300,29 +16289,29 @@
         <v>6</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B67" s="1">
+        <v>3</v>
+      </c>
+      <c r="C67" s="1">
+        <v>3</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B67" s="1">
-        <v>3</v>
-      </c>
-      <c r="C67" s="1">
-        <v>3</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="E67" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B68" s="1">
         <v>1</v>
@@ -16334,12 +16323,12 @@
         <v>6</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B69" s="1">
         <v>0</v>
@@ -16348,15 +16337,15 @@
         <v>4</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B70" s="1">
         <v>1</v>
@@ -16368,12 +16357,12 @@
         <v>6</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B71" s="1">
         <v>3</v>
@@ -16382,15 +16371,15 @@
         <v>2</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B72" s="1">
         <v>1</v>
@@ -16402,12 +16391,12 @@
         <v>6</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B73" s="1">
         <v>2</v>
@@ -16419,12 +16408,12 @@
         <v>6</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B74" s="1">
         <v>1</v>
@@ -16436,12 +16425,12 @@
         <v>6</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B75" s="1">
         <v>3</v>
@@ -16450,15 +16439,15 @@
         <v>2</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B76" s="1">
         <v>1</v>
@@ -16470,29 +16459,29 @@
         <v>6</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B77" s="1">
+        <v>2</v>
+      </c>
+      <c r="C77" s="1">
+        <v>2</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B77" s="1">
-        <v>2</v>
-      </c>
-      <c r="C77" s="1">
-        <v>2</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="E77" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B78" s="1">
         <v>1</v>
@@ -16504,29 +16493,29 @@
         <v>6</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B79" s="1">
+        <v>2</v>
+      </c>
+      <c r="C79" s="1">
+        <v>1</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B79" s="1">
-        <v>2</v>
-      </c>
-      <c r="C79" s="1">
-        <v>1</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="E79" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B80" s="1">
         <v>1</v>
@@ -16538,29 +16527,29 @@
         <v>6</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B81" s="1">
+        <v>2</v>
+      </c>
+      <c r="C81" s="1">
+        <v>2</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B81" s="1">
-        <v>2</v>
-      </c>
-      <c r="C81" s="1">
-        <v>2</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="E81" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B82" s="1">
         <v>1</v>
@@ -16572,29 +16561,29 @@
         <v>6</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B83" s="1">
+        <v>2</v>
+      </c>
+      <c r="C83" s="1">
+        <v>2</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B83" s="1">
-        <v>2</v>
-      </c>
-      <c r="C83" s="1">
-        <v>2</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="E83" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B84" s="1">
         <v>1</v>
@@ -16606,29 +16595,29 @@
         <v>6</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B85" s="1">
+        <v>2</v>
+      </c>
+      <c r="C85" s="1">
+        <v>3</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B85" s="1">
-        <v>2</v>
-      </c>
-      <c r="C85" s="1">
-        <v>3</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="E85" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B86" s="1">
         <v>1</v>
@@ -16640,12 +16629,12 @@
         <v>6</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B87" s="1">
         <v>3</v>
@@ -16654,15 +16643,15 @@
         <v>1</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B88" s="1">
         <v>1</v>
@@ -16674,12 +16663,12 @@
         <v>6</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B89" s="1">
         <v>3</v>
@@ -16688,15 +16677,15 @@
         <v>2</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B90" s="1">
         <v>1</v>
@@ -16708,12 +16697,12 @@
         <v>6</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B91" s="1">
         <v>3</v>
@@ -16722,15 +16711,15 @@
         <v>2</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B92" s="1">
         <v>1</v>
@@ -16742,12 +16731,12 @@
         <v>6</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B93" s="1">
         <v>0</v>
@@ -16756,15 +16745,15 @@
         <v>5</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B94" s="1">
         <v>1</v>
@@ -16776,12 +16765,12 @@
         <v>6</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B95" s="1">
         <v>3</v>
@@ -16790,15 +16779,15 @@
         <v>2</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B96" s="1">
         <v>1</v>
@@ -16810,12 +16799,12 @@
         <v>6</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B97" s="1">
         <v>1</v>
@@ -16827,12 +16816,12 @@
         <v>6</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B98" s="1">
         <v>2</v>
@@ -16844,7 +16833,7 @@
         <v>6</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F98" s="1">
         <v>1</v>
@@ -16852,7 +16841,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B99" s="1">
         <v>3</v>
@@ -16864,7 +16853,7 @@
         <v>6</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F99" s="1">
         <v>2</v>
@@ -16872,7 +16861,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B100" s="1">
         <v>4</v>
@@ -16881,15 +16870,15 @@
         <v>4</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B101" s="1">
         <v>1</v>
@@ -16901,12 +16890,12 @@
         <v>6</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B102" s="1">
         <v>1</v>
@@ -16918,12 +16907,12 @@
         <v>6</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B103" s="1">
         <v>1</v>
@@ -16935,12 +16924,12 @@
         <v>6</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B104" s="1">
         <v>3</v>
@@ -16949,15 +16938,15 @@
         <v>2</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B105" s="1">
         <v>1</v>
@@ -16969,12 +16958,12 @@
         <v>6</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B106" s="1">
         <v>2</v>
@@ -16983,15 +16972,15 @@
         <v>2</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B107" s="1">
         <v>1</v>
@@ -17003,29 +16992,29 @@
         <v>6</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B108" s="1">
+        <v>2</v>
+      </c>
+      <c r="C108" s="1">
+        <v>3</v>
+      </c>
+      <c r="D108" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B108" s="1">
-        <v>2</v>
-      </c>
-      <c r="C108" s="1">
-        <v>3</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="E108" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B109" s="1">
         <v>1</v>
@@ -17037,29 +17026,29 @@
         <v>6</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B110" s="1">
+        <v>2</v>
+      </c>
+      <c r="C110" s="1">
+        <v>1</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B110" s="1">
-        <v>2</v>
-      </c>
-      <c r="C110" s="1">
-        <v>1</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="E110" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B111" s="1">
         <v>1</v>
@@ -17071,29 +17060,29 @@
         <v>6</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B112" s="1">
+        <v>3</v>
+      </c>
+      <c r="C112" s="1">
+        <v>2</v>
+      </c>
+      <c r="D112" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B112" s="1">
-        <v>3</v>
-      </c>
-      <c r="C112" s="1">
-        <v>2</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="E112" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B113" s="1">
         <v>1</v>
@@ -17105,12 +17094,12 @@
         <v>6</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B114" s="1">
         <v>2</v>
@@ -17119,15 +17108,15 @@
         <v>3</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B115" s="1">
         <v>1</v>
@@ -17139,12 +17128,12 @@
         <v>6</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B116" s="1">
         <v>3</v>
@@ -17153,15 +17142,15 @@
         <v>2</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B117" s="1">
         <v>1</v>
@@ -17173,12 +17162,12 @@
         <v>6</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B118" s="1">
         <v>2</v>
@@ -17190,12 +17179,12 @@
         <v>6</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B119" s="1">
         <v>1</v>
@@ -17207,12 +17196,12 @@
         <v>6</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B120" s="1">
         <v>3</v>
@@ -17221,15 +17210,15 @@
         <v>2</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B121" s="1">
         <v>1</v>
@@ -17241,12 +17230,12 @@
         <v>6</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B122" s="1">
         <v>2</v>
@@ -17255,15 +17244,15 @@
         <v>2</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B123" s="1">
         <v>1</v>
@@ -17275,29 +17264,29 @@
         <v>6</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B124" s="1">
+        <v>2</v>
+      </c>
+      <c r="C124" s="1">
+        <v>1</v>
+      </c>
+      <c r="D124" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B124" s="1">
-        <v>2</v>
-      </c>
-      <c r="C124" s="1">
-        <v>1</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="E124" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B125" s="1">
         <v>1</v>
@@ -17309,12 +17298,12 @@
         <v>6</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B126" s="1">
         <v>3</v>
@@ -17323,15 +17312,15 @@
         <v>1</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B127" s="1">
         <v>1</v>
@@ -17343,29 +17332,29 @@
         <v>6</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B128" s="1">
+        <v>3</v>
+      </c>
+      <c r="C128" s="1">
+        <v>3</v>
+      </c>
+      <c r="D128" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B128" s="1">
-        <v>3</v>
-      </c>
-      <c r="C128" s="1">
-        <v>3</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="E128" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B129" s="1">
         <v>1</v>
@@ -17377,29 +17366,29 @@
         <v>6</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B130" s="1">
+        <v>3</v>
+      </c>
+      <c r="C130" s="1">
+        <v>3</v>
+      </c>
+      <c r="D130" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B130" s="1">
-        <v>3</v>
-      </c>
-      <c r="C130" s="1">
-        <v>3</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="E130" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B131" s="1">
         <v>1</v>
@@ -17411,12 +17400,12 @@
         <v>6</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B132" s="1">
         <v>3</v>
@@ -17425,15 +17414,15 @@
         <v>2</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B133" s="1">
         <v>1</v>
@@ -17445,12 +17434,12 @@
         <v>6</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B134" s="1">
         <v>0</v>
@@ -17459,15 +17448,15 @@
         <v>4</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B135" s="1">
         <v>1</v>
@@ -17479,29 +17468,29 @@
         <v>6</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B136" s="1">
+        <v>2</v>
+      </c>
+      <c r="C136" s="1">
+        <v>1</v>
+      </c>
+      <c r="D136" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B136" s="1">
-        <v>2</v>
-      </c>
-      <c r="C136" s="1">
-        <v>1</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="E136" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B137" s="1">
         <v>1</v>
@@ -17513,12 +17502,12 @@
         <v>6</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B138" s="1">
         <v>3</v>
@@ -17527,15 +17516,15 @@
         <v>2</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B139" s="1">
         <v>1</v>
@@ -17547,12 +17536,12 @@
         <v>6</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B140" s="1">
         <v>0</v>
@@ -17561,15 +17550,15 @@
         <v>5</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B141" s="1">
         <v>1</v>
@@ -17581,12 +17570,12 @@
         <v>6</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B142" s="1">
         <v>0</v>
@@ -17595,15 +17584,15 @@
         <v>5</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B143" s="1">
         <v>1</v>
@@ -17615,12 +17604,12 @@
         <v>6</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B144" s="1">
         <v>1</v>
@@ -17632,12 +17621,12 @@
         <v>6</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B145" s="1">
         <v>3</v>
@@ -17646,15 +17635,15 @@
         <v>2</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B146" s="1">
         <v>1</v>
@@ -17666,29 +17655,29 @@
         <v>6</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B147" s="1">
+        <v>3</v>
+      </c>
+      <c r="C147" s="1">
+        <v>3</v>
+      </c>
+      <c r="D147" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B147" s="1">
-        <v>3</v>
-      </c>
-      <c r="C147" s="1">
-        <v>3</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="E147" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B148" s="1">
         <v>1</v>
@@ -17700,12 +17689,12 @@
         <v>6</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B149" s="1">
         <v>3</v>
@@ -17714,15 +17703,15 @@
         <v>2</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B150" s="1">
         <v>1</v>
@@ -17734,29 +17723,29 @@
         <v>6</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B151" s="1">
+        <v>2</v>
+      </c>
+      <c r="C151" s="1">
+        <v>2</v>
+      </c>
+      <c r="D151" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B151" s="1">
-        <v>2</v>
-      </c>
-      <c r="C151" s="1">
-        <v>2</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="E151" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B152" s="1">
         <v>1</v>
@@ -17768,12 +17757,12 @@
         <v>6</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B153" s="1">
         <v>3</v>
@@ -17782,15 +17771,15 @@
         <v>2</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B154" s="1">
         <v>1</v>
@@ -17802,12 +17791,12 @@
         <v>6</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B155" s="1">
         <v>2</v>
@@ -17819,12 +17808,12 @@
         <v>6</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B156" s="1">
         <v>3</v>
@@ -17836,12 +17825,12 @@
         <v>6</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B157" s="1">
         <v>4</v>
@@ -17850,15 +17839,15 @@
         <v>2</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B158" s="1">
         <v>3</v>
@@ -17870,12 +17859,12 @@
         <v>6</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B159" s="1">
         <v>2</v>
@@ -17887,12 +17876,12 @@
         <v>6</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B160" s="1">
         <v>1</v>
@@ -17904,12 +17893,12 @@
         <v>6</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B161" s="1">
         <v>1</v>
@@ -17921,12 +17910,12 @@
         <v>6</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B162" s="1">
         <v>3</v>
@@ -17935,15 +17924,15 @@
         <v>2</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B163" s="1">
         <v>1</v>
@@ -17955,12 +17944,12 @@
         <v>6</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G164" s="1">
         <v>1</v>

--- a/Assets/Excel/Map/Chapter_1/Chapter_1.xlsx
+++ b/Assets/Excel/Map/Chapter_1/Chapter_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\UnityFile\Project_Run-Game\Project_Run-Game-Production\Assets\Excel\Map\Chapter_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Project_Run-Game-Production\Assets\Excel\Map\Chapter_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CAB6CB-B339-4D90-9201-99B33E89F93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D924A9CE-49D6-4E5E-BE7B-BF60053D7CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="4" xr2:uid="{7789A3F8-44EE-4C38-A573-079D1C4BC80F}"/>
+    <workbookView xWindow="16920" yWindow="690" windowWidth="11850" windowHeight="13260" firstSheet="5" activeTab="7" xr2:uid="{7789A3F8-44EE-4C38-A573-079D1C4BC80F}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage_1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3140" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3529" uniqueCount="76">
   <si>
     <t>CoinType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -302,6 +302,45 @@
   </si>
   <si>
     <t>====</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>====</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coin_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obstacle_2</t>
+  </si>
+  <si>
+    <t>Obstacle_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obstacle_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obstacle_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Double_HP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -7780,7 +7819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F20716C-A8AD-4DAE-A7E4-7DDCB053F8D7}">
   <dimension ref="A1:I189"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
+    <sheetView topLeftCell="A178" workbookViewId="0">
       <selection activeCell="G116" sqref="G116"/>
     </sheetView>
   </sheetViews>
@@ -11029,8 +11068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5D3D1D-CFA4-4C1D-A4DE-BD925E94E257}">
   <dimension ref="A1:I163"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="D167" sqref="D167"/>
+    <sheetView topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="C178" sqref="C177:C178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13839,7 +13878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC34187-A8AF-4586-8EE1-6E5E1B344A6A}">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
@@ -15133,8 +15172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F562BDF9-DC5B-4ACC-99BF-7EDFEC2239A7}">
   <dimension ref="A1:I164"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="G164" sqref="G164"/>
+    <sheetView topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="E172" sqref="E172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18212,10 +18251,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93557007-48CC-4915-B676-2018C849F25D}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I144"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="E136" sqref="E136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18263,198 +18302,2440 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="H2" s="1" t="str">
         <f>SUM(C:C) &amp; " 개"</f>
-        <v>22 개</v>
+        <v>457 개</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>4</v>
-      </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
       <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="B8" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="1">
+        <v>3</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>4</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="1">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>4</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="1">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1">
+        <v>3</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="1">
+        <v>3</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
+        <v>3</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1">
+        <v>4</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1">
+        <v>4</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="1">
+        <v>2</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1">
+        <v>4</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="1">
+        <v>3</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1">
+        <v>5</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1">
+        <v>4</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1">
+        <v>3</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1">
+        <v>3</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" s="1">
+        <v>2</v>
+      </c>
+      <c r="C45" s="1">
+        <v>7</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1">
+        <v>4</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" s="1">
+        <v>3</v>
+      </c>
+      <c r="C47" s="1">
+        <v>2</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1">
+        <v>3</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" s="1">
+        <v>2</v>
+      </c>
+      <c r="C49" s="1">
+        <v>2</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1">
+        <v>3</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" s="1">
+        <v>2</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52" s="1">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" s="1">
+        <v>3</v>
+      </c>
+      <c r="C53" s="1">
+        <v>3</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1">
+        <v>4</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" s="1">
+        <v>3</v>
+      </c>
+      <c r="C55" s="1">
+        <v>3</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56" s="1">
+        <v>1</v>
+      </c>
+      <c r="C56" s="1">
+        <v>5</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B57" s="1">
+        <v>2</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" s="1">
+        <v>1</v>
+      </c>
+      <c r="C58" s="1">
+        <v>5</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B59" s="1">
+        <v>4</v>
+      </c>
+      <c r="C59" s="1">
+        <v>2</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" s="1">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1">
+        <v>3</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" s="1">
+        <v>0</v>
+      </c>
+      <c r="C61" s="1">
+        <v>5</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" s="1">
+        <v>1</v>
+      </c>
+      <c r="C62" s="1">
+        <v>3</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" s="1">
+        <v>2</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" s="1">
+        <v>1</v>
+      </c>
+      <c r="C64" s="1">
+        <v>3</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" s="1">
+        <v>1</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66" s="1">
+        <v>1</v>
+      </c>
+      <c r="C66" s="1">
+        <v>4</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" s="1">
+        <v>3</v>
+      </c>
+      <c r="C67" s="1">
+        <v>2</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1">
+        <v>1</v>
+      </c>
+      <c r="C68" s="1">
+        <v>3</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1">
+        <v>2</v>
+      </c>
+      <c r="C69" s="1">
+        <v>1</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B70" s="1">
+        <v>1</v>
+      </c>
+      <c r="C70" s="1">
+        <v>4</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B71" s="1">
+        <v>2</v>
+      </c>
+      <c r="C71" s="1">
+        <v>2</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B72" s="1">
+        <v>1</v>
+      </c>
+      <c r="C72" s="1">
+        <v>4</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B73" s="1">
+        <v>3</v>
+      </c>
+      <c r="C73" s="1">
+        <v>3</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B74" s="1">
+        <v>1</v>
+      </c>
+      <c r="C74" s="1">
+        <v>5</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B75" s="1">
+        <v>2</v>
+      </c>
+      <c r="C75" s="1">
+        <v>1</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B76" s="1">
+        <v>1</v>
+      </c>
+      <c r="C76" s="1">
+        <v>5</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B77" s="1">
+        <v>3</v>
+      </c>
+      <c r="C77" s="1">
+        <v>2</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B78" s="1">
+        <v>1</v>
+      </c>
+      <c r="C78" s="1">
+        <v>4</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B79" s="1">
+        <v>2</v>
+      </c>
+      <c r="C79" s="1">
+        <v>3</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B80" s="1">
+        <v>1</v>
+      </c>
+      <c r="C80" s="1">
+        <v>4</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B81" s="1">
+        <v>0</v>
+      </c>
+      <c r="C81" s="1">
+        <v>7</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B82" s="1">
+        <v>1</v>
+      </c>
+      <c r="C82" s="1">
+        <v>1</v>
+      </c>
+      <c r="D82" s="1">
+        <v>1</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B83" s="1">
+        <v>1</v>
+      </c>
+      <c r="C83" s="1">
+        <v>4</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B84" s="1">
+        <v>3</v>
+      </c>
+      <c r="C84" s="1">
+        <v>2</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B85" s="1">
+        <v>1</v>
+      </c>
+      <c r="C85" s="1">
+        <v>5</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B86" s="1">
+        <v>2</v>
+      </c>
+      <c r="C86" s="1">
+        <v>2</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B87" s="1">
+        <v>1</v>
+      </c>
+      <c r="C87" s="1">
+        <v>3</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B88" s="1">
+        <v>4</v>
+      </c>
+      <c r="C88" s="1">
+        <v>2</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B89" s="1">
+        <v>1</v>
+      </c>
+      <c r="C89" s="1">
+        <v>5</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B90" s="1">
+        <v>4</v>
+      </c>
+      <c r="C90" s="1">
+        <v>2</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B91" s="1">
+        <v>1</v>
+      </c>
+      <c r="C91" s="1">
+        <v>4</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B92" s="1">
+        <v>0</v>
+      </c>
+      <c r="C92" s="1">
+        <v>5</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B93" s="1">
+        <v>1</v>
+      </c>
+      <c r="C93" s="1">
+        <v>3</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B94" s="1">
+        <v>3</v>
+      </c>
+      <c r="C94" s="1">
+        <v>2</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B95" s="1">
+        <v>1</v>
+      </c>
+      <c r="C95" s="1">
+        <v>5</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B96" s="1">
+        <v>2</v>
+      </c>
+      <c r="C96" s="1">
+        <v>1</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B97" s="1">
+        <v>1</v>
+      </c>
+      <c r="C97" s="1">
+        <v>4</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B98" s="1">
+        <v>2</v>
+      </c>
+      <c r="C98" s="1">
+        <v>2</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B99" s="1">
+        <v>1</v>
+      </c>
+      <c r="C99" s="1">
+        <v>4</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B100" s="1">
+        <v>3</v>
+      </c>
+      <c r="C100" s="1">
+        <v>3</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B101" s="1">
+        <v>1</v>
+      </c>
+      <c r="C101" s="1">
+        <v>4</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B102" s="1">
+        <v>1</v>
+      </c>
+      <c r="C102" s="1">
+        <v>1</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B103" s="1">
+        <v>1</v>
+      </c>
+      <c r="C103" s="1">
+        <v>3</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B104" s="1">
+        <v>3</v>
+      </c>
+      <c r="C104" s="1">
+        <v>2</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B105" s="1">
+        <v>1</v>
+      </c>
+      <c r="C105" s="1">
+        <v>4</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B106" s="1">
+        <v>2</v>
+      </c>
+      <c r="C106" s="1">
+        <v>1</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B107" s="1">
+        <v>1</v>
+      </c>
+      <c r="C107" s="1">
+        <v>5</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B108" s="1">
+        <v>2</v>
+      </c>
+      <c r="C108" s="1">
+        <v>2</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B109" s="1">
+        <v>1</v>
+      </c>
+      <c r="C109" s="1">
+        <v>6</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B110" s="1">
+        <v>3</v>
+      </c>
+      <c r="C110" s="1">
+        <v>2</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B111" s="1">
+        <v>1</v>
+      </c>
+      <c r="C111" s="1">
+        <v>5</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B112" s="1">
+        <v>0</v>
+      </c>
+      <c r="C112" s="1">
+        <v>4</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B113" s="1">
+        <v>1</v>
+      </c>
+      <c r="C113" s="1">
+        <v>3</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B114" s="1">
+        <v>3</v>
+      </c>
+      <c r="C114" s="1">
+        <v>3</v>
+      </c>
+      <c r="D114" s="1" t="str">
+        <f>$D$108</f>
+        <v>Obstacle_1</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B115" s="1">
+        <v>1</v>
+      </c>
+      <c r="C115" s="1">
+        <v>4</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B116" s="1">
+        <v>2</v>
+      </c>
+      <c r="C116" s="1">
+        <v>1</v>
+      </c>
+      <c r="D116" s="1" t="str">
+        <f>$D$108</f>
+        <v>Obstacle_1</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B117" s="1">
+        <v>1</v>
+      </c>
+      <c r="C117" s="1">
+        <v>5</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B118" s="1">
+        <v>2</v>
+      </c>
+      <c r="C118" s="1">
+        <v>6</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B119" s="1">
+        <v>1</v>
+      </c>
+      <c r="C119" s="1">
+        <v>4</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B120" s="1">
+        <v>3</v>
+      </c>
+      <c r="C120" s="1">
+        <v>2</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B121" s="1">
+        <v>1</v>
+      </c>
+      <c r="C121" s="1">
+        <v>3</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B122" s="1">
+        <v>0</v>
+      </c>
+      <c r="C122" s="1">
+        <v>5</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B123" s="1">
+        <v>1</v>
+      </c>
+      <c r="C123" s="1">
+        <v>3</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B124" s="1">
+        <v>3</v>
+      </c>
+      <c r="C124" s="1">
+        <v>3</v>
+      </c>
+      <c r="D124" s="1" t="str">
+        <f>$D$108</f>
+        <v>Obstacle_1</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B125" s="1">
+        <v>1</v>
+      </c>
+      <c r="C125" s="1">
+        <v>4</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B126" s="1">
+        <v>1</v>
+      </c>
+      <c r="C126" s="1">
+        <v>1</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B127" s="1">
+        <v>1</v>
+      </c>
+      <c r="C127" s="1">
+        <v>5</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B128" s="1">
+        <v>3</v>
+      </c>
+      <c r="C128" s="1">
+        <v>3</v>
+      </c>
+      <c r="D128" s="1" t="str">
+        <f>$D$108</f>
+        <v>Obstacle_1</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B129" s="1">
+        <v>1</v>
+      </c>
+      <c r="C129" s="1">
+        <v>5</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B130" s="1">
+        <v>2</v>
+      </c>
+      <c r="C130" s="1">
+        <v>1</v>
+      </c>
+      <c r="D130" s="1" t="str">
+        <f>$D$108</f>
+        <v>Obstacle_1</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B131" s="1">
+        <v>1</v>
+      </c>
+      <c r="C131" s="1">
+        <v>4</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B132" s="1">
+        <v>3</v>
+      </c>
+      <c r="C132" s="1">
+        <v>2</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B133" s="1">
+        <v>1</v>
+      </c>
+      <c r="C133" s="1">
+        <v>4</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B134" s="1">
+        <v>0</v>
+      </c>
+      <c r="C134" s="1">
+        <v>4</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B135" s="1">
+        <v>1</v>
+      </c>
+      <c r="C135" s="1">
+        <v>6</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B136" s="1">
+        <v>3</v>
+      </c>
+      <c r="C136" s="1">
+        <v>2</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B137" s="1">
+        <v>1</v>
+      </c>
+      <c r="C137" s="1">
+        <v>4</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B138" s="1">
+        <v>2</v>
+      </c>
+      <c r="C138" s="1">
+        <v>1</v>
+      </c>
+      <c r="D138" s="1" t="str">
+        <f>$D$108</f>
+        <v>Obstacle_1</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B139" s="1">
+        <v>1</v>
+      </c>
+      <c r="C139" s="1">
+        <v>3</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B140" s="1">
+        <v>0</v>
+      </c>
+      <c r="C140" s="1">
+        <v>5</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B141" s="1">
+        <v>1</v>
+      </c>
+      <c r="C141" s="1">
+        <v>4</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B142" s="1">
+        <v>2</v>
+      </c>
+      <c r="C142" s="1">
+        <v>5</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B143" s="1">
+        <v>2</v>
+      </c>
+      <c r="C143" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D13" s="2"/>
+      <c r="D143" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A144" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G144" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Assets/Excel/Map/Chapter_1/Chapter_1.xlsx
+++ b/Assets/Excel/Map/Chapter_1/Chapter_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Project_Run-Game-Production\Assets\Excel\Map\Chapter_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D924A9CE-49D6-4E5E-BE7B-BF60053D7CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3127631-8355-4563-BBAE-5947D536F419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16920" yWindow="690" windowWidth="11850" windowHeight="13260" firstSheet="5" activeTab="7" xr2:uid="{7789A3F8-44EE-4C38-A573-079D1C4BC80F}"/>
+    <workbookView xWindow="16920" yWindow="690" windowWidth="11850" windowHeight="13260" firstSheet="5" activeTab="8" xr2:uid="{7789A3F8-44EE-4C38-A573-079D1C4BC80F}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage_1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3529" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3857" uniqueCount="85">
   <si>
     <t>CoinType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -341,6 +341,42 @@
   </si>
   <si>
     <t>Double_HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>====</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coin_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obstacle_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obstacle_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obstacle_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Platform_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -18253,8 +18289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93557007-48CC-4915-B676-2018C849F25D}">
   <dimension ref="A1:I144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="E136" sqref="E136"/>
+    <sheetView topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="G137" sqref="G137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -20741,10 +20777,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6947ED53-20B0-45E4-B382-9F51ECE0AD2B}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="B101" workbookViewId="0">
+      <selection activeCell="G122" sqref="G122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -20792,197 +20828,2059 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="H2" s="1" t="str">
         <f>SUM(C:C) &amp; " 개"</f>
-        <v>22 개</v>
+        <v>377 개</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1">
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="B6" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="B8" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
       <c r="C11" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="G12" s="1">
-        <v>1</v>
+        <v>76</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D13" s="2"/>
+      <c r="A13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>4</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>5</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="1">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1">
+        <v>4</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="1">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1">
+        <v>5</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="1">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>4</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
+        <v>3</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="1">
+        <v>3</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1">
+        <v>4</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1">
+        <v>3</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="1">
+        <v>3</v>
+      </c>
+      <c r="C37" s="1">
+        <v>3</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1">
+        <v>4</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1">
+        <v>5</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="1">
+        <v>3</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1">
+        <v>4</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" s="1">
+        <v>2</v>
+      </c>
+      <c r="C43" s="1">
+        <v>6</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1">
+        <v>3</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" s="1">
+        <v>3</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1">
+        <v>4</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0</v>
+      </c>
+      <c r="C47" s="1">
+        <v>4</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1">
+        <v>3</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49" s="1">
+        <v>2</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1">
+        <v>5</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" s="1">
+        <v>2</v>
+      </c>
+      <c r="C51" s="1">
+        <v>2</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" s="1">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" s="1">
+        <v>3</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1">
+        <v>3</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0</v>
+      </c>
+      <c r="C55" s="1">
+        <v>4</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" s="1">
+        <v>1</v>
+      </c>
+      <c r="C56" s="1">
+        <v>3</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B57" s="1">
+        <v>3</v>
+      </c>
+      <c r="C57" s="1">
+        <v>3</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" s="1">
+        <v>1</v>
+      </c>
+      <c r="C58" s="1">
+        <v>4</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B59" s="1">
+        <v>1</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" s="1">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1">
+        <v>2</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" s="1">
+        <v>2</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" s="1">
+        <v>1</v>
+      </c>
+      <c r="C62" s="1">
+        <v>3</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B63" s="1">
+        <v>3</v>
+      </c>
+      <c r="C63" s="1">
+        <v>2</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64" s="1">
+        <v>1</v>
+      </c>
+      <c r="C64" s="1">
+        <v>4</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B65" s="1">
+        <v>3</v>
+      </c>
+      <c r="C65" s="1">
+        <v>2</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B66" s="1">
+        <v>1</v>
+      </c>
+      <c r="C66" s="1">
+        <v>3</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B67" s="1">
+        <v>3</v>
+      </c>
+      <c r="C67" s="1">
+        <v>5</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E67" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B68" s="1">
+        <v>3</v>
+      </c>
+      <c r="C68" s="1">
+        <v>4</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" s="1">
+        <v>0</v>
+      </c>
+      <c r="C69" s="1">
+        <v>4</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70" s="1">
+        <v>1</v>
+      </c>
+      <c r="C70" s="1">
+        <v>4</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71" s="1">
+        <v>3</v>
+      </c>
+      <c r="C71" s="1">
+        <v>2</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72" s="1">
+        <v>1</v>
+      </c>
+      <c r="C72" s="1">
+        <v>4</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" s="1">
+        <v>2</v>
+      </c>
+      <c r="C73" s="1">
+        <v>1</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" s="1">
+        <v>1</v>
+      </c>
+      <c r="C74" s="1">
+        <v>4</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" s="1">
+        <v>2</v>
+      </c>
+      <c r="C75" s="1">
+        <v>2</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" s="1">
+        <v>1</v>
+      </c>
+      <c r="C76" s="1">
+        <v>5</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1">
+        <v>0</v>
+      </c>
+      <c r="C77" s="1">
+        <v>6</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" s="1">
+        <v>1</v>
+      </c>
+      <c r="C78" s="1">
+        <v>4</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" s="1">
+        <v>1</v>
+      </c>
+      <c r="C79" s="1">
+        <v>1</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B80" s="1">
+        <v>2</v>
+      </c>
+      <c r="C80" s="1">
+        <v>1</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B81" s="1">
+        <v>1</v>
+      </c>
+      <c r="C81" s="1">
+        <v>3</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B82" s="1">
+        <v>3</v>
+      </c>
+      <c r="C82" s="1">
+        <v>2</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B83" s="1">
+        <v>1</v>
+      </c>
+      <c r="C83" s="1">
+        <v>4</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B84" s="1">
+        <v>0</v>
+      </c>
+      <c r="C84" s="1">
+        <v>6</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B85" s="1">
+        <v>1</v>
+      </c>
+      <c r="C85" s="1">
+        <v>4</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B86" s="1">
+        <v>3</v>
+      </c>
+      <c r="C86" s="1">
+        <v>3</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B87" s="1">
+        <v>1</v>
+      </c>
+      <c r="C87" s="1">
+        <v>4</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B88" s="1">
+        <v>3</v>
+      </c>
+      <c r="C88" s="1">
+        <v>2</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B89" s="1">
+        <v>1</v>
+      </c>
+      <c r="C89" s="1">
+        <v>4</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B90" s="1">
+        <v>3</v>
+      </c>
+      <c r="C90" s="1">
+        <v>1</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B91" s="1">
+        <v>1</v>
+      </c>
+      <c r="C91" s="1">
+        <v>4</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B92" s="1">
+        <v>2</v>
+      </c>
+      <c r="C92" s="1">
+        <v>2</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B93" s="1">
+        <v>1</v>
+      </c>
+      <c r="C93" s="1">
+        <v>4</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B94" s="1">
+        <v>1</v>
+      </c>
+      <c r="C94" s="1">
+        <v>1</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B95" s="1">
+        <v>3</v>
+      </c>
+      <c r="C95" s="1">
+        <v>2</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B96" s="1">
+        <v>1</v>
+      </c>
+      <c r="C96" s="1">
+        <v>4</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B97" s="1">
+        <v>0</v>
+      </c>
+      <c r="C97" s="1">
+        <v>4</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B98" s="1">
+        <v>1</v>
+      </c>
+      <c r="C98" s="1">
+        <v>3</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B99" s="1">
+        <v>3</v>
+      </c>
+      <c r="C99" s="1">
+        <v>2</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B100" s="1">
+        <v>1</v>
+      </c>
+      <c r="C100" s="1">
+        <v>4</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B101" s="1">
+        <v>2</v>
+      </c>
+      <c r="C101" s="1">
+        <v>1</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B102" s="1">
+        <v>1</v>
+      </c>
+      <c r="C102" s="1">
+        <v>4</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B103" s="1">
+        <v>2</v>
+      </c>
+      <c r="C103" s="1">
+        <v>1</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B104" s="1">
+        <v>1</v>
+      </c>
+      <c r="C104" s="1">
+        <v>3</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B105" s="1">
+        <v>3</v>
+      </c>
+      <c r="C105" s="1">
+        <v>2</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B106" s="1">
+        <v>1</v>
+      </c>
+      <c r="C106" s="1">
+        <v>4</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B107" s="1">
+        <v>2</v>
+      </c>
+      <c r="C107" s="1">
+        <v>2</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B108" s="1">
+        <v>1</v>
+      </c>
+      <c r="C108" s="1">
+        <v>3</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B109" s="1">
+        <v>0</v>
+      </c>
+      <c r="C109" s="1">
+        <v>4</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B110" s="1">
+        <v>1</v>
+      </c>
+      <c r="C110" s="1">
+        <v>5</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B111" s="1">
+        <v>2</v>
+      </c>
+      <c r="C111" s="1">
+        <v>1</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B112" s="1">
+        <v>1</v>
+      </c>
+      <c r="C112" s="1">
+        <v>4</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B113" s="1">
+        <v>3</v>
+      </c>
+      <c r="C113" s="1">
+        <v>2</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B114" s="1">
+        <v>1</v>
+      </c>
+      <c r="C114" s="1">
+        <v>4</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B115" s="1">
+        <v>2</v>
+      </c>
+      <c r="C115" s="1">
+        <v>2</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B116" s="1">
+        <v>1</v>
+      </c>
+      <c r="C116" s="1">
+        <v>4</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B117" s="1">
+        <v>3</v>
+      </c>
+      <c r="C117" s="1">
+        <v>2</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B118" s="1">
+        <v>1</v>
+      </c>
+      <c r="C118" s="1">
+        <v>2</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B119" s="1">
+        <v>0</v>
+      </c>
+      <c r="C119" s="1">
+        <v>5</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B120" s="1">
+        <v>1</v>
+      </c>
+      <c r="C120" s="1">
+        <v>4</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B121" s="1">
+        <v>1</v>
+      </c>
+      <c r="C121" s="1">
+        <v>1</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G122" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Excel/Map/Chapter_1/Chapter_1.xlsx
+++ b/Assets/Excel/Map/Chapter_1/Chapter_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Project_Run-Game-Production\Assets\Excel\Map\Chapter_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3127631-8355-4563-BBAE-5947D536F419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CFE95E-0802-4486-836E-DC5C008AAADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16920" yWindow="690" windowWidth="11850" windowHeight="13260" firstSheet="5" activeTab="8" xr2:uid="{7789A3F8-44EE-4C38-A573-079D1C4BC80F}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3857" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3917" uniqueCount="87">
   <si>
     <t>CoinType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -377,6 +377,14 @@
   </si>
   <si>
     <t>Platform_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Double</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -20777,10 +20785,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6947ED53-20B0-45E4-B382-9F51ECE0AD2B}">
-  <dimension ref="A1:I122"/>
+  <dimension ref="A1:I142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B101" workbookViewId="0">
-      <selection activeCell="G122" sqref="G122"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="G142" sqref="G142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -20844,7 +20852,7 @@
       </c>
       <c r="H2" s="1" t="str">
         <f>SUM(C:C) &amp; " 개"</f>
-        <v>377 개</v>
+        <v>445 개</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -22717,7 +22725,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>76</v>
       </c>
@@ -22734,7 +22742,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>76</v>
       </c>
@@ -22751,7 +22759,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>76</v>
       </c>
@@ -22768,7 +22776,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>76</v>
       </c>
@@ -22785,7 +22793,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>76</v>
       </c>
@@ -22802,7 +22810,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>76</v>
       </c>
@@ -22819,7 +22827,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>76</v>
       </c>
@@ -22836,7 +22844,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>76</v>
       </c>
@@ -22853,7 +22861,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>82</v>
       </c>
@@ -22870,11 +22878,351 @@
         <v>77</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B122" s="1">
+        <v>1</v>
+      </c>
+      <c r="C122" s="1">
+        <v>4</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B123" s="1">
+        <v>3</v>
+      </c>
+      <c r="C123" s="1">
+        <v>2</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B124" s="1">
+        <v>1</v>
+      </c>
+      <c r="C124" s="1">
+        <v>4</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B125" s="1">
+        <v>2</v>
+      </c>
+      <c r="C125" s="1">
+        <v>1</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B126" s="1">
+        <v>1</v>
+      </c>
+      <c r="C126" s="1">
+        <v>4</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B127" s="1">
+        <v>3</v>
+      </c>
+      <c r="C127" s="1">
+        <v>2</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B128" s="1">
+        <v>1</v>
+      </c>
+      <c r="C128" s="1">
+        <v>3</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B129" s="1">
+        <v>3</v>
+      </c>
+      <c r="C129" s="1">
+        <v>3</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B130" s="1">
+        <v>1</v>
+      </c>
+      <c r="C130" s="1">
+        <v>4</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B131" s="1">
+        <v>2</v>
+      </c>
+      <c r="C131" s="1">
+        <v>2</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B132" s="1">
+        <v>1</v>
+      </c>
+      <c r="C132" s="1">
+        <v>3</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B133" s="1">
+        <v>2</v>
+      </c>
+      <c r="C133" s="1">
+        <v>1</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B134" s="1">
+        <v>1</v>
+      </c>
+      <c r="C134" s="1">
+        <v>4</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B135" s="1">
+        <v>3</v>
+      </c>
+      <c r="C135" s="1">
+        <v>2</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B136" s="1">
+        <v>1</v>
+      </c>
+      <c r="C136" s="1">
+        <v>4</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B137" s="1">
+        <v>0</v>
+      </c>
+      <c r="C137" s="1">
+        <v>6</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B138" s="1">
+        <v>1</v>
+      </c>
+      <c r="C138" s="1">
+        <v>4</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G122" s="1">
+      <c r="B139" s="1">
+        <v>1</v>
+      </c>
+      <c r="C139" s="1">
+        <v>1</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B140" s="1">
+        <v>1</v>
+      </c>
+      <c r="C140" s="1">
+        <v>4</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B141" s="1">
+        <v>2</v>
+      </c>
+      <c r="C141" s="1">
+        <v>10</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G142" s="1">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Excel/Map/Chapter_1/Chapter_1.xlsx
+++ b/Assets/Excel/Map/Chapter_1/Chapter_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\UnityFile\Project_Run-Game-Production\Assets\Excel\Map\Chapter_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0806C1-8F79-4B75-8808-6203AEBDDBF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB7624C-B1A8-434B-B2CB-224817AAFB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{7789A3F8-44EE-4C38-A573-079D1C4BC80F}"/>
+    <workbookView xWindow="8400" yWindow="1920" windowWidth="28800" windowHeight="11295" xr2:uid="{7789A3F8-44EE-4C38-A573-079D1C4BC80F}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage_1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3380" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3410" uniqueCount="99">
   <si>
     <t>CoinType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -366,6 +366,68 @@
   <si>
     <t>LastPoint</t>
   </si>
+  <si>
+    <t>Obstacle_3</t>
+  </si>
+  <si>
+    <t>점프 장애물</t>
+  </si>
+  <si>
+    <t>더블점프 장애물</t>
+  </si>
+  <si>
+    <t>슬라이드 장애물</t>
+  </si>
+  <si>
+    <t>마지막 지점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coin_1</t>
+  </si>
+  <si>
+    <t>coin_2</t>
+  </si>
+  <si>
+    <t>coin_3</t>
+  </si>
+  <si>
+    <t>기본 얼음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단단한 얼음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type_2</t>
+  </si>
+  <si>
+    <t>1번 기믹</t>
+  </si>
+  <si>
+    <t>2번 기믹</t>
+  </si>
+  <si>
+    <t>높이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테마 얼음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -404,12 +466,92 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -418,7 +560,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -432,6 +574,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -748,11 +917,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C9955E-D329-426C-AA74-3448E8ED168B}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -765,10 +932,12 @@
     <col min="7" max="7" width="18.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="10" max="10" width="11.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -797,7 +966,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -815,10 +984,10 @@
       </c>
       <c r="H2" s="4">
         <f>SUM(C:C)</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -835,7 +1004,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -852,7 +1021,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -868,8 +1037,10 @@
       <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+    </row>
+    <row r="6" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -885,33 +1056,50 @@
       <c r="E6" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+    </row>
+    <row r="7" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I7" s="11"/>
+      <c r="J7" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>6</v>
@@ -919,25 +1107,48 @@
       <c r="E8" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>6</v>
+      <c r="D9" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+    </row>
+    <row r="10" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -953,42 +1164,78 @@
       <c r="E10" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0</v>
+      </c>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="L12" s="8">
         <v>0</v>
       </c>
-      <c r="C12" s="1">
-        <v>6</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+    </row>
+    <row r="13" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>78</v>
       </c>
@@ -1004,16 +1251,28 @@
       <c r="E13" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="L13" s="10">
+        <v>0</v>
+      </c>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>6</v>
@@ -1021,10 +1280,21 @@
       <c r="E14" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0</v>
+      </c>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -1038,20 +1308,76 @@
       <c r="E15" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="J15" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="L15" s="8">
+        <v>0</v>
+      </c>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+    </row>
+    <row r="16" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="L16" s="10">
+        <v>0</v>
+      </c>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Excel/Map/Chapter_1/Chapter_1.xlsx
+++ b/Assets/Excel/Map/Chapter_1/Chapter_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\UnityFile\Project_Run-Game-Production\Assets\Excel\Map\Chapter_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2888BD-1C9F-4EAE-AFA9-FF966E43504B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80AA7DC-A780-4C52-AEEB-46F6CAC6D982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8400" yWindow="1920" windowWidth="28800" windowHeight="11295" xr2:uid="{7789A3F8-44EE-4C38-A573-079D1C4BC80F}"/>
+    <workbookView xWindow="6855" yWindow="3735" windowWidth="28800" windowHeight="11295" activeTab="3" xr2:uid="{7789A3F8-44EE-4C38-A573-079D1C4BC80F}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage_1" sheetId="1" r:id="rId1"/>
@@ -645,7 +645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C9955E-D329-426C-AA74-3448E8ED168B}">
   <dimension ref="A1:L201"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -2751,8 +2751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5D3D1D-CFA4-4C1D-A4DE-BD925E94E257}">
   <dimension ref="A1:L201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/Excel/Map/Chapter_1/Chapter_1.xlsx
+++ b/Assets/Excel/Map/Chapter_1/Chapter_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\UnityFile\Project_Run-Game-Production\Assets\Excel\Map\Chapter_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80AA7DC-A780-4C52-AEEB-46F6CAC6D982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAF6703-9ADA-4557-88E1-1BB6E588868D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6855" yWindow="3735" windowWidth="28800" windowHeight="11295" activeTab="3" xr2:uid="{7789A3F8-44EE-4C38-A573-079D1C4BC80F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{7789A3F8-44EE-4C38-A573-079D1C4BC80F}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage_1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="34">
   <si>
     <t>CoinType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -645,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C9955E-D329-426C-AA74-3448E8ED168B}">
   <dimension ref="A1:L201"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1060,18 +1060,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
     </row>
     <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -2751,7 +2746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5D3D1D-CFA4-4C1D-A4DE-BD925E94E257}">
   <dimension ref="A1:L201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Excel/Map/Chapter_1/Chapter_1.xlsx
+++ b/Assets/Excel/Map/Chapter_1/Chapter_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\UnityFile\Project_Run-Game-Production\Assets\Excel\Map\Chapter_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAF6703-9ADA-4557-88E1-1BB6E588868D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBBF0A8-1CD5-41B2-AE80-EC1816D2BDC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{7789A3F8-44EE-4C38-A573-079D1C4BC80F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7789A3F8-44EE-4C38-A573-079D1C4BC80F}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage_1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="34">
   <si>
     <t>CoinType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,7 +198,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -286,13 +286,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -327,6 +351,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -643,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C9955E-D329-426C-AA74-3448E8ED168B}">
-  <dimension ref="A1:L201"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -657,7 +690,7 @@
     <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.125" style="14" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.875" style="1" customWidth="1"/>
@@ -684,7 +717,7 @@
       <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="13" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -712,18 +745,18 @@
       </c>
       <c r="H2" s="3">
         <f>SUM(C:C)</f>
-        <v>62</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
@@ -737,10 +770,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -754,7 +787,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -767,14 +800,14 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
+      <c r="A6" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
@@ -784,17 +817,17 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
+      <c r="A7" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>5</v>
@@ -810,14 +843,14 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
+      <c r="A8" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>5</v>
@@ -836,17 +869,17 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
+      <c r="A9" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="B9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>5</v>
@@ -892,13 +925,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>5</v>
@@ -913,7 +946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -921,7 +954,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>5</v>
@@ -941,7 +974,7 @@
     </row>
     <row r="13" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -949,8 +982,8 @@
       <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>5</v>
+      <c r="D13" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>5</v>
@@ -965,15 +998,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>5</v>
@@ -993,7 +1026,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -1001,8 +1034,8 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>5</v>
+      <c r="D15" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>5</v>
@@ -1025,7 +1058,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>5</v>
@@ -1043,201 +1076,337 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>10</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="1">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1">
+        <v>10</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1">
+        <v>5</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="1">
+        <v>12</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="1">
+        <v>10</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1">
+        <v>5</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1">
+        <v>8</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
+        <v>8</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1">
+        <v>8</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="1">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-    </row>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="14">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1247,10 +1416,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17DF9ED8-C620-459B-99EC-19F04818E321}">
-  <dimension ref="A1:L201"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1261,7 +1430,7 @@
     <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.125" style="14" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.875" style="1" customWidth="1"/>
@@ -1288,7 +1457,7 @@
       <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="13" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1668,7 +1837,7 @@
       <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="14">
         <v>1</v>
       </c>
     </row>
@@ -1678,175 +1847,6 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
     </row>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1858,7 +1858,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1869,7 +1869,7 @@
     <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.125" style="14" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.875" style="1" customWidth="1"/>
@@ -1896,7 +1896,7 @@
       <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="13" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -2276,7 +2276,7 @@
       <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="14">
         <v>1</v>
       </c>
     </row>
@@ -2295,10 +2295,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F20716C-A8AD-4DAE-A7E4-7DDCB053F8D7}">
-  <dimension ref="A1:L201"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2309,7 +2309,7 @@
     <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.125" style="14" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.875" style="1" customWidth="1"/>
@@ -2336,7 +2336,7 @@
       <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="13" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -2716,7 +2716,7 @@
       <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="14">
         <v>1</v>
       </c>
     </row>
@@ -2726,15 +2726,6 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
     </row>
-    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2744,10 +2735,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5D3D1D-CFA4-4C1D-A4DE-BD925E94E257}">
-  <dimension ref="A1:L201"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2758,7 +2749,7 @@
     <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.125" style="14" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.875" style="1" customWidth="1"/>
@@ -2785,7 +2776,7 @@
       <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="13" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -3165,7 +3156,7 @@
       <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="14">
         <v>1</v>
       </c>
     </row>
@@ -3175,31 +3166,6 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
     </row>
-    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3209,10 +3175,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC34187-A8AF-4586-8EE1-6E5E1B344A6A}">
-  <dimension ref="A1:L201"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3223,7 +3189,7 @@
     <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.125" style="14" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.875" style="1" customWidth="1"/>
@@ -3250,7 +3216,7 @@
       <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="13" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -3630,7 +3596,7 @@
       <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="14">
         <v>1</v>
       </c>
     </row>
@@ -3640,127 +3606,6 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
     </row>
-    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3770,10 +3615,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F562BDF9-DC5B-4ACC-99BF-7EDFEC2239A7}">
-  <dimension ref="A1:L201"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3784,7 +3629,7 @@
     <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.125" style="14" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.875" style="1" customWidth="1"/>
@@ -3811,7 +3656,7 @@
       <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="13" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -4191,7 +4036,7 @@
       <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="14">
         <v>1</v>
       </c>
     </row>
@@ -4201,31 +4046,6 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
     </row>
-    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4235,10 +4055,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B2A810-27AF-485E-8346-9E6DD3C4FEDD}">
-  <dimension ref="A1:L201"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4249,7 +4069,7 @@
     <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.125" style="14" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.875" style="1" customWidth="1"/>
@@ -4276,7 +4096,7 @@
       <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="13" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -4656,7 +4476,7 @@
       <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="14">
         <v>1</v>
       </c>
     </row>
@@ -4666,175 +4486,6 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
     </row>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4843,10 +4494,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93557007-48CC-4915-B676-2018C849F25D}">
-  <dimension ref="A1:L201"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4857,7 +4508,7 @@
     <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.125" style="14" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.875" style="1" customWidth="1"/>
@@ -4884,7 +4535,7 @@
       <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="13" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -5264,7 +4915,7 @@
       <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="14">
         <v>1</v>
       </c>
     </row>
@@ -5274,63 +4925,6 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
     </row>
-    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5340,10 +4934,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6947ED53-20B0-45E4-B382-9F51ECE0AD2B}">
-  <dimension ref="A1:L201"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5354,7 +4948,7 @@
     <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.125" style="14" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.875" style="1" customWidth="1"/>
@@ -5381,7 +4975,7 @@
       <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="13" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -5761,7 +5355,7 @@
       <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="14">
         <v>1</v>
       </c>
     </row>
@@ -5771,63 +5365,6 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
     </row>
-    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Excel/Map/Chapter_1/Chapter_1.xlsx
+++ b/Assets/Excel/Map/Chapter_1/Chapter_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\UnityFile\Project_Run-Game-Production\Assets\Excel\Map\Chapter_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBBF0A8-1CD5-41B2-AE80-EC1816D2BDC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1040F9A-A1B1-421D-AA63-77B011C32F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7789A3F8-44EE-4C38-A573-079D1C4BC80F}"/>
+    <workbookView xWindow="6360" yWindow="1050" windowWidth="28800" windowHeight="11295" activeTab="1" xr2:uid="{7789A3F8-44EE-4C38-A573-079D1C4BC80F}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage_1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="35">
   <si>
     <t>CoinType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,12 +168,16 @@
     <t>테마 얼음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,16 +193,95 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -310,13 +393,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -335,13 +491,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -353,17 +503,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="8">
+    <cellStyle name="20% - 강조색2" xfId="5" builtinId="34"/>
+    <cellStyle name="20% - 강조색3" xfId="7" builtinId="38"/>
+    <cellStyle name="60% - 강조색2" xfId="6" builtinId="36"/>
+    <cellStyle name="나쁨" xfId="2" builtinId="27"/>
+    <cellStyle name="보통" xfId="3" builtinId="28"/>
+    <cellStyle name="셀 확인" xfId="4" builtinId="23"/>
+    <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -676,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C9955E-D329-426C-AA74-3448E8ED168B}">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E4"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7:L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -690,7 +880,7 @@
     <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.125" style="14" customWidth="1"/>
+    <col min="7" max="7" width="18.125" style="11" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.875" style="1" customWidth="1"/>
@@ -698,7 +888,7 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,7 +907,7 @@
       <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -728,8 +918,8 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
+      <c r="A2" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -737,19 +927,19 @@
       <c r="C2" s="1">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(C:C)</f>
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1">
@@ -758,16 +948,16 @@
       <c r="C3" s="1">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
+      <c r="D3" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -775,16 +965,16 @@
       <c r="C4" s="1">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
+      <c r="A5" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="B5" s="1">
         <v>5</v>
@@ -792,15 +982,15 @@
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="1">
@@ -809,15 +999,15 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="1">
@@ -826,24 +1016,24 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="17" t="s">
         <v>5</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="1">
@@ -852,25 +1042,25 @@
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" s="4" t="s">
+      <c r="D8" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="8" t="s">
         <v>24</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1">
         <v>5</v>
@@ -878,25 +1068,25 @@
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="6" t="s">
+      <c r="D9" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="13" t="s">
         <v>22</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>4</v>
+      <c r="A10" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -904,24 +1094,24 @@
       <c r="C10" s="1">
         <v>5</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="8" t="s">
+      <c r="D10" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="L10" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="1">
@@ -930,16 +1120,16 @@
       <c r="C11" s="1">
         <v>5</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J11" s="4" t="s">
+      <c r="D11" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="8" t="s">
         <v>17</v>
       </c>
       <c r="L11" s="5">
@@ -947,8 +1137,8 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>4</v>
+      <c r="A12" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -956,24 +1146,24 @@
       <c r="C12" s="1">
         <v>2</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J12" s="6" t="s">
+      <c r="D12" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="13" t="s">
         <v>12</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="1">
@@ -982,25 +1172,25 @@
       <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J13" s="8" t="s">
+      <c r="E13" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>4</v>
+      <c r="A14" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -1008,24 +1198,24 @@
       <c r="C14" s="1">
         <v>5</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="4" t="s">
+      <c r="D14" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="K14" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="L14" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="1">
@@ -1034,25 +1224,25 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" s="6" t="s">
+      <c r="E15" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>4</v>
+      <c r="A16" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
@@ -1060,24 +1250,24 @@
       <c r="C16" s="1">
         <v>10</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J16" s="8" t="s">
+      <c r="D16" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="L16" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
+      <c r="L16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="1">
@@ -1086,16 +1276,25 @@
       <c r="C17" s="1">
         <v>10</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>4</v>
+      <c r="E17" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
@@ -1103,16 +1302,16 @@
       <c r="C18" s="1">
         <v>5</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>4</v>
+      <c r="D18" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="B19" s="1">
         <v>5</v>
@@ -1120,15 +1319,15 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="D19" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="1">
@@ -1137,15 +1336,15 @@
       <c r="C20" s="1">
         <v>1</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="D20" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="1">
@@ -1154,15 +1353,15 @@
       <c r="C21" s="1">
         <v>1</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="E21" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="1">
@@ -1171,16 +1370,16 @@
       <c r="C22" s="1">
         <v>1</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>4</v>
+      <c r="D22" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>5</v>
@@ -1188,16 +1387,16 @@
       <c r="C23" s="1">
         <v>1</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>4</v>
+      <c r="D23" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="B24" s="1">
         <v>1</v>
@@ -1205,16 +1404,16 @@
       <c r="C24" s="1">
         <v>8</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>4</v>
+      <c r="D24" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="B25" s="1">
         <v>5</v>
@@ -1222,15 +1421,15 @@
       <c r="C25" s="1">
         <v>1</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="D25" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B26" s="1">
@@ -1239,15 +1438,15 @@
       <c r="C26" s="1">
         <v>1</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="D26" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="1">
@@ -1256,15 +1455,15 @@
       <c r="C27" s="1">
         <v>1</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+      <c r="E27" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B28" s="1">
@@ -1273,16 +1472,16 @@
       <c r="C28" s="1">
         <v>1</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>4</v>
+      <c r="D28" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="B29" s="1">
         <v>5</v>
@@ -1290,16 +1489,16 @@
       <c r="C29" s="1">
         <v>1</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>4</v>
+      <c r="D29" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="B30" s="1">
         <v>1</v>
@@ -1307,15 +1506,15 @@
       <c r="C30" s="1">
         <v>8</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
+      <c r="D30" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B31" s="1">
@@ -1324,16 +1523,16 @@
       <c r="C31" s="1">
         <v>1</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>4</v>
+      <c r="D31" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="B32" s="1">
         <v>1</v>
@@ -1341,15 +1540,15 @@
       <c r="C32" s="1">
         <v>8</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
+      <c r="D32" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B33" s="1">
@@ -1358,16 +1557,16 @@
       <c r="C33" s="1">
         <v>1</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
-        <v>4</v>
+      <c r="D33" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="B34" s="1">
         <v>1</v>
@@ -1375,35 +1574,69 @@
       <c r="C34" s="1">
         <v>8</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+      <c r="D34" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1">
+        <v>40</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="1">
-        <v>0</v>
-      </c>
-      <c r="C35" s="1">
-        <v>1</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G36" s="14">
+      <c r="G38" s="11">
         <v>1</v>
       </c>
     </row>
@@ -1418,8 +1651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17DF9ED8-C620-459B-99EC-19F04818E321}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1430,7 +1663,7 @@
     <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.125" style="14" customWidth="1"/>
+    <col min="7" max="7" width="18.125" style="11" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.875" style="1" customWidth="1"/>
@@ -1457,7 +1690,7 @@
       <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1575,7 +1808,7 @@
       <c r="J7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L7" s="5" t="s">
@@ -1598,10 +1831,10 @@
       <c r="E8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="8" t="s">
         <v>24</v>
       </c>
       <c r="L8" s="5" t="s">
@@ -1624,13 +1857,13 @@
       <c r="E9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="13" t="s">
         <v>22</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1650,13 +1883,13 @@
       <c r="E10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="L10" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1676,10 +1909,10 @@
       <c r="E11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="8" t="s">
         <v>17</v>
       </c>
       <c r="L11" s="5">
@@ -1702,13 +1935,13 @@
       <c r="E12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="13" t="s">
         <v>12</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1728,17 +1961,17 @@
       <c r="E13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -1754,13 +1987,13 @@
       <c r="E14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="K14" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="19">
         <v>0</v>
       </c>
     </row>
@@ -1780,13 +2013,13 @@
       <c r="E15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1806,17 +2039,17 @@
       <c r="E16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="L16" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1832,19 +2065,28 @@
       <c r="E17" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J17" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G18" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
     </row>
   </sheetData>
@@ -1857,8 +2099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D40F19-04CB-4AA4-9741-41F6888F37B1}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1869,7 +2111,7 @@
     <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.125" style="14" customWidth="1"/>
+    <col min="7" max="7" width="18.125" style="11" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.875" style="1" customWidth="1"/>
@@ -1896,7 +2138,7 @@
       <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -2014,7 +2256,7 @@
       <c r="J7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L7" s="5" t="s">
@@ -2037,10 +2279,10 @@
       <c r="E8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="8" t="s">
         <v>24</v>
       </c>
       <c r="L8" s="5" t="s">
@@ -2063,13 +2305,13 @@
       <c r="E9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="13" t="s">
         <v>22</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2089,13 +2331,13 @@
       <c r="E10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="L10" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2115,10 +2357,10 @@
       <c r="E11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="8" t="s">
         <v>17</v>
       </c>
       <c r="L11" s="5">
@@ -2141,13 +2383,13 @@
       <c r="E12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="13" t="s">
         <v>12</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2167,17 +2409,17 @@
       <c r="E13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -2193,13 +2435,13 @@
       <c r="E14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="K14" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="19">
         <v>0</v>
       </c>
     </row>
@@ -2219,13 +2461,13 @@
       <c r="E15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2245,17 +2487,17 @@
       <c r="E16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="L16" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -2271,19 +2513,28 @@
       <c r="E17" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J17" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G18" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
     </row>
   </sheetData>
@@ -2297,8 +2548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F20716C-A8AD-4DAE-A7E4-7DDCB053F8D7}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2309,7 +2560,7 @@
     <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.125" style="14" customWidth="1"/>
+    <col min="7" max="7" width="18.125" style="11" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.875" style="1" customWidth="1"/>
@@ -2336,7 +2587,7 @@
       <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -2454,7 +2705,7 @@
       <c r="J7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L7" s="5" t="s">
@@ -2477,10 +2728,10 @@
       <c r="E8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="8" t="s">
         <v>24</v>
       </c>
       <c r="L8" s="5" t="s">
@@ -2503,13 +2754,13 @@
       <c r="E9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="13" t="s">
         <v>22</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2529,13 +2780,13 @@
       <c r="E10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="L10" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2555,10 +2806,10 @@
       <c r="E11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="8" t="s">
         <v>17</v>
       </c>
       <c r="L11" s="5">
@@ -2581,13 +2832,13 @@
       <c r="E12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="13" t="s">
         <v>12</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2607,17 +2858,17 @@
       <c r="E13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -2633,13 +2884,13 @@
       <c r="E14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="K14" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="19">
         <v>0</v>
       </c>
     </row>
@@ -2659,13 +2910,13 @@
       <c r="E15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2685,17 +2936,17 @@
       <c r="E16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="L16" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -2711,19 +2962,28 @@
       <c r="E17" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J17" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G18" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
     </row>
   </sheetData>
@@ -2737,8 +2997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5D3D1D-CFA4-4C1D-A4DE-BD925E94E257}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2749,7 +3009,7 @@
     <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.125" style="14" customWidth="1"/>
+    <col min="7" max="7" width="18.125" style="11" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.875" style="1" customWidth="1"/>
@@ -2776,7 +3036,7 @@
       <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -2894,7 +3154,7 @@
       <c r="J7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L7" s="5" t="s">
@@ -2917,10 +3177,10 @@
       <c r="E8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="8" t="s">
         <v>24</v>
       </c>
       <c r="L8" s="5" t="s">
@@ -2943,13 +3203,13 @@
       <c r="E9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="13" t="s">
         <v>22</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2969,13 +3229,13 @@
       <c r="E10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="L10" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2995,10 +3255,10 @@
       <c r="E11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="8" t="s">
         <v>17</v>
       </c>
       <c r="L11" s="5">
@@ -3021,13 +3281,13 @@
       <c r="E12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="13" t="s">
         <v>12</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="6">
         <v>0</v>
       </c>
     </row>
@@ -3047,17 +3307,17 @@
       <c r="E13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -3073,13 +3333,13 @@
       <c r="E14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="K14" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="19">
         <v>0</v>
       </c>
     </row>
@@ -3099,13 +3359,13 @@
       <c r="E15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="6">
         <v>0</v>
       </c>
     </row>
@@ -3125,17 +3385,17 @@
       <c r="E16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="L16" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -3151,19 +3411,28 @@
       <c r="E17" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J17" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G18" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
     </row>
   </sheetData>
@@ -3177,8 +3446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC34187-A8AF-4586-8EE1-6E5E1B344A6A}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3189,7 +3458,7 @@
     <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.125" style="14" customWidth="1"/>
+    <col min="7" max="7" width="18.125" style="11" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.875" style="1" customWidth="1"/>
@@ -3216,7 +3485,7 @@
       <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -3334,7 +3603,7 @@
       <c r="J7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L7" s="5" t="s">
@@ -3357,10 +3626,10 @@
       <c r="E8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="8" t="s">
         <v>24</v>
       </c>
       <c r="L8" s="5" t="s">
@@ -3383,13 +3652,13 @@
       <c r="E9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="13" t="s">
         <v>22</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3409,13 +3678,13 @@
       <c r="E10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="L10" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3435,10 +3704,10 @@
       <c r="E11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="8" t="s">
         <v>17</v>
       </c>
       <c r="L11" s="5">
@@ -3461,13 +3730,13 @@
       <c r="E12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="13" t="s">
         <v>12</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="6">
         <v>0</v>
       </c>
     </row>
@@ -3487,17 +3756,17 @@
       <c r="E13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -3513,13 +3782,13 @@
       <c r="E14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="K14" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="19">
         <v>0</v>
       </c>
     </row>
@@ -3539,13 +3808,13 @@
       <c r="E15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="6">
         <v>0</v>
       </c>
     </row>
@@ -3565,17 +3834,17 @@
       <c r="E16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="L16" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -3591,19 +3860,28 @@
       <c r="E17" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J17" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G18" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
     </row>
   </sheetData>
@@ -3617,8 +3895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F562BDF9-DC5B-4ACC-99BF-7EDFEC2239A7}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3629,7 +3907,7 @@
     <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.125" style="14" customWidth="1"/>
+    <col min="7" max="7" width="18.125" style="11" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.875" style="1" customWidth="1"/>
@@ -3656,7 +3934,7 @@
       <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -3774,7 +4052,7 @@
       <c r="J7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L7" s="5" t="s">
@@ -3797,10 +4075,10 @@
       <c r="E8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="8" t="s">
         <v>24</v>
       </c>
       <c r="L8" s="5" t="s">
@@ -3823,13 +4101,13 @@
       <c r="E9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="13" t="s">
         <v>22</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3849,13 +4127,13 @@
       <c r="E10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="L10" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3875,10 +4153,10 @@
       <c r="E11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="8" t="s">
         <v>17</v>
       </c>
       <c r="L11" s="5">
@@ -3901,13 +4179,13 @@
       <c r="E12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="13" t="s">
         <v>12</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="6">
         <v>0</v>
       </c>
     </row>
@@ -3927,17 +4205,17 @@
       <c r="E13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -3953,13 +4231,13 @@
       <c r="E14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="K14" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="19">
         <v>0</v>
       </c>
     </row>
@@ -3979,13 +4257,13 @@
       <c r="E15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4005,17 +4283,17 @@
       <c r="E16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="L16" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -4031,19 +4309,28 @@
       <c r="E17" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J17" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G18" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
     </row>
   </sheetData>
@@ -4057,8 +4344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B2A810-27AF-485E-8346-9E6DD3C4FEDD}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4069,7 +4356,7 @@
     <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.125" style="14" customWidth="1"/>
+    <col min="7" max="7" width="18.125" style="11" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.875" style="1" customWidth="1"/>
@@ -4096,7 +4383,7 @@
       <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -4214,7 +4501,7 @@
       <c r="J7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L7" s="5" t="s">
@@ -4237,10 +4524,10 @@
       <c r="E8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="8" t="s">
         <v>24</v>
       </c>
       <c r="L8" s="5" t="s">
@@ -4263,13 +4550,13 @@
       <c r="E9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="13" t="s">
         <v>22</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4289,13 +4576,13 @@
       <c r="E10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="L10" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4315,10 +4602,10 @@
       <c r="E11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="8" t="s">
         <v>17</v>
       </c>
       <c r="L11" s="5">
@@ -4341,13 +4628,13 @@
       <c r="E12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="13" t="s">
         <v>12</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4367,17 +4654,17 @@
       <c r="E13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -4393,13 +4680,13 @@
       <c r="E14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="K14" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="19">
         <v>0</v>
       </c>
     </row>
@@ -4419,13 +4706,13 @@
       <c r="E15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4445,17 +4732,17 @@
       <c r="E16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="L16" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -4471,19 +4758,28 @@
       <c r="E17" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J17" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G18" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
     </row>
   </sheetData>
@@ -4496,8 +4792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93557007-48CC-4915-B676-2018C849F25D}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4508,7 +4804,7 @@
     <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.125" style="14" customWidth="1"/>
+    <col min="7" max="7" width="18.125" style="11" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.875" style="1" customWidth="1"/>
@@ -4535,7 +4831,7 @@
       <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -4653,7 +4949,7 @@
       <c r="J7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L7" s="5" t="s">
@@ -4676,10 +4972,10 @@
       <c r="E8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="8" t="s">
         <v>24</v>
       </c>
       <c r="L8" s="5" t="s">
@@ -4702,13 +4998,13 @@
       <c r="E9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="13" t="s">
         <v>22</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4728,13 +5024,13 @@
       <c r="E10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="L10" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4754,10 +5050,10 @@
       <c r="E11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="8" t="s">
         <v>17</v>
       </c>
       <c r="L11" s="5">
@@ -4780,13 +5076,13 @@
       <c r="E12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="13" t="s">
         <v>12</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4806,17 +5102,17 @@
       <c r="E13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -4832,13 +5128,13 @@
       <c r="E14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="K14" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="19">
         <v>0</v>
       </c>
     </row>
@@ -4858,13 +5154,13 @@
       <c r="E15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4884,17 +5180,17 @@
       <c r="E16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="L16" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -4910,19 +5206,28 @@
       <c r="E17" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J17" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G18" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
     </row>
   </sheetData>
@@ -4936,8 +5241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6947ED53-20B0-45E4-B382-9F51ECE0AD2B}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4948,7 +5253,7 @@
     <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.125" style="14" customWidth="1"/>
+    <col min="7" max="7" width="18.125" style="11" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.875" style="1" customWidth="1"/>
@@ -4975,7 +5280,7 @@
       <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -5093,7 +5398,7 @@
       <c r="J7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L7" s="5" t="s">
@@ -5116,10 +5421,10 @@
       <c r="E8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="8" t="s">
         <v>24</v>
       </c>
       <c r="L8" s="5" t="s">
@@ -5142,13 +5447,13 @@
       <c r="E9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="13" t="s">
         <v>22</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5168,13 +5473,13 @@
       <c r="E10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="L10" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5194,10 +5499,10 @@
       <c r="E11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="8" t="s">
         <v>17</v>
       </c>
       <c r="L11" s="5">
@@ -5220,13 +5525,13 @@
       <c r="E12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="13" t="s">
         <v>12</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="6">
         <v>0</v>
       </c>
     </row>
@@ -5246,17 +5551,17 @@
       <c r="E13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -5272,13 +5577,13 @@
       <c r="E14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="K14" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="19">
         <v>0</v>
       </c>
     </row>
@@ -5298,13 +5603,13 @@
       <c r="E15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="6">
         <v>0</v>
       </c>
     </row>
@@ -5324,17 +5629,17 @@
       <c r="E16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="L16" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -5350,19 +5655,28 @@
       <c r="E17" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J17" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G18" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
     </row>
   </sheetData>

--- a/Assets/Excel/Map/Chapter_1/Chapter_1.xlsx
+++ b/Assets/Excel/Map/Chapter_1/Chapter_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\UnityFile\Project_Run-Game-Production\Assets\Excel\Map\Chapter_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1040F9A-A1B1-421D-AA63-77B011C32F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953DD42F-3B90-4B94-8337-CC75E3795B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="1050" windowWidth="28800" windowHeight="11295" activeTab="1" xr2:uid="{7789A3F8-44EE-4C38-A573-079D1C4BC80F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{7789A3F8-44EE-4C38-A573-079D1C4BC80F}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage_1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="40">
   <si>
     <t>CoinType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,11 +172,34 @@
     <t>없음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최고점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 계수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -446,7 +469,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -471,8 +494,11 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -539,20 +565,60 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="4" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="6" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="20% - 강조색2" xfId="5" builtinId="34"/>
     <cellStyle name="20% - 강조색3" xfId="7" builtinId="38"/>
     <cellStyle name="60% - 강조색2" xfId="6" builtinId="36"/>
     <cellStyle name="나쁨" xfId="2" builtinId="27"/>
     <cellStyle name="보통" xfId="3" builtinId="28"/>
     <cellStyle name="셀 확인" xfId="4" builtinId="23"/>
+    <cellStyle name="쉼표 [0]" xfId="8" builtinId="6"/>
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -866,10 +932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C9955E-D329-426C-AA74-3448E8ED168B}">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7:L17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -885,10 +951,14 @@
     <col min="9" max="9" width="14.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.875" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="12" max="13" width="9" style="1"/>
+    <col min="14" max="14" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9" style="1"/>
+    <col min="17" max="17" width="16.125" style="33" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -917,7 +987,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>21</v>
       </c>
@@ -935,10 +1005,10 @@
       </c>
       <c r="H2" s="3">
         <f>SUM(C:C)</f>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>5</v>
       </c>
@@ -955,7 +1025,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>21</v>
       </c>
@@ -972,7 +1042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>21</v>
       </c>
@@ -989,7 +1059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>23</v>
       </c>
@@ -1006,7 +1076,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>23</v>
       </c>
@@ -1031,8 +1101,20 @@
       <c r="L7" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N7" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>23</v>
       </c>
@@ -1057,8 +1139,22 @@
       <c r="L8" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N8" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="23">
+        <v>1</v>
+      </c>
+      <c r="P8" s="23">
+        <f>SUMIF(A:A,"coin_1",C:C)</f>
+        <v>85</v>
+      </c>
+      <c r="Q8" s="27">
+        <f>(O13*O8)*P8</f>
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>21</v>
       </c>
@@ -1083,8 +1179,22 @@
       <c r="L9" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9" s="23">
+        <v>5</v>
+      </c>
+      <c r="P9" s="23">
+        <f>SUMIF(A:A,"coin_2",C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="27">
+        <f>(O13*O9)*P9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>21</v>
       </c>
@@ -1109,8 +1219,22 @@
       <c r="L10" s="7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="23">
+        <v>50</v>
+      </c>
+      <c r="P10" s="23">
+        <f>SUMIF(A:A,"coin_3",C:C)</f>
+        <v>19</v>
+      </c>
+      <c r="Q10" s="27">
+        <f>(O13*O10)*P10</f>
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="17" t="s">
         <v>5</v>
       </c>
@@ -1135,8 +1259,22 @@
       <c r="L11" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N11" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="O11" s="23">
+        <v>403</v>
+      </c>
+      <c r="P11" s="23">
+        <f>SUMIF(A:A,"type_1",C:C)</f>
+        <v>2</v>
+      </c>
+      <c r="Q11" s="27">
+        <f>(O13*O11)*P11</f>
+        <v>80600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>21</v>
       </c>
@@ -1161,8 +1299,22 @@
       <c r="L12" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N12" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="O12" s="23">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="23">
+        <f>SUMIF(A:A,"type_2",C:C)</f>
+        <v>1</v>
+      </c>
+      <c r="Q12" s="27">
+        <f>(O13*O12)*P12</f>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="17" t="s">
         <v>5</v>
       </c>
@@ -1181,14 +1333,27 @@
       <c r="J13" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="22" t="s">
+      <c r="K13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L13" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N13" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="O13" s="29">
+        <v>100</v>
+      </c>
+      <c r="P13" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q13" s="35">
+        <f>Q8+Q9+Q10+Q11+Q12</f>
+        <v>1184100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>21</v>
       </c>
@@ -1204,7 +1369,7 @@
       <c r="E14" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="23" t="s">
+      <c r="J14" s="22" t="s">
         <v>15</v>
       </c>
       <c r="K14" s="18" t="s">
@@ -1213,8 +1378,12 @@
       <c r="L14" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N14" s="30"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="36"/>
+    </row>
+    <row r="15" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
         <v>5</v>
       </c>
@@ -1233,14 +1402,21 @@
       <c r="J15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="22" t="s">
+      <c r="K15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="L15" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P15" s="32">
+        <v>0.85</v>
+      </c>
+      <c r="Q15" s="33">
+        <f>Q13*P15</f>
+        <v>1006485</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
         <v>21</v>
       </c>
@@ -1264,6 +1440,13 @@
       </c>
       <c r="L16" s="7">
         <v>0</v>
+      </c>
+      <c r="P16" s="32">
+        <v>0.85</v>
+      </c>
+      <c r="Q16" s="33">
+        <f>Q13*P16</f>
+        <v>1006485</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1606,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>5</v>
@@ -1616,7 +1799,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="22" t="s">
         <v>15</v>
       </c>
       <c r="B37" s="1">
@@ -1640,7 +1823,29 @@
         <v>1</v>
       </c>
     </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="P13:P14"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -1651,8 +1856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17DF9ED8-C620-459B-99EC-19F04818E321}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1964,7 +2169,7 @@
       <c r="J13" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="22" t="s">
+      <c r="K13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L13" s="6">
@@ -1987,7 +2192,7 @@
       <c r="E14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="23" t="s">
+      <c r="J14" s="22" t="s">
         <v>15</v>
       </c>
       <c r="K14" s="18" t="s">
@@ -2016,7 +2221,7 @@
       <c r="J15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="22" t="s">
+      <c r="K15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="L15" s="6">
@@ -2099,8 +2304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D40F19-04CB-4AA4-9741-41F6888F37B1}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2412,7 +2617,7 @@
       <c r="J13" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="22" t="s">
+      <c r="K13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L13" s="6">
@@ -2435,7 +2640,7 @@
       <c r="E14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="23" t="s">
+      <c r="J14" s="22" t="s">
         <v>15</v>
       </c>
       <c r="K14" s="18" t="s">
@@ -2464,7 +2669,7 @@
       <c r="J15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="22" t="s">
+      <c r="K15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="L15" s="6">
@@ -2548,8 +2753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F20716C-A8AD-4DAE-A7E4-7DDCB053F8D7}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2861,7 +3066,7 @@
       <c r="J13" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="22" t="s">
+      <c r="K13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L13" s="6">
@@ -2884,7 +3089,7 @@
       <c r="E14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="23" t="s">
+      <c r="J14" s="22" t="s">
         <v>15</v>
       </c>
       <c r="K14" s="18" t="s">
@@ -2913,7 +3118,7 @@
       <c r="J15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="22" t="s">
+      <c r="K15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="L15" s="6">
@@ -2997,8 +3202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5D3D1D-CFA4-4C1D-A4DE-BD925E94E257}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3310,7 +3515,7 @@
       <c r="J13" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="22" t="s">
+      <c r="K13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L13" s="6">
@@ -3333,7 +3538,7 @@
       <c r="E14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="23" t="s">
+      <c r="J14" s="22" t="s">
         <v>15</v>
       </c>
       <c r="K14" s="18" t="s">
@@ -3362,7 +3567,7 @@
       <c r="J15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="22" t="s">
+      <c r="K15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="L15" s="6">
@@ -3446,8 +3651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC34187-A8AF-4586-8EE1-6E5E1B344A6A}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3759,7 +3964,7 @@
       <c r="J13" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="22" t="s">
+      <c r="K13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L13" s="6">
@@ -3782,7 +3987,7 @@
       <c r="E14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="23" t="s">
+      <c r="J14" s="22" t="s">
         <v>15</v>
       </c>
       <c r="K14" s="18" t="s">
@@ -3811,7 +4016,7 @@
       <c r="J15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="22" t="s">
+      <c r="K15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="L15" s="6">
@@ -3895,8 +4100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F562BDF9-DC5B-4ACC-99BF-7EDFEC2239A7}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4208,7 +4413,7 @@
       <c r="J13" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="22" t="s">
+      <c r="K13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L13" s="6">
@@ -4231,7 +4436,7 @@
       <c r="E14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="23" t="s">
+      <c r="J14" s="22" t="s">
         <v>15</v>
       </c>
       <c r="K14" s="18" t="s">
@@ -4260,7 +4465,7 @@
       <c r="J15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="22" t="s">
+      <c r="K15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="L15" s="6">
@@ -4344,8 +4549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B2A810-27AF-485E-8346-9E6DD3C4FEDD}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4657,7 +4862,7 @@
       <c r="J13" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="22" t="s">
+      <c r="K13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L13" s="6">
@@ -4680,7 +4885,7 @@
       <c r="E14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="23" t="s">
+      <c r="J14" s="22" t="s">
         <v>15</v>
       </c>
       <c r="K14" s="18" t="s">
@@ -4709,7 +4914,7 @@
       <c r="J15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="22" t="s">
+      <c r="K15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="L15" s="6">
@@ -4792,8 +4997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93557007-48CC-4915-B676-2018C849F25D}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5105,7 +5310,7 @@
       <c r="J13" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="22" t="s">
+      <c r="K13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L13" s="6">
@@ -5128,7 +5333,7 @@
       <c r="E14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="23" t="s">
+      <c r="J14" s="22" t="s">
         <v>15</v>
       </c>
       <c r="K14" s="18" t="s">
@@ -5157,7 +5362,7 @@
       <c r="J15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="22" t="s">
+      <c r="K15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="L15" s="6">
@@ -5241,8 +5446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6947ED53-20B0-45E4-B382-9F51ECE0AD2B}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5554,7 +5759,7 @@
       <c r="J13" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="22" t="s">
+      <c r="K13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L13" s="6">
@@ -5577,7 +5782,7 @@
       <c r="E14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="23" t="s">
+      <c r="J14" s="22" t="s">
         <v>15</v>
       </c>
       <c r="K14" s="18" t="s">
@@ -5606,7 +5811,7 @@
       <c r="J15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="22" t="s">
+      <c r="K15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="L15" s="6">

--- a/Assets/Excel/Map/Chapter_1/Chapter_1.xlsx
+++ b/Assets/Excel/Map/Chapter_1/Chapter_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\UnityFile\Project_Run-Game-Production\Assets\Excel\Map\Chapter_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953DD42F-3B90-4B94-8337-CC75E3795B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC7CD2B-867D-411D-AC7D-E67B10FC8CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{7789A3F8-44EE-4C38-A573-079D1C4BC80F}"/>
+    <workbookView xWindow="12135" yWindow="1140" windowWidth="22665" windowHeight="13440" xr2:uid="{7789A3F8-44EE-4C38-A573-079D1C4BC80F}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage_1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="40">
   <si>
     <t>CoinType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -498,7 +498,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -568,9 +568,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -583,18 +580,6 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="4" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -602,6 +587,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -954,7 +951,7 @@
     <col min="12" max="13" width="9" style="1"/>
     <col min="14" max="14" width="9.625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="9" style="1"/>
-    <col min="17" max="17" width="16.125" style="33" customWidth="1"/>
+    <col min="17" max="17" width="16.125" style="28" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -983,9 +980,6 @@
       <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
@@ -1005,7 +999,7 @@
       </c>
       <c r="H2" s="3">
         <f>SUM(C:C)</f>
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1023,6 +1017,13 @@
       </c>
       <c r="E3" s="17" t="s">
         <v>5</v>
+      </c>
+      <c r="H3" s="28">
+        <f>Q13*P15</f>
+        <v>947280</v>
+      </c>
+      <c r="I3" s="27">
+        <v>0.8</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1041,6 +1042,13 @@
       <c r="E4" s="17" t="s">
         <v>5</v>
       </c>
+      <c r="H4" s="28">
+        <f>Q13*P16</f>
+        <v>828870</v>
+      </c>
+      <c r="I4" s="27">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
@@ -1058,6 +1066,13 @@
       <c r="E5" s="17" t="s">
         <v>5</v>
       </c>
+      <c r="H5" s="28">
+        <f>Q13*P17</f>
+        <v>710460</v>
+      </c>
+      <c r="I5" s="27">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
@@ -1101,7 +1116,7 @@
       <c r="L7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N7" s="25" t="s">
+      <c r="N7" s="24" t="s">
         <v>30</v>
       </c>
       <c r="O7" s="18" t="s">
@@ -1110,7 +1125,7 @@
       <c r="P7" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="34" t="s">
+      <c r="Q7" s="29" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1139,17 +1154,17 @@
       <c r="L8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="N8" s="24" t="s">
+      <c r="N8" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="O8" s="23">
-        <v>1</v>
-      </c>
-      <c r="P8" s="23">
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+      <c r="P8" s="1">
         <f>SUMIF(A:A,"coin_1",C:C)</f>
         <v>85</v>
       </c>
-      <c r="Q8" s="27">
+      <c r="Q8" s="26">
         <f>(O13*O8)*P8</f>
         <v>8500</v>
       </c>
@@ -1182,14 +1197,14 @@
       <c r="N9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="23">
-        <v>5</v>
-      </c>
-      <c r="P9" s="23">
+      <c r="O9" s="1">
+        <v>5</v>
+      </c>
+      <c r="P9" s="1">
         <f>SUMIF(A:A,"coin_2",C:C)</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="27">
+      <c r="Q9" s="26">
         <f>(O13*O9)*P9</f>
         <v>0</v>
       </c>
@@ -1222,14 +1237,14 @@
       <c r="N10" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="O10" s="23">
+      <c r="O10" s="1">
         <v>50</v>
       </c>
-      <c r="P10" s="23">
+      <c r="P10" s="1">
         <f>SUMIF(A:A,"coin_3",C:C)</f>
         <v>19</v>
       </c>
-      <c r="Q10" s="27">
+      <c r="Q10" s="26">
         <f>(O13*O10)*P10</f>
         <v>95000</v>
       </c>
@@ -1262,14 +1277,14 @@
       <c r="N11" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="O11" s="23">
+      <c r="O11" s="1">
         <v>403</v>
       </c>
-      <c r="P11" s="23">
+      <c r="P11" s="1">
         <f>SUMIF(A:A,"type_1",C:C)</f>
         <v>2</v>
       </c>
-      <c r="Q11" s="27">
+      <c r="Q11" s="26">
         <f>(O13*O11)*P11</f>
         <v>80600</v>
       </c>
@@ -1299,17 +1314,17 @@
       <c r="L12" s="6">
         <v>0</v>
       </c>
-      <c r="N12" s="26" t="s">
+      <c r="N12" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="O12" s="23">
+      <c r="O12" s="1">
         <v>10000</v>
       </c>
-      <c r="P12" s="23">
+      <c r="P12" s="1">
         <f>SUMIF(A:A,"type_2",C:C)</f>
         <v>1</v>
       </c>
-      <c r="Q12" s="27">
+      <c r="Q12" s="26">
         <f>(O13*O12)*P12</f>
         <v>1000000</v>
       </c>
@@ -1339,16 +1354,16 @@
       <c r="L13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="28" t="s">
+      <c r="N13" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="O13" s="29">
+      <c r="O13" s="30">
         <v>100</v>
       </c>
-      <c r="P13" s="28" t="s">
+      <c r="P13" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="Q13" s="35">
+      <c r="Q13" s="34">
         <f>Q8+Q9+Q10+Q11+Q12</f>
         <v>1184100</v>
       </c>
@@ -1378,10 +1393,10 @@
       <c r="L14" s="19">
         <v>0</v>
       </c>
-      <c r="N14" s="30"/>
+      <c r="N14" s="33"/>
       <c r="O14" s="31"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="36"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="35"/>
     </row>
     <row r="15" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
@@ -1408,12 +1423,12 @@
       <c r="L15" s="6">
         <v>0</v>
       </c>
-      <c r="P15" s="32">
-        <v>0.85</v>
-      </c>
-      <c r="Q15" s="33">
+      <c r="P15" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="Q15" s="28">
         <f>Q13*P15</f>
-        <v>1006485</v>
+        <v>947280</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1441,15 +1456,15 @@
       <c r="L16" s="7">
         <v>0</v>
       </c>
-      <c r="P16" s="32">
-        <v>0.85</v>
-      </c>
-      <c r="Q16" s="33">
+      <c r="P16" s="27">
+        <v>0.7</v>
+      </c>
+      <c r="Q16" s="28">
         <f>Q13*P16</f>
-        <v>1006485</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>828870</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
         <v>23</v>
       </c>
@@ -1474,8 +1489,15 @@
       <c r="L17" s="19" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P17" s="27">
+        <v>0.6</v>
+      </c>
+      <c r="Q17" s="28">
+        <f>Q13*P17</f>
+        <v>710460</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>21</v>
       </c>
@@ -1492,7 +1514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>21</v>
       </c>
@@ -1509,7 +1531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
         <v>23</v>
       </c>
@@ -1526,7 +1548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
         <v>23</v>
       </c>
@@ -1543,7 +1565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="14" t="s">
         <v>23</v>
       </c>
@@ -1560,7 +1582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
         <v>21</v>
       </c>
@@ -1577,7 +1599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
         <v>21</v>
       </c>
@@ -1594,7 +1616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>21</v>
       </c>
@@ -1611,7 +1633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
         <v>23</v>
       </c>
@@ -1628,7 +1650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="14" t="s">
         <v>23</v>
       </c>
@@ -1645,7 +1667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="14" t="s">
         <v>23</v>
       </c>
@@ -1662,7 +1684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
         <v>21</v>
       </c>
@@ -1679,7 +1701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>21</v>
       </c>
@@ -1696,7 +1718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="15" t="s">
         <v>13</v>
       </c>
@@ -1713,7 +1735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>21</v>
       </c>
@@ -1789,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="1">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>5</v>

--- a/Assets/Excel/Map/Chapter_1/Chapter_1.xlsx
+++ b/Assets/Excel/Map/Chapter_1/Chapter_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\UnityFile\Project_Run-Game-Production\Assets\Excel\Map\Chapter_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B51977-5572-4907-9DA2-99A551759CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24FB2CB-74BB-48E8-9186-2501746B15AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13800" yWindow="660" windowWidth="22665" windowHeight="13440" xr2:uid="{7789A3F8-44EE-4C38-A573-079D1C4BC80F}"/>
+    <workbookView xWindow="5415" yWindow="1920" windowWidth="28380" windowHeight="14325" activeTab="1" xr2:uid="{7789A3F8-44EE-4C38-A573-079D1C4BC80F}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage_1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="40">
   <si>
     <t>CoinType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,6 +182,14 @@
   </si>
   <si>
     <t>type_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 일반 더블점프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type_3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -490,7 +498,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -581,6 +589,24 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -597,6 +623,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="6" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -923,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C9955E-D329-426C-AA74-3448E8ED168B}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1346,16 +1384,16 @@
       <c r="L13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="32" t="s">
+      <c r="N13" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="O13" s="30">
+      <c r="O13" s="36">
         <v>100</v>
       </c>
-      <c r="P13" s="32" t="s">
+      <c r="P13" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="Q13" s="34">
+      <c r="Q13" s="40">
         <f>Q8+Q9+Q10+Q11+Q12</f>
         <v>1184100</v>
       </c>
@@ -1385,10 +1423,10 @@
       <c r="L14" s="19">
         <v>0</v>
       </c>
-      <c r="N14" s="33"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="35"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="41"/>
     </row>
     <row r="15" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
@@ -1871,7 +1909,7 @@
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2293,16 +2331,16 @@
       <c r="L13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="32" t="s">
+      <c r="N13" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="O13" s="30">
+      <c r="O13" s="36">
         <v>100</v>
       </c>
-      <c r="P13" s="32" t="s">
+      <c r="P13" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="Q13" s="34">
+      <c r="Q13" s="40">
         <f>Q8+Q9+Q10+Q11+Q12</f>
         <v>1184100</v>
       </c>
@@ -2332,10 +2370,10 @@
       <c r="L14" s="19">
         <v>0</v>
       </c>
-      <c r="N14" s="33"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="35"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="41"/>
     </row>
     <row r="15" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
@@ -2469,6 +2507,11 @@
       <c r="E19" s="17" t="s">
         <v>4</v>
       </c>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
     </row>
     <row r="20" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
@@ -2486,6 +2529,11 @@
       <c r="E20" s="17" t="s">
         <v>4</v>
       </c>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
     </row>
     <row r="21" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
@@ -2503,6 +2551,11 @@
       <c r="E21" s="17" t="s">
         <v>4</v>
       </c>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
     </row>
     <row r="22" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="14" t="s">
@@ -2520,6 +2573,11 @@
       <c r="E22" s="17" t="s">
         <v>4</v>
       </c>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
     </row>
     <row r="23" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
@@ -2537,6 +2595,11 @@
       <c r="E23" s="17" t="s">
         <v>4</v>
       </c>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
     </row>
     <row r="24" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
@@ -2554,6 +2617,11 @@
       <c r="E24" s="17" t="s">
         <v>4</v>
       </c>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
@@ -2571,6 +2639,11 @@
       <c r="E25" s="17" t="s">
         <v>4</v>
       </c>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
     </row>
     <row r="26" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
@@ -2588,6 +2661,11 @@
       <c r="E26" s="17" t="s">
         <v>4</v>
       </c>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
     </row>
     <row r="27" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="14" t="s">
@@ -2605,6 +2683,11 @@
       <c r="E27" s="17" t="s">
         <v>4</v>
       </c>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
     </row>
     <row r="28" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="14" t="s">
@@ -2622,6 +2705,11 @@
       <c r="E28" s="17" t="s">
         <v>4</v>
       </c>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
     </row>
     <row r="29" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
@@ -2814,10 +2902,1815 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D40F19-04CB-4AA4-9741-41F6888F37B1}">
+  <dimension ref="A1:Q90"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9" style="1"/>
+    <col min="14" max="14" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9" style="1"/>
+    <col min="17" max="17" width="16.125" style="28" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>10</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="3">
+        <f>SUM(C:C)</f>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="28">
+        <f>Q13*P15</f>
+        <v>509520</v>
+      </c>
+      <c r="I3" s="27">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="28">
+        <f>Q13*P16</f>
+        <v>445830</v>
+      </c>
+      <c r="I4" s="27">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="28">
+        <f>Q13*P17</f>
+        <v>382140</v>
+      </c>
+      <c r="I5" s="27">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="9">
+        <v>1</v>
+      </c>
+      <c r="C8" s="9">
+        <v>8</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+      <c r="P8" s="1">
+        <f>SUMIF(A:A,"coin_1",C:C)</f>
+        <v>115</v>
+      </c>
+      <c r="Q8" s="26">
+        <f>(O13*O8)*P8</f>
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="1">
+        <v>5</v>
+      </c>
+      <c r="P9" s="1">
+        <f>SUMIF(A:A,"coin_2",C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="26">
+        <f>(O13*O9)*P9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="1">
+        <v>50</v>
+      </c>
+      <c r="P10" s="1">
+        <f>SUMIF(A:A,"coin_3",C:C)</f>
+        <v>26</v>
+      </c>
+      <c r="Q10" s="26">
+        <f>(O13*O10)*P10</f>
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="O11" s="1">
+        <v>453</v>
+      </c>
+      <c r="P11" s="1">
+        <f>SUMIF(A:A,"type_1",C:C)</f>
+        <v>6</v>
+      </c>
+      <c r="Q11" s="26">
+        <f>(O13*O11)*P11</f>
+        <v>271800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="6">
+        <v>0</v>
+      </c>
+      <c r="N12" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12" s="30">
+        <v>1118</v>
+      </c>
+      <c r="P12" s="1">
+        <f>SUMIF(A:A,"type_2",C:C)</f>
+        <v>2</v>
+      </c>
+      <c r="Q12" s="26">
+        <f>(O13*O12)*P12</f>
+        <v>223600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="1">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="6">
+        <v>0</v>
+      </c>
+      <c r="N13" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="O13" s="36">
+        <v>100</v>
+      </c>
+      <c r="P13" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q13" s="40">
+        <f>Q8+Q9+Q10+Q11+Q12</f>
+        <v>636900</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="19">
+        <v>0</v>
+      </c>
+      <c r="N14" s="39"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="41"/>
+    </row>
+    <row r="15" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="9">
+        <v>1</v>
+      </c>
+      <c r="C15" s="9">
+        <v>8</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="6">
+        <v>0</v>
+      </c>
+      <c r="P15" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="Q15" s="28">
+        <f>Q13*P15</f>
+        <v>509520</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>10</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0</v>
+      </c>
+      <c r="P16" s="27">
+        <v>0.7</v>
+      </c>
+      <c r="Q16" s="28">
+        <f>Q13*P16</f>
+        <v>445830</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="P17" s="27">
+        <v>0.6</v>
+      </c>
+      <c r="Q17" s="28">
+        <f>Q13*P17</f>
+        <v>382140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="44"/>
+    </row>
+    <row r="20" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1">
+        <v>5</v>
+      </c>
+      <c r="M20" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="1">
+        <v>5</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1</v>
+      </c>
+      <c r="M21" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="1">
+        <v>10</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1</v>
+      </c>
+      <c r="M22" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>6</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="1">
+        <v>12</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N23" s="32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="1">
+        <v>10</v>
+      </c>
+      <c r="L24" s="1">
+        <v>1</v>
+      </c>
+      <c r="M24" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="N24" s="32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>6</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K25" s="1">
+        <v>5</v>
+      </c>
+      <c r="L25" s="1">
+        <v>1</v>
+      </c>
+      <c r="M25" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="N25" s="32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" s="9">
+        <v>1</v>
+      </c>
+      <c r="L26" s="9">
+        <v>8</v>
+      </c>
+      <c r="M26" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="N26" s="35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0</v>
+      </c>
+      <c r="C44" s="1">
+        <v>3</v>
+      </c>
+      <c r="D44" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1">
+        <v>5</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1">
+        <v>3</v>
+      </c>
+      <c r="D47" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1">
+        <v>10</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1">
+        <v>5</v>
+      </c>
+      <c r="D49" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1">
+        <v>3</v>
+      </c>
+      <c r="D51" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0</v>
+      </c>
+      <c r="C52" s="45">
+        <v>10</v>
+      </c>
+      <c r="D52" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0</v>
+      </c>
+      <c r="C53" s="45">
+        <v>1</v>
+      </c>
+      <c r="D53" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0</v>
+      </c>
+      <c r="C54" s="45">
+        <v>10</v>
+      </c>
+      <c r="D54" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+      <c r="D55" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="1">
+        <v>0</v>
+      </c>
+      <c r="C56" s="1">
+        <v>10</v>
+      </c>
+      <c r="D56" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" s="1">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1">
+        <v>2</v>
+      </c>
+      <c r="D57" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B58" s="1">
+        <v>2</v>
+      </c>
+      <c r="C58" s="1">
+        <v>2</v>
+      </c>
+      <c r="D58" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B59" s="1">
+        <v>3</v>
+      </c>
+      <c r="C59" s="1">
+        <v>2</v>
+      </c>
+      <c r="D59" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" s="1">
+        <v>4</v>
+      </c>
+      <c r="C60" s="1">
+        <v>2</v>
+      </c>
+      <c r="D60" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61" s="1">
+        <v>5</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B62" s="1">
+        <v>4</v>
+      </c>
+      <c r="C62" s="1">
+        <v>2</v>
+      </c>
+      <c r="D62" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B63" s="1">
+        <v>3</v>
+      </c>
+      <c r="C63" s="1">
+        <v>2</v>
+      </c>
+      <c r="D63" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B64" s="1">
+        <v>2</v>
+      </c>
+      <c r="C64" s="1">
+        <v>2</v>
+      </c>
+      <c r="D64" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B65" s="1">
+        <v>1</v>
+      </c>
+      <c r="C65" s="1">
+        <v>5</v>
+      </c>
+      <c r="D65" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1</v>
+      </c>
+      <c r="D66" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B67" s="1">
+        <v>1</v>
+      </c>
+      <c r="C67" s="1">
+        <v>5</v>
+      </c>
+      <c r="D67" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E67" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B68" s="1">
+        <v>5</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1</v>
+      </c>
+      <c r="D68" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E68" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B69" s="1">
+        <v>1</v>
+      </c>
+      <c r="C69" s="1">
+        <v>5</v>
+      </c>
+      <c r="D69" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E69" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B70" s="1">
+        <v>7</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1</v>
+      </c>
+      <c r="D70" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B71" s="1">
+        <v>1</v>
+      </c>
+      <c r="C71" s="1">
+        <v>5</v>
+      </c>
+      <c r="D71" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E71" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B72" s="1">
+        <v>2</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1</v>
+      </c>
+      <c r="D72" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B73" s="1">
+        <v>1</v>
+      </c>
+      <c r="C73" s="1">
+        <v>10</v>
+      </c>
+      <c r="D73" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E73" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74" s="1">
+        <v>0</v>
+      </c>
+      <c r="C74" s="1">
+        <v>1</v>
+      </c>
+      <c r="D74" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E74" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" s="1">
+        <v>0</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0</v>
+      </c>
+      <c r="D75" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E75" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="G75" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D76" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D77" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E77" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D78" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E78" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D79" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E79" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D80" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E80" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D81" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D82" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E82" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D83" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D84" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E84" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D85" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E85" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D86" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E86" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D87" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E87" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D88" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E88" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D89" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E89" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D90" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E90" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="J19:N19"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F20716C-A8AD-4DAE-A7E4-7DDCB053F8D7}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3239,16 +5132,16 @@
       <c r="L13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="32" t="s">
+      <c r="N13" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="O13" s="30">
+      <c r="O13" s="36">
         <v>100</v>
       </c>
-      <c r="P13" s="32" t="s">
+      <c r="P13" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="Q13" s="34">
+      <c r="Q13" s="40">
         <f>Q8+Q9+Q10+Q11+Q12</f>
         <v>1184100</v>
       </c>
@@ -3278,10 +5171,10 @@
       <c r="L14" s="19">
         <v>0</v>
       </c>
-      <c r="N14" s="33"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="35"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="41"/>
     </row>
     <row r="15" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
@@ -3759,12 +5652,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F20716C-A8AD-4DAE-A7E4-7DDCB053F8D7}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5D3D1D-CFA4-4C1D-A4DE-BD925E94E257}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4186,16 +6079,16 @@
       <c r="L13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="32" t="s">
+      <c r="N13" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="O13" s="30">
+      <c r="O13" s="36">
         <v>100</v>
       </c>
-      <c r="P13" s="32" t="s">
+      <c r="P13" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="Q13" s="34">
+      <c r="Q13" s="40">
         <f>Q8+Q9+Q10+Q11+Q12</f>
         <v>1184100</v>
       </c>
@@ -4225,10 +6118,10 @@
       <c r="L14" s="19">
         <v>0</v>
       </c>
-      <c r="N14" s="33"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="35"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="41"/>
     </row>
     <row r="15" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
@@ -4706,12 +6599,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5D3D1D-CFA4-4C1D-A4DE-BD925E94E257}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC34187-A8AF-4586-8EE1-6E5E1B344A6A}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5133,16 +7026,16 @@
       <c r="L13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="32" t="s">
+      <c r="N13" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="O13" s="30">
+      <c r="O13" s="36">
         <v>100</v>
       </c>
-      <c r="P13" s="32" t="s">
+      <c r="P13" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="Q13" s="34">
+      <c r="Q13" s="40">
         <f>Q8+Q9+Q10+Q11+Q12</f>
         <v>1184100</v>
       </c>
@@ -5172,10 +7065,10 @@
       <c r="L14" s="19">
         <v>0</v>
       </c>
-      <c r="N14" s="33"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="35"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="41"/>
     </row>
     <row r="15" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
@@ -5653,12 +7546,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC34187-A8AF-4586-8EE1-6E5E1B344A6A}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F562BDF9-DC5B-4ACC-99BF-7EDFEC2239A7}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6080,16 +7973,16 @@
       <c r="L13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="32" t="s">
+      <c r="N13" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="O13" s="30">
+      <c r="O13" s="36">
         <v>100</v>
       </c>
-      <c r="P13" s="32" t="s">
+      <c r="P13" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="Q13" s="34">
+      <c r="Q13" s="40">
         <f>Q8+Q9+Q10+Q11+Q12</f>
         <v>1184100</v>
       </c>
@@ -6119,10 +8012,10 @@
       <c r="L14" s="19">
         <v>0</v>
       </c>
-      <c r="N14" s="33"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="35"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="41"/>
     </row>
     <row r="15" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
@@ -6600,12 +8493,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F562BDF9-DC5B-4ACC-99BF-7EDFEC2239A7}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B2A810-27AF-485E-8346-9E6DD3C4FEDD}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7027,16 +8920,16 @@
       <c r="L13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="32" t="s">
+      <c r="N13" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="O13" s="30">
+      <c r="O13" s="36">
         <v>100</v>
       </c>
-      <c r="P13" s="32" t="s">
+      <c r="P13" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="Q13" s="34">
+      <c r="Q13" s="40">
         <f>Q8+Q9+Q10+Q11+Q12</f>
         <v>1184100</v>
       </c>
@@ -7066,10 +8959,10 @@
       <c r="L14" s="19">
         <v>0</v>
       </c>
-      <c r="N14" s="33"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="35"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="41"/>
     </row>
     <row r="15" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
@@ -7543,16 +9436,15 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B2A810-27AF-485E-8346-9E6DD3C4FEDD}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93557007-48CC-4915-B676-2018C849F25D}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7974,16 +9866,16 @@
       <c r="L13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="32" t="s">
+      <c r="N13" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="O13" s="30">
+      <c r="O13" s="36">
         <v>100</v>
       </c>
-      <c r="P13" s="32" t="s">
+      <c r="P13" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="Q13" s="34">
+      <c r="Q13" s="40">
         <f>Q8+Q9+Q10+Q11+Q12</f>
         <v>1184100</v>
       </c>
@@ -8013,10 +9905,10 @@
       <c r="L14" s="19">
         <v>0</v>
       </c>
-      <c r="N14" s="33"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="35"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="41"/>
     </row>
     <row r="15" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
@@ -8490,15 +10382,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93557007-48CC-4915-B676-2018C849F25D}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6947ED53-20B0-45E4-B382-9F51ECE0AD2B}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8920,16 +10813,16 @@
       <c r="L13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="32" t="s">
+      <c r="N13" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="O13" s="30">
+      <c r="O13" s="36">
         <v>100</v>
       </c>
-      <c r="P13" s="32" t="s">
+      <c r="P13" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="Q13" s="34">
+      <c r="Q13" s="40">
         <f>Q8+Q9+Q10+Q11+Q12</f>
         <v>1184100</v>
       </c>
@@ -8959,957 +10852,10 @@
       <c r="L14" s="19">
         <v>0</v>
       </c>
-      <c r="N14" s="33"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="35"/>
-    </row>
-    <row r="15" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L15" s="6">
-        <v>0</v>
-      </c>
-      <c r="P15" s="27">
-        <v>0.8</v>
-      </c>
-      <c r="Q15" s="28">
-        <f>Q13*P15</f>
-        <v>947280</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1">
-        <v>10</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="J16" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L16" s="7">
-        <v>0</v>
-      </c>
-      <c r="P16" s="27">
-        <v>0.7</v>
-      </c>
-      <c r="Q16" s="28">
-        <f>Q13*P16</f>
-        <v>828870</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1">
-        <v>10</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="J17" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="K17" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="L17" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P17" s="27">
-        <v>0.6</v>
-      </c>
-      <c r="Q17" s="28">
-        <f>Q13*P17</f>
-        <v>710460</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="1">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1">
-        <v>5</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="1">
-        <v>5</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="1">
-        <v>10</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="1">
-        <v>12</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1">
-        <v>10</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="1">
-        <v>5</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="1">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1">
-        <v>8</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="1">
-        <v>5</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="1">
-        <v>10</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="1">
-        <v>12</v>
-      </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="1">
-        <v>10</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="1">
-        <v>5</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="1">
-        <v>1</v>
-      </c>
-      <c r="C30" s="1">
-        <v>8</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="1">
-        <v>0</v>
-      </c>
-      <c r="C31" s="1">
-        <v>1</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" s="1">
-        <v>1</v>
-      </c>
-      <c r="C32" s="1">
-        <v>8</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="1">
-        <v>0</v>
-      </c>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B34" s="1">
-        <v>1</v>
-      </c>
-      <c r="C34" s="1">
-        <v>8</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="1">
-        <v>0</v>
-      </c>
-      <c r="C35" s="1">
-        <v>1</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="1">
-        <v>0</v>
-      </c>
-      <c r="C36" s="1">
-        <v>25</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="1">
-        <v>0</v>
-      </c>
-      <c r="C37" s="1">
-        <v>1</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G38" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39"/>
-      <c r="B39"/>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
-      <c r="F39"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40"/>
-      <c r="B40"/>
-      <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40"/>
-      <c r="F40"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="Q13:Q14"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6947ED53-20B0-45E4-B382-9F51ECE0AD2B}">
-  <dimension ref="A1:Q40"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.125" style="11" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9" style="1"/>
-    <col min="17" max="17" width="16.125" style="28" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>10</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="3">
-        <f>SUM(C:C)</f>
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>5</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="28">
-        <f>Q13*P15</f>
-        <v>947280</v>
-      </c>
-      <c r="I3" s="27">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>10</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="28">
-        <f>Q13*P16</f>
-        <v>828870</v>
-      </c>
-      <c r="I4" s="27">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="1">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="28">
-        <f>Q13*P17</f>
-        <v>710460</v>
-      </c>
-      <c r="I5" s="27">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="1">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="1">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N7" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="O7" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="P7" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q7" s="29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="1">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N8" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="O8" s="1">
-        <v>1</v>
-      </c>
-      <c r="P8" s="1">
-        <f>SUMIF(A:A,"coin_1",C:C)</f>
-        <v>85</v>
-      </c>
-      <c r="Q8" s="26">
-        <f>(O13*O8)*P8</f>
-        <v>8500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="1">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="N9" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="O9" s="1">
-        <v>5</v>
-      </c>
-      <c r="P9" s="1">
-        <f>SUMIF(A:A,"coin_2",C:C)</f>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="26">
-        <f>(O13*O9)*P9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
-        <v>5</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N10" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="O10" s="1">
-        <v>50</v>
-      </c>
-      <c r="P10" s="1">
-        <f>SUMIF(A:A,"coin_3",C:C)</f>
-        <v>19</v>
-      </c>
-      <c r="Q10" s="26">
-        <f>(O13*O10)*P10</f>
-        <v>95000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1">
-        <v>5</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" s="5">
-        <v>0</v>
-      </c>
-      <c r="N11" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="O11" s="1">
-        <v>403</v>
-      </c>
-      <c r="P11" s="1">
-        <f>SUMIF(A:A,"type_1",C:C)</f>
-        <v>2</v>
-      </c>
-      <c r="Q11" s="26">
-        <f>(O13*O11)*P11</f>
-        <v>80600</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12" s="6">
-        <v>0</v>
-      </c>
-      <c r="N12" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="O12" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P12" s="1">
-        <f>SUMIF(A:A,"type_2",C:C)</f>
-        <v>1</v>
-      </c>
-      <c r="Q12" s="26">
-        <f>(O13*O12)*P12</f>
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="J13" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L13" s="6">
-        <v>0</v>
-      </c>
-      <c r="N13" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="O13" s="30">
-        <v>100</v>
-      </c>
-      <c r="P13" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q13" s="34">
-        <f>Q8+Q9+Q10+Q11+Q12</f>
-        <v>1184100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1">
-        <v>5</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="K14" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="19">
-        <v>0</v>
-      </c>
-      <c r="N14" s="33"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="35"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="41"/>
     </row>
     <row r="15" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
